--- a/notebooks/NF1/input/NF1_NF1_individuals.xlsx
+++ b/notebooks/NF1/input/NF1_NF1_individuals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/NF1/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7F8D93-9484-1E4F-B4F6-BFC1EA75CAA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95B0D92-A88E-2B46-8D91-1E3254D1B0F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3640" yWindow="6320" windowWidth="36500" windowHeight="7620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4080" yWindow="500" windowWidth="33740" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="85">
   <si>
     <t>PMID</t>
   </si>
@@ -73,27 +73,6 @@
     <t>HPO</t>
   </si>
   <si>
-    <t>Aqueductal stenosis</t>
-  </si>
-  <si>
-    <t>Hydrocephalus</t>
-  </si>
-  <si>
-    <t>Pheochromocytoma</t>
-  </si>
-  <si>
-    <t>Meningioma</t>
-  </si>
-  <si>
-    <t>Carcinoid tumor</t>
-  </si>
-  <si>
-    <t>Pilocytic astrocytoma</t>
-  </si>
-  <si>
-    <t>Spina bifida</t>
-  </si>
-  <si>
     <t>Plexiform neurofibroma</t>
   </si>
   <si>
@@ -106,42 +85,18 @@
     <t>Neurofibrosarcoma</t>
   </si>
   <si>
-    <t>Pseudoarthrosis</t>
-  </si>
-  <si>
     <t>Scoliosis</t>
   </si>
   <si>
-    <t>Glaucoma</t>
-  </si>
-  <si>
-    <t>Hypertelorism</t>
-  </si>
-  <si>
     <t>Axillary freckling</t>
   </si>
   <si>
     <t>Inguinal freckling</t>
   </si>
   <si>
-    <t>Overgrowth</t>
-  </si>
-  <si>
-    <t>Hypertension</t>
-  </si>
-  <si>
-    <t>Parathyroid adenoma</t>
-  </si>
-  <si>
-    <t>Macrocephaly</t>
-  </si>
-  <si>
     <t>Lisch nodules</t>
   </si>
   <si>
-    <t>Renal artery stenosis</t>
-  </si>
-  <si>
     <t>CURIE</t>
   </si>
   <si>
@@ -178,27 +133,6 @@
     <t>na</t>
   </si>
   <si>
-    <t>HP:0002410</t>
-  </si>
-  <si>
-    <t>HP:0000238</t>
-  </si>
-  <si>
-    <t>HP:0002666</t>
-  </si>
-  <si>
-    <t>HP:0002858</t>
-  </si>
-  <si>
-    <t>HP:0100570</t>
-  </si>
-  <si>
-    <t>HP:0033680</t>
-  </si>
-  <si>
-    <t>HP:0002414</t>
-  </si>
-  <si>
     <t>HP:0009732</t>
   </si>
   <si>
@@ -211,42 +145,18 @@
     <t>HP:0100697</t>
   </si>
   <si>
-    <t>HP:0005864</t>
-  </si>
-  <si>
     <t>HP:0002650</t>
   </si>
   <si>
-    <t>HP:0000501</t>
-  </si>
-  <si>
-    <t>HP:0000316</t>
-  </si>
-  <si>
     <t>HP:0000997</t>
   </si>
   <si>
     <t>HP:0030052</t>
   </si>
   <si>
-    <t>HP:0001548</t>
-  </si>
-  <si>
-    <t>HP:0000822</t>
-  </si>
-  <si>
-    <t>HP:0002897</t>
-  </si>
-  <si>
-    <t>HP:0000256</t>
-  </si>
-  <si>
     <t>HP:0009737</t>
   </si>
   <si>
-    <t>HP:0001920</t>
-  </si>
-  <si>
     <t>PMID:9101303</t>
   </si>
   <si>
@@ -268,12 +178,6 @@
     <t>HP:0000767</t>
   </si>
   <si>
-    <t>Kyphoscoliosis</t>
-  </si>
-  <si>
-    <t>HP:0002751</t>
-  </si>
-  <si>
     <t>Hypopigmentation of the skin</t>
   </si>
   <si>
@@ -314,6 +218,63 @@
   </si>
   <si>
     <t>c.4552dup</t>
+  </si>
+  <si>
+    <t>patient</t>
+  </si>
+  <si>
+    <t>NM_000267.3:c.6792C&gt;A=NM_001042492.3:c.6855C&gt;A=NP_001035957.1:p.(Y2285*)</t>
+  </si>
+  <si>
+    <t>c.6855C&gt;A</t>
+  </si>
+  <si>
+    <t>PMID:7607663</t>
+  </si>
+  <si>
+    <t>Two recurrent nonsense mutations and a 4 bp deletion in a quasi-symmetric element in exon 37 of the NF1 gene</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Kyphosis</t>
+  </si>
+  <si>
+    <t>HP:0002808</t>
+  </si>
+  <si>
+    <t>PMID:8664912</t>
+  </si>
+  <si>
+    <t>Recurrent 2-bp deletion in exon 10c of the NF1 gene in two cases of von Recklinghausen neurofibromatosis</t>
+  </si>
+  <si>
+    <t>Patient 0541</t>
+  </si>
+  <si>
+    <t>Patient 0542</t>
+  </si>
+  <si>
+    <t>P12Y</t>
+  </si>
+  <si>
+    <t>Patient 0544 twin 1</t>
+  </si>
+  <si>
+    <t>Patient 0544 twin 2</t>
+  </si>
+  <si>
+    <t>Patient 0545</t>
+  </si>
+  <si>
+    <t>P55Y</t>
+  </si>
+  <si>
+    <t>NM_000267.3:c.1541_1542del=NM_001042492.3:c.1541_1542del</t>
+  </si>
+  <si>
+    <t>c.1541_1542del</t>
   </si>
 </sst>
 </file>
@@ -690,15 +651,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR4"/>
+  <dimension ref="A1:AC9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="9" max="9" width="15.83203125" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -763,10 +728,10 @@
         <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>23</v>
@@ -774,326 +739,612 @@
       <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="B2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2" t="s">
+        <v>40</v>
+      </c>
+      <c r="V2" t="s">
+        <v>42</v>
+      </c>
+      <c r="W2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="F3" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="G3" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="H3" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="I3" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="J3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>57</v>
+      </c>
+      <c r="P3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" t="s">
+        <v>63</v>
+      </c>
+      <c r="U3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" t="s">
+        <v>57</v>
+      </c>
+      <c r="P4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V4" t="s">
+        <v>47</v>
+      </c>
+      <c r="W4" t="s">
+        <v>47</v>
+      </c>
+      <c r="X4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" t="s">
+        <v>57</v>
+      </c>
+      <c r="P5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V5" t="s">
+        <v>47</v>
+      </c>
+      <c r="W5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" t="s">
+        <v>57</v>
+      </c>
+      <c r="P6" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U6" t="s">
+        <v>47</v>
+      </c>
+      <c r="V6" t="s">
+        <v>63</v>
+      </c>
+      <c r="W6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" t="s">
         <v>78</v>
       </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="2" t="s">
+      <c r="O7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>36</v>
+      </c>
+      <c r="S7" t="s">
+        <v>47</v>
+      </c>
+      <c r="U7" t="s">
+        <v>47</v>
+      </c>
+      <c r="V7" t="s">
+        <v>47</v>
+      </c>
+      <c r="W7" t="s">
+        <v>47</v>
+      </c>
+      <c r="X7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" t="s">
         <v>80</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N8" t="s">
+        <v>78</v>
+      </c>
+      <c r="O8" t="s">
+        <v>57</v>
+      </c>
+      <c r="P8" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>36</v>
+      </c>
+      <c r="S8" t="s">
+        <v>63</v>
+      </c>
+      <c r="U8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V8" t="s">
+        <v>47</v>
+      </c>
+      <c r="W8" t="s">
+        <v>47</v>
+      </c>
+      <c r="X8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" t="s">
+        <v>84</v>
+      </c>
+      <c r="K9" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" t="s">
+        <v>83</v>
+      </c>
+      <c r="M9" t="s">
+        <v>36</v>
+      </c>
+      <c r="N9" t="s">
         <v>82</v>
       </c>
-      <c r="AR1" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M2" t="s">
-        <v>48</v>
-      </c>
-      <c r="N2" t="s">
-        <v>48</v>
-      </c>
-      <c r="O2" t="s">
-        <v>49</v>
-      </c>
-      <c r="P2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>51</v>
-      </c>
-      <c r="R2" t="s">
-        <v>52</v>
-      </c>
-      <c r="S2" t="s">
-        <v>53</v>
-      </c>
-      <c r="T2" t="s">
-        <v>54</v>
-      </c>
-      <c r="U2" t="s">
-        <v>55</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="O9" t="s">
+        <v>57</v>
+      </c>
+      <c r="P9" t="s">
         <v>56</v>
       </c>
-      <c r="W2" t="s">
-        <v>57</v>
-      </c>
-      <c r="X2" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" t="s">
-        <v>86</v>
-      </c>
-      <c r="K3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L3" t="s">
-        <v>87</v>
-      </c>
-      <c r="M3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N3" t="s">
-        <v>90</v>
-      </c>
-      <c r="O3" t="s">
-        <v>89</v>
-      </c>
-      <c r="P3" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" t="s">
-        <v>97</v>
-      </c>
-      <c r="K4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L4" t="s">
-        <v>96</v>
-      </c>
-      <c r="M4" t="s">
-        <v>51</v>
-      </c>
-      <c r="N4" t="s">
-        <v>94</v>
-      </c>
-      <c r="O4" t="s">
-        <v>89</v>
-      </c>
-      <c r="P4" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>77</v>
+      <c r="Q9" t="s">
+        <v>36</v>
+      </c>
+      <c r="S9" t="s">
+        <v>63</v>
+      </c>
+      <c r="U9" t="s">
+        <v>47</v>
+      </c>
+      <c r="V9" t="s">
+        <v>47</v>
+      </c>
+      <c r="W9" t="s">
+        <v>47</v>
+      </c>
+      <c r="X9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/notebooks/NF1/input/NF1_NF1_individuals.xlsx
+++ b/notebooks/NF1/input/NF1_NF1_individuals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/NF1/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCC41C8-0605-9647-A15E-63BDB61C740C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524DC4C6-3428-9D45-94FA-2D0C41986DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20540" yWindow="500" windowWidth="47060" windowHeight="24120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20560" yWindow="500" windowWidth="47060" windowHeight="24120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7689" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8207" uniqueCount="389">
   <si>
     <t>PMID</t>
   </si>
@@ -999,13 +999,214 @@
   </si>
   <si>
     <t>c.2524_2531delinsAGCTTCCA</t>
+  </si>
+  <si>
+    <t>PMID:38596211</t>
+  </si>
+  <si>
+    <t>Mutation analysis and clinical profile of South African patients with Neurofibromatosis type 1 (NF1) phenotype</t>
+  </si>
+  <si>
+    <t>individual 1</t>
+  </si>
+  <si>
+    <t>individual 2</t>
+  </si>
+  <si>
+    <t>individual 3</t>
+  </si>
+  <si>
+    <t>individual 4</t>
+  </si>
+  <si>
+    <t>individual 5</t>
+  </si>
+  <si>
+    <t>individual 6</t>
+  </si>
+  <si>
+    <t>individual 7</t>
+  </si>
+  <si>
+    <t>individual 9</t>
+  </si>
+  <si>
+    <t>individual 10</t>
+  </si>
+  <si>
+    <t>individual 11</t>
+  </si>
+  <si>
+    <t>individual 12</t>
+  </si>
+  <si>
+    <t>individual 13</t>
+  </si>
+  <si>
+    <t>individual 14</t>
+  </si>
+  <si>
+    <t>individual 15</t>
+  </si>
+  <si>
+    <t>individual 16</t>
+  </si>
+  <si>
+    <t>c.6772C&gt;T</t>
+  </si>
+  <si>
+    <t>p.Arg2258Ter</t>
+  </si>
+  <si>
+    <t>c.496_497del</t>
+  </si>
+  <si>
+    <t>p.Val166Leufs</t>
+  </si>
+  <si>
+    <t>c.3721C&gt;T</t>
+  </si>
+  <si>
+    <t>p.Arg1241Ter</t>
+  </si>
+  <si>
+    <t>c.569T&gt;G</t>
+  </si>
+  <si>
+    <t>p.Leu190Ter</t>
+  </si>
+  <si>
+    <t>c.5267_5268del</t>
+  </si>
+  <si>
+    <t>p.Lys1756Serfs</t>
+  </si>
+  <si>
+    <t>c.27G&gt;A</t>
+  </si>
+  <si>
+    <t>p.Trp9Ter</t>
+  </si>
+  <si>
+    <t>c.1885G&gt;C</t>
+  </si>
+  <si>
+    <t>p.Gly629Arg</t>
+  </si>
+  <si>
+    <t>p.Trp1997Ter</t>
+  </si>
+  <si>
+    <t>c.1A&gt;C</t>
+  </si>
+  <si>
+    <t>p.Met1?</t>
+  </si>
+  <si>
+    <t>c.5609G&gt;A</t>
+  </si>
+  <si>
+    <t>p.Arg1870Gln</t>
+  </si>
+  <si>
+    <t>c.616A&gt;T</t>
+  </si>
+  <si>
+    <t>p.Lys206Ter</t>
+  </si>
+  <si>
+    <t>Type 3 deletion</t>
+  </si>
+  <si>
+    <t>rsa [GRCh37] 17q11.2(29413855_30348624)x1</t>
+  </si>
+  <si>
+    <t>Two exon deletion</t>
+  </si>
+  <si>
+    <t>rsa [GRCh37] 17q11.2(29554285_29554561)x1</t>
+  </si>
+  <si>
+    <t>Type 1 deletion</t>
+  </si>
+  <si>
+    <t>rsa [GRCh37] 17q11.2(29058373_30348624)x1</t>
+  </si>
+  <si>
+    <t>P1Y11M</t>
+  </si>
+  <si>
+    <t>P13Y11M</t>
+  </si>
+  <si>
+    <t>P8Y8M</t>
+  </si>
+  <si>
+    <t>P6Y6M</t>
+  </si>
+  <si>
+    <t>P28Y0M</t>
+  </si>
+  <si>
+    <t>P13Y4M</t>
+  </si>
+  <si>
+    <t>P4Y10M</t>
+  </si>
+  <si>
+    <t>P9Y9M</t>
+  </si>
+  <si>
+    <t>P42Y9M</t>
+  </si>
+  <si>
+    <t>P5Y8M</t>
+  </si>
+  <si>
+    <t>P0Y6M</t>
+  </si>
+  <si>
+    <t>P2Y4M</t>
+  </si>
+  <si>
+    <t>P12Y3M</t>
+  </si>
+  <si>
+    <t>P12Y2M</t>
+  </si>
+  <si>
+    <t>Hypertelorism</t>
+  </si>
+  <si>
+    <t>HP:0000316</t>
+  </si>
+  <si>
+    <t>Downslanted palpebral fissures</t>
+  </si>
+  <si>
+    <t>HP:0000494</t>
+  </si>
+  <si>
+    <t>Low-set ears</t>
+  </si>
+  <si>
+    <t>HP:0000369</t>
+  </si>
+  <si>
+    <t>Webbed neck</t>
+  </si>
+  <si>
+    <t>HP:0000465</t>
+  </si>
+  <si>
+    <t>c.5991G&gt;A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1047,6 +1248,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212121"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1083,7 +1297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1094,6 +1308,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1398,10 +1614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY168"/>
+  <dimension ref="A1:BC183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C112" zoomScale="99" workbookViewId="0">
-      <selection activeCell="C143" sqref="A143:XFD144"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="99" workbookViewId="0">
+      <selection activeCell="J177" sqref="J177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1410,9 +1626,10 @@
     <col min="5" max="8" width="8.83203125" customWidth="1"/>
     <col min="9" max="9" width="15.83203125" customWidth="1"/>
     <col min="10" max="10" width="11.83203125" customWidth="1"/>
+    <col min="30" max="30" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1566,8 +1783,20 @@
       <c r="AY1" s="1" t="s">
         <v>311</v>
       </c>
+      <c r="AZ1" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="BA1" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="BB1" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="BC1" s="2" t="s">
+        <v>386</v>
+      </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -1721,8 +1950,20 @@
       <c r="AY2" t="s">
         <v>320</v>
       </c>
+      <c r="AZ2" t="s">
+        <v>381</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>383</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>385</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>387</v>
+      </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -1856,7 +2097,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>57</v>
       </c>
@@ -1993,7 +2234,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -2130,7 +2371,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -2264,7 +2505,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>72</v>
       </c>
@@ -2401,7 +2642,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>72</v>
       </c>
@@ -2535,7 +2776,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>72</v>
       </c>
@@ -2663,7 +2904,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:51" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:55" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>85</v>
       </c>
@@ -2803,7 +3044,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:51" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:55" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>85</v>
       </c>
@@ -2943,7 +3184,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:51" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:55" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>85</v>
       </c>
@@ -3083,7 +3324,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:51" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:55" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>85</v>
       </c>
@@ -3223,7 +3464,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:51" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:55" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>85</v>
       </c>
@@ -3363,7 +3604,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:51" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:55" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>85</v>
       </c>
@@ -3503,7 +3744,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:51" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:55" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>85</v>
       </c>
@@ -23714,7 +23955,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="161" spans="1:51" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:55" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>85</v>
       </c>
@@ -23854,7 +24095,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="162" spans="1:51" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:55" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>85</v>
       </c>
@@ -23994,7 +24235,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="163" spans="1:51" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:55" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>85</v>
       </c>
@@ -24134,7 +24375,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="164" spans="1:51" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:55" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>85</v>
       </c>
@@ -24271,7 +24512,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="165" spans="1:51" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:55" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>85</v>
       </c>
@@ -24408,7 +24649,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="166" spans="1:51" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:55" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>85</v>
       </c>
@@ -24548,7 +24789,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="167" spans="1:51" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:55" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>85</v>
       </c>
@@ -24685,7 +24926,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="168" spans="1:51" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:55" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>85</v>
       </c>
@@ -24819,6 +25060,1566 @@
         <v>61</v>
       </c>
       <c r="AY168" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="169" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>322</v>
+      </c>
+      <c r="B169" t="s">
+        <v>323</v>
+      </c>
+      <c r="C169" t="s">
+        <v>324</v>
+      </c>
+      <c r="E169" t="s">
+        <v>27</v>
+      </c>
+      <c r="F169" t="s">
+        <v>28</v>
+      </c>
+      <c r="G169" t="s">
+        <v>29</v>
+      </c>
+      <c r="H169" t="s">
+        <v>30</v>
+      </c>
+      <c r="I169" t="s">
+        <v>31</v>
+      </c>
+      <c r="J169" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="K169" t="s">
+        <v>35</v>
+      </c>
+      <c r="L169" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="M169" t="s">
+        <v>35</v>
+      </c>
+      <c r="N169" t="s">
+        <v>366</v>
+      </c>
+      <c r="P169" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q169" t="s">
+        <v>35</v>
+      </c>
+      <c r="R169" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="T169" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="V169" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="W169" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y169" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z169" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA169" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB169" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC169" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD169" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE169" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG169" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO169" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV169" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AX169" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AZ169" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="BA169" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB169" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="BC169" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="170" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>322</v>
+      </c>
+      <c r="B170" t="s">
+        <v>323</v>
+      </c>
+      <c r="C170" t="s">
+        <v>325</v>
+      </c>
+      <c r="E170" t="s">
+        <v>27</v>
+      </c>
+      <c r="F170" t="s">
+        <v>28</v>
+      </c>
+      <c r="G170" t="s">
+        <v>29</v>
+      </c>
+      <c r="H170" t="s">
+        <v>30</v>
+      </c>
+      <c r="I170" t="s">
+        <v>31</v>
+      </c>
+      <c r="J170" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="K170" t="s">
+        <v>35</v>
+      </c>
+      <c r="L170" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="M170" t="s">
+        <v>35</v>
+      </c>
+      <c r="N170" t="s">
+        <v>367</v>
+      </c>
+      <c r="P170" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q170" t="s">
+        <v>35</v>
+      </c>
+      <c r="R170" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="T170" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="V170" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="W170" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y170" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z170" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA170" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB170" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC170" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD170" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE170" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG170" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO170" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV170" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX170" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ170" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="BA170" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB170" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC170" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="171" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>322</v>
+      </c>
+      <c r="B171" t="s">
+        <v>323</v>
+      </c>
+      <c r="C171" t="s">
+        <v>326</v>
+      </c>
+      <c r="E171" t="s">
+        <v>27</v>
+      </c>
+      <c r="F171" t="s">
+        <v>28</v>
+      </c>
+      <c r="G171" t="s">
+        <v>29</v>
+      </c>
+      <c r="H171" t="s">
+        <v>30</v>
+      </c>
+      <c r="I171" t="s">
+        <v>31</v>
+      </c>
+      <c r="J171" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="K171" t="s">
+        <v>35</v>
+      </c>
+      <c r="L171" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="M171" t="s">
+        <v>35</v>
+      </c>
+      <c r="N171" t="s">
+        <v>368</v>
+      </c>
+      <c r="P171" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q171" t="s">
+        <v>35</v>
+      </c>
+      <c r="R171" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="T171" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="V171" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="W171" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y171" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z171" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA171" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB171" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC171" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD171" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE171" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG171" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO171" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV171" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AX171" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AZ171" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA171" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB171" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC171" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="172" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>322</v>
+      </c>
+      <c r="B172" t="s">
+        <v>323</v>
+      </c>
+      <c r="C172" t="s">
+        <v>327</v>
+      </c>
+      <c r="E172" t="s">
+        <v>27</v>
+      </c>
+      <c r="F172" t="s">
+        <v>28</v>
+      </c>
+      <c r="G172" t="s">
+        <v>29</v>
+      </c>
+      <c r="H172" t="s">
+        <v>30</v>
+      </c>
+      <c r="I172" t="s">
+        <v>31</v>
+      </c>
+      <c r="J172" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="K172" t="s">
+        <v>35</v>
+      </c>
+      <c r="L172" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="M172" t="s">
+        <v>35</v>
+      </c>
+      <c r="N172" t="s">
+        <v>369</v>
+      </c>
+      <c r="P172" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q172" t="s">
+        <v>35</v>
+      </c>
+      <c r="R172" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="T172" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="V172" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="W172" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y172" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z172" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA172" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB172" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC172" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD172" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE172" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG172" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO172" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV172" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AX172" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AZ172" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="BA172" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB172" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC172" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="173" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>322</v>
+      </c>
+      <c r="B173" t="s">
+        <v>323</v>
+      </c>
+      <c r="C173" t="s">
+        <v>328</v>
+      </c>
+      <c r="E173" t="s">
+        <v>27</v>
+      </c>
+      <c r="F173" t="s">
+        <v>28</v>
+      </c>
+      <c r="G173" t="s">
+        <v>29</v>
+      </c>
+      <c r="H173" t="s">
+        <v>30</v>
+      </c>
+      <c r="I173" t="s">
+        <v>31</v>
+      </c>
+      <c r="J173" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="K173" t="s">
+        <v>35</v>
+      </c>
+      <c r="L173" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="M173" t="s">
+        <v>35</v>
+      </c>
+      <c r="N173" t="s">
+        <v>370</v>
+      </c>
+      <c r="P173" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q173" t="s">
+        <v>35</v>
+      </c>
+      <c r="R173" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="T173" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="V173" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="W173" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y173" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z173" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA173" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB173" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC173" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD173" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE173" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG173" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO173" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV173" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AX173" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AZ173" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="BA173" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB173" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC173" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="174" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>322</v>
+      </c>
+      <c r="B174" t="s">
+        <v>323</v>
+      </c>
+      <c r="C174" t="s">
+        <v>329</v>
+      </c>
+      <c r="E174" t="s">
+        <v>27</v>
+      </c>
+      <c r="F174" t="s">
+        <v>28</v>
+      </c>
+      <c r="G174" t="s">
+        <v>29</v>
+      </c>
+      <c r="H174" t="s">
+        <v>30</v>
+      </c>
+      <c r="I174" t="s">
+        <v>31</v>
+      </c>
+      <c r="J174" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="K174" t="s">
+        <v>35</v>
+      </c>
+      <c r="L174" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="M174" t="s">
+        <v>35</v>
+      </c>
+      <c r="N174" t="s">
+        <v>371</v>
+      </c>
+      <c r="P174" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q174" t="s">
+        <v>35</v>
+      </c>
+      <c r="R174" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="T174" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="V174" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="W174" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y174" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z174" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA174" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB174" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC174" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD174" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE174" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG174" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO174" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV174" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AX174" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ174" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="BA174" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB174" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC174" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="175" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>322</v>
+      </c>
+      <c r="B175" t="s">
+        <v>323</v>
+      </c>
+      <c r="C175" t="s">
+        <v>330</v>
+      </c>
+      <c r="E175" t="s">
+        <v>27</v>
+      </c>
+      <c r="F175" t="s">
+        <v>28</v>
+      </c>
+      <c r="G175" t="s">
+        <v>29</v>
+      </c>
+      <c r="H175" t="s">
+        <v>30</v>
+      </c>
+      <c r="I175" t="s">
+        <v>31</v>
+      </c>
+      <c r="J175" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="K175" t="s">
+        <v>35</v>
+      </c>
+      <c r="L175" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="M175" t="s">
+        <v>35</v>
+      </c>
+      <c r="N175" t="s">
+        <v>372</v>
+      </c>
+      <c r="P175" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q175" t="s">
+        <v>35</v>
+      </c>
+      <c r="R175" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="T175" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="V175" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="W175" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y175" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z175" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA175" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB175" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC175" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD175" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE175" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG175" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO175" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV175" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AX175" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AZ175" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="BA175" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB175" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC175" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="176" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>322</v>
+      </c>
+      <c r="B176" t="s">
+        <v>323</v>
+      </c>
+      <c r="C176" t="s">
+        <v>331</v>
+      </c>
+      <c r="E176" t="s">
+        <v>27</v>
+      </c>
+      <c r="F176" t="s">
+        <v>28</v>
+      </c>
+      <c r="G176" t="s">
+        <v>29</v>
+      </c>
+      <c r="H176" t="s">
+        <v>30</v>
+      </c>
+      <c r="I176" t="s">
+        <v>31</v>
+      </c>
+      <c r="J176" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="K176" t="s">
+        <v>35</v>
+      </c>
+      <c r="L176" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="M176" t="s">
+        <v>35</v>
+      </c>
+      <c r="N176" t="s">
+        <v>373</v>
+      </c>
+      <c r="P176" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q176" t="s">
+        <v>35</v>
+      </c>
+      <c r="R176" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="T176" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="V176" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="W176" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y176" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z176" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA176" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB176" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC176" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD176" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE176" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG176" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO176" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV176" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AX176" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AZ176" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="BA176" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB176" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC176" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="177" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>322</v>
+      </c>
+      <c r="B177" t="s">
+        <v>323</v>
+      </c>
+      <c r="C177" t="s">
+        <v>332</v>
+      </c>
+      <c r="E177" t="s">
+        <v>27</v>
+      </c>
+      <c r="F177" t="s">
+        <v>28</v>
+      </c>
+      <c r="G177" t="s">
+        <v>29</v>
+      </c>
+      <c r="H177" t="s">
+        <v>30</v>
+      </c>
+      <c r="I177" t="s">
+        <v>31</v>
+      </c>
+      <c r="J177" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K177" t="s">
+        <v>35</v>
+      </c>
+      <c r="L177" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="M177" t="s">
+        <v>35</v>
+      </c>
+      <c r="N177" t="s">
+        <v>374</v>
+      </c>
+      <c r="P177" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q177" t="s">
+        <v>35</v>
+      </c>
+      <c r="R177" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="T177" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="V177" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="W177" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y177" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z177" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA177" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB177" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC177" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD177" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE177" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG177" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO177" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV177" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AX177" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AZ177" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="BA177" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB177" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC177" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="178" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>322</v>
+      </c>
+      <c r="B178" t="s">
+        <v>323</v>
+      </c>
+      <c r="C178" t="s">
+        <v>333</v>
+      </c>
+      <c r="E178" t="s">
+        <v>27</v>
+      </c>
+      <c r="F178" t="s">
+        <v>28</v>
+      </c>
+      <c r="G178" t="s">
+        <v>29</v>
+      </c>
+      <c r="H178" t="s">
+        <v>30</v>
+      </c>
+      <c r="I178" t="s">
+        <v>31</v>
+      </c>
+      <c r="J178" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="K178" t="s">
+        <v>35</v>
+      </c>
+      <c r="L178" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="M178" t="s">
+        <v>35</v>
+      </c>
+      <c r="N178" t="s">
+        <v>375</v>
+      </c>
+      <c r="P178" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q178" t="s">
+        <v>35</v>
+      </c>
+      <c r="R178" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="T178" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="V178" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="W178" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y178" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z178" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA178" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB178" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC178" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD178" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE178" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG178" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO178" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV178" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AX178" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AZ178" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA178" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB178" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="BC178" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="179" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>322</v>
+      </c>
+      <c r="B179" t="s">
+        <v>323</v>
+      </c>
+      <c r="C179" t="s">
+        <v>334</v>
+      </c>
+      <c r="E179" t="s">
+        <v>27</v>
+      </c>
+      <c r="F179" t="s">
+        <v>28</v>
+      </c>
+      <c r="G179" t="s">
+        <v>29</v>
+      </c>
+      <c r="H179" t="s">
+        <v>30</v>
+      </c>
+      <c r="I179" t="s">
+        <v>31</v>
+      </c>
+      <c r="J179" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="K179" t="s">
+        <v>35</v>
+      </c>
+      <c r="L179" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="M179" t="s">
+        <v>35</v>
+      </c>
+      <c r="N179" t="s">
+        <v>376</v>
+      </c>
+      <c r="P179" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q179" t="s">
+        <v>35</v>
+      </c>
+      <c r="R179" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="T179" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="V179" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="W179" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y179" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z179" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA179" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB179" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC179" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD179" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE179" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG179" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO179" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV179" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AX179" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AZ179" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="BA179" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB179" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC179" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="180" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>322</v>
+      </c>
+      <c r="B180" t="s">
+        <v>323</v>
+      </c>
+      <c r="C180" t="s">
+        <v>335</v>
+      </c>
+      <c r="E180" t="s">
+        <v>27</v>
+      </c>
+      <c r="F180" t="s">
+        <v>28</v>
+      </c>
+      <c r="G180" t="s">
+        <v>29</v>
+      </c>
+      <c r="H180" t="s">
+        <v>30</v>
+      </c>
+      <c r="I180" t="s">
+        <v>31</v>
+      </c>
+      <c r="J180" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="K180" t="s">
+        <v>35</v>
+      </c>
+      <c r="L180" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="M180" t="s">
+        <v>35</v>
+      </c>
+      <c r="N180" t="s">
+        <v>377</v>
+      </c>
+      <c r="P180" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q180" t="s">
+        <v>35</v>
+      </c>
+      <c r="R180" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="T180" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="V180" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="W180" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y180" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z180" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA180" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB180" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC180" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD180" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE180" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG180" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO180" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV180" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AX180" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AZ180" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="BA180" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB180" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC180" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="181" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>322</v>
+      </c>
+      <c r="B181" t="s">
+        <v>323</v>
+      </c>
+      <c r="C181" t="s">
+        <v>336</v>
+      </c>
+      <c r="E181" t="s">
+        <v>27</v>
+      </c>
+      <c r="F181" t="s">
+        <v>28</v>
+      </c>
+      <c r="G181" t="s">
+        <v>29</v>
+      </c>
+      <c r="H181" t="s">
+        <v>30</v>
+      </c>
+      <c r="I181" t="s">
+        <v>31</v>
+      </c>
+      <c r="J181" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="K181" t="s">
+        <v>35</v>
+      </c>
+      <c r="L181" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="M181" t="s">
+        <v>35</v>
+      </c>
+      <c r="N181" t="s">
+        <v>369</v>
+      </c>
+      <c r="P181" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q181" t="s">
+        <v>35</v>
+      </c>
+      <c r="R181" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="T181" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="V181" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="W181" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y181" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z181" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA181" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB181" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC181" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD181" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE181" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG181" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO181" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV181" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AX181" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AZ181" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="BA181" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB181" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC181" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="182" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>322</v>
+      </c>
+      <c r="B182" t="s">
+        <v>323</v>
+      </c>
+      <c r="C182" t="s">
+        <v>337</v>
+      </c>
+      <c r="E182" t="s">
+        <v>27</v>
+      </c>
+      <c r="F182" t="s">
+        <v>28</v>
+      </c>
+      <c r="G182" t="s">
+        <v>29</v>
+      </c>
+      <c r="H182" t="s">
+        <v>30</v>
+      </c>
+      <c r="I182" t="s">
+        <v>31</v>
+      </c>
+      <c r="J182" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="K182" t="s">
+        <v>35</v>
+      </c>
+      <c r="L182" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="M182" t="s">
+        <v>35</v>
+      </c>
+      <c r="N182" t="s">
+        <v>378</v>
+      </c>
+      <c r="P182" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q182" t="s">
+        <v>35</v>
+      </c>
+      <c r="R182" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="T182" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="V182" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="W182" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y182" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z182" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA182" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB182" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC182" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD182" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE182" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG182" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO182" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV182" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AX182" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AZ182" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="BA182" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB182" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC182" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="183" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>322</v>
+      </c>
+      <c r="B183" t="s">
+        <v>323</v>
+      </c>
+      <c r="C183" t="s">
+        <v>338</v>
+      </c>
+      <c r="E183" t="s">
+        <v>27</v>
+      </c>
+      <c r="F183" t="s">
+        <v>28</v>
+      </c>
+      <c r="G183" t="s">
+        <v>29</v>
+      </c>
+      <c r="H183" t="s">
+        <v>30</v>
+      </c>
+      <c r="I183" t="s">
+        <v>31</v>
+      </c>
+      <c r="J183" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="K183" t="s">
+        <v>35</v>
+      </c>
+      <c r="L183" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="M183" t="s">
+        <v>35</v>
+      </c>
+      <c r="N183" t="s">
+        <v>379</v>
+      </c>
+      <c r="P183" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q183" t="s">
+        <v>35</v>
+      </c>
+      <c r="R183" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="T183" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="V183" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="W183" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y183" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z183" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA183" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB183" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC183" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD183" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE183" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG183" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO183" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV183" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AX183" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AZ183" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA183" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB183" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC183" s="6" t="s">
         <v>61</v>
       </c>
     </row>

--- a/notebooks/NF1/input/NF1_NF1_individuals.xlsx
+++ b/notebooks/NF1/input/NF1_NF1_individuals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/NF1/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E814E3A9-25F3-3944-B29F-AA37F2807278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E724AD-52E4-5940-BDE4-58A5C9B4CDE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4540" yWindow="500" windowWidth="38400" windowHeight="19700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="38400" windowHeight="19700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12869" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15190" uniqueCount="695">
   <si>
     <t>PMID</t>
   </si>
@@ -1671,13 +1671,460 @@
   </si>
   <si>
     <t>c.5489G&gt;C</t>
+  </si>
+  <si>
+    <t>PMID:17160901</t>
+  </si>
+  <si>
+    <t>An absence of cutaneous neurofibromas associated with a 3-bp inframe deletion in exon 17 of the NF1 gene (c.2970-2972 delAAT): evidence of a clinically significant NF1 genotype-phenotype correlation</t>
+  </si>
+  <si>
+    <t>family A individual 1</t>
+  </si>
+  <si>
+    <t>family A individual 2</t>
+  </si>
+  <si>
+    <t>family A individual 3</t>
+  </si>
+  <si>
+    <t>family A individual 4</t>
+  </si>
+  <si>
+    <t>family A individual 5</t>
+  </si>
+  <si>
+    <t>family A individual 6</t>
+  </si>
+  <si>
+    <t>family A individual 7</t>
+  </si>
+  <si>
+    <t>family B individual 1</t>
+  </si>
+  <si>
+    <t>family B individual 2</t>
+  </si>
+  <si>
+    <t>family C individual 1</t>
+  </si>
+  <si>
+    <t>family C individual 2</t>
+  </si>
+  <si>
+    <t>family C individual 3</t>
+  </si>
+  <si>
+    <t>family C individual 4</t>
+  </si>
+  <si>
+    <t>family C individual 5</t>
+  </si>
+  <si>
+    <t>family C individual 6</t>
+  </si>
+  <si>
+    <t>family C individual 7</t>
+  </si>
+  <si>
+    <t>family C individual 8</t>
+  </si>
+  <si>
+    <t>family C individual 9</t>
+  </si>
+  <si>
+    <t>family C individual 10</t>
+  </si>
+  <si>
+    <t>family D individual 1</t>
+  </si>
+  <si>
+    <t>family D individual 2</t>
+  </si>
+  <si>
+    <t>family D individual 3</t>
+  </si>
+  <si>
+    <t>family D individual 4</t>
+  </si>
+  <si>
+    <t>family E individual 1</t>
+  </si>
+  <si>
+    <t>family E individual 2</t>
+  </si>
+  <si>
+    <t>family E individual 3</t>
+  </si>
+  <si>
+    <t>family E individual 4</t>
+  </si>
+  <si>
+    <t>family F individual 1</t>
+  </si>
+  <si>
+    <t>family F individual 2</t>
+  </si>
+  <si>
+    <t>family G individual 1</t>
+  </si>
+  <si>
+    <t>family H individual 1</t>
+  </si>
+  <si>
+    <t>family I individual 1</t>
+  </si>
+  <si>
+    <t>family J individual 1</t>
+  </si>
+  <si>
+    <t>family K individual 1</t>
+  </si>
+  <si>
+    <t>family L individual 1</t>
+  </si>
+  <si>
+    <t>family M individual 1</t>
+  </si>
+  <si>
+    <t>family N individual 1</t>
+  </si>
+  <si>
+    <t>family O individual 1</t>
+  </si>
+  <si>
+    <t>family P individual 1</t>
+  </si>
+  <si>
+    <t>family Q individual 1</t>
+  </si>
+  <si>
+    <t>family R individual 1</t>
+  </si>
+  <si>
+    <t>family S individual 1</t>
+  </si>
+  <si>
+    <t>family T individual 1</t>
+  </si>
+  <si>
+    <t>family U individual 1</t>
+  </si>
+  <si>
+    <t>P59Y</t>
+  </si>
+  <si>
+    <t>P65Y</t>
+  </si>
+  <si>
+    <t>P56Y</t>
+  </si>
+  <si>
+    <t>P35Y</t>
+  </si>
+  <si>
+    <t>P36Y</t>
+  </si>
+  <si>
+    <t>P5Y</t>
+  </si>
+  <si>
+    <t>P14Y</t>
+  </si>
+  <si>
+    <t>P63Y</t>
+  </si>
+  <si>
+    <t>P41Y</t>
+  </si>
+  <si>
+    <t>P40Y</t>
+  </si>
+  <si>
+    <t>P17Y</t>
+  </si>
+  <si>
+    <t>P38Y</t>
+  </si>
+  <si>
+    <t>P10Y</t>
+  </si>
+  <si>
+    <t>P53Y</t>
+  </si>
+  <si>
+    <t>P19Y</t>
+  </si>
+  <si>
+    <t>P51Y</t>
+  </si>
+  <si>
+    <t>P15Y</t>
+  </si>
+  <si>
+    <t>P34Y</t>
+  </si>
+  <si>
+    <t>P27Y</t>
+  </si>
+  <si>
+    <t>P25Y</t>
+  </si>
+  <si>
+    <t>NM_001042492.3(NF1):c.2970_2972del (p.Met992del)</t>
+  </si>
+  <si>
+    <t>c.2970_2972del</t>
+  </si>
+  <si>
+    <t>PMID:20513137</t>
+  </si>
+  <si>
+    <t>NF1 microdeletions in neurofibromatosis type 1: from genotype to phenotype</t>
+  </si>
+  <si>
+    <t>individual NF00028_GSM_GSM492679</t>
+  </si>
+  <si>
+    <t>individual NF00663_GSM_GSM492680</t>
+  </si>
+  <si>
+    <t>individual NF01465_GSM_GSM492681</t>
+  </si>
+  <si>
+    <t>individual NF00886_GSM_GSM492682</t>
+  </si>
+  <si>
+    <t>individual NF01507_GSM_GSM492683</t>
+  </si>
+  <si>
+    <t>individual NF00234_GSM_GSM492684</t>
+  </si>
+  <si>
+    <t>individual NF00358_GSM_GSM492685</t>
+  </si>
+  <si>
+    <t>individual NF00398_GSM_GSM492686</t>
+  </si>
+  <si>
+    <t>individual NF00437_GSM_GSM492687</t>
+  </si>
+  <si>
+    <t>individual NF00573_GSM_GSM492688</t>
+  </si>
+  <si>
+    <t>individual NF00759_GSM_GSM492689</t>
+  </si>
+  <si>
+    <t>individual NF01470_GSM_GSM492690</t>
+  </si>
+  <si>
+    <t>individual NF01510_GSM_GSM492691</t>
+  </si>
+  <si>
+    <t>individual NF00085_GSM_GSM492692</t>
+  </si>
+  <si>
+    <t>individual NF01053_GSM_GSM492693</t>
+  </si>
+  <si>
+    <t>individual NF01152_GSM_GSM492694</t>
+  </si>
+  <si>
+    <t>individual NF01585_GSM_GSM492695</t>
+  </si>
+  <si>
+    <t>individual OLI_GSM_GSM492697</t>
+  </si>
+  <si>
+    <t>individual RUA_GSM_GSM492698</t>
+  </si>
+  <si>
+    <t>individual GEO_GSM_GSM492699</t>
+  </si>
+  <si>
+    <t>individual NF00222_GSM_GSM492700</t>
+  </si>
+  <si>
+    <t>individual NF00596_GSM_GSM492701</t>
+  </si>
+  <si>
+    <t>individual NF00908_GSM_GSM492702</t>
+  </si>
+  <si>
+    <t>individual GOD_GSM_GSM492703</t>
+  </si>
+  <si>
+    <t>individual TRI_GSM_GSM492704</t>
+  </si>
+  <si>
+    <t>individual YAH_GSM_GSM492705</t>
+  </si>
+  <si>
+    <t>individual LAP_GSM_GSM492706</t>
+  </si>
+  <si>
+    <t>individual VID_GSM_GSM492707</t>
+  </si>
+  <si>
+    <t>individual DEN_GSM_GSM492708</t>
+  </si>
+  <si>
+    <t>individual DIE_GSM_GSM492709</t>
+  </si>
+  <si>
+    <t>individual GUE_GSM_GSM492710</t>
+  </si>
+  <si>
+    <t>individual LAF_GSM_GSM492712</t>
+  </si>
+  <si>
+    <t>individual BOR_GSM_GSM492714</t>
+  </si>
+  <si>
+    <t>individual PAW_GSM_GSM492715</t>
+  </si>
+  <si>
+    <t>individual COG_GSM_GSM492716</t>
+  </si>
+  <si>
+    <t>individual JAF_GSM_GSM492719</t>
+  </si>
+  <si>
+    <t>individual N1283_GSM_GSM492721</t>
+  </si>
+  <si>
+    <t>individual N2603_GSM_GSM492722</t>
+  </si>
+  <si>
+    <t>individual N986_GSM_GSM492723</t>
+  </si>
+  <si>
+    <t>individual PAN_GSM_GSM492724</t>
+  </si>
+  <si>
+    <t>individual SOL_GSM_GSM492727</t>
+  </si>
+  <si>
+    <t>individual N1248_GSM_GSM492728</t>
+  </si>
+  <si>
+    <t>individual N1666_GSM_GSM492729</t>
+  </si>
+  <si>
+    <t>individual N1683_GSM_GSM492730</t>
+  </si>
+  <si>
+    <t>individual N1918_GSM_GSM492731</t>
+  </si>
+  <si>
+    <t>individual N2164_GSM_GSM492732</t>
+  </si>
+  <si>
+    <t>individual N2165_GSM_GSM492733</t>
+  </si>
+  <si>
+    <t>individual N2166_GSM_GSM492734</t>
+  </si>
+  <si>
+    <t>individual N2179_GSM_GSM492736</t>
+  </si>
+  <si>
+    <t>individual N2217_GSM_GSM492737</t>
+  </si>
+  <si>
+    <t>individual N2288_GSM_GSM492738</t>
+  </si>
+  <si>
+    <t>individual N2456_GSM_GSM492740</t>
+  </si>
+  <si>
+    <t>individual GUI_GSM_GSM492741</t>
+  </si>
+  <si>
+    <t>individual HUM_GSM_GSM492743</t>
+  </si>
+  <si>
+    <t>individual MAR_GSM_GSM492744</t>
+  </si>
+  <si>
+    <t>individual NF01094_GSM_GSM492745</t>
+  </si>
+  <si>
+    <t>individual N849_GSM_GSM492747</t>
+  </si>
+  <si>
+    <t>individual N637_GSM_GSM492748</t>
+  </si>
+  <si>
+    <t>P9Y</t>
+  </si>
+  <si>
+    <t>P37Y</t>
+  </si>
+  <si>
+    <t>P39Y</t>
+  </si>
+  <si>
+    <t>P33Y</t>
+  </si>
+  <si>
+    <t>P45Y</t>
+  </si>
+  <si>
+    <t>P24Y</t>
+  </si>
+  <si>
+    <t>P7Y</t>
+  </si>
+  <si>
+    <t>P57Y</t>
+  </si>
+  <si>
+    <t>P62Y</t>
+  </si>
+  <si>
+    <t>P29Y</t>
+  </si>
+  <si>
+    <t>P0.5Y</t>
+  </si>
+  <si>
+    <t>P60Y</t>
+  </si>
+  <si>
+    <t>P20Y</t>
+  </si>
+  <si>
+    <t>P46Y</t>
+  </si>
+  <si>
+    <t>P64Y</t>
+  </si>
+  <si>
+    <t>P21Y</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>Atypical microdeletion</t>
+  </si>
+  <si>
+    <t>Type-1 microdeletion</t>
+  </si>
+  <si>
+    <t>Type-2 microdeletion</t>
+  </si>
+  <si>
+    <t>Type-3 microdeletion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1732,6 +2179,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212121"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1768,7 +2221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1781,6 +2234,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2085,18 +2539,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BC319"/>
+  <dimension ref="A1:BC421"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="AV193" sqref="AV193"/>
+    <sheetView tabSelected="1" topLeftCell="A386" zoomScale="99" workbookViewId="0">
+      <selection activeCell="A412" sqref="A412:XFD412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+    <col min="4" max="4" width="33.5" customWidth="1"/>
     <col min="5" max="8" width="8.83203125" customWidth="1"/>
     <col min="9" max="9" width="15.83203125" customWidth="1"/>
-    <col min="10" max="10" width="11.83203125" customWidth="1"/>
+    <col min="10" max="10" width="29" customWidth="1"/>
     <col min="24" max="24" width="6.83203125" customWidth="1"/>
     <col min="30" max="30" width="8.83203125" customWidth="1"/>
   </cols>
@@ -27095,7 +27549,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="184" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>389</v>
       </c>
@@ -27199,7 +27653,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="185" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>389</v>
       </c>
@@ -27309,7 +27763,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="186" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>389</v>
       </c>
@@ -27413,7 +27867,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="187" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>389</v>
       </c>
@@ -27517,7 +27971,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="188" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>389</v>
       </c>
@@ -27621,7 +28075,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="189" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>389</v>
       </c>
@@ -27725,7 +28179,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="190" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>389</v>
       </c>
@@ -27829,7 +28283,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="191" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>389</v>
       </c>
@@ -27933,7 +28387,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="192" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>389</v>
       </c>
@@ -28037,7 +28491,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="193" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>389</v>
       </c>
@@ -28141,7 +28595,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="194" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>389</v>
       </c>
@@ -28245,7 +28699,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="195" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>389</v>
       </c>
@@ -28349,7 +28803,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="196" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>389</v>
       </c>
@@ -28453,7 +28907,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="197" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>389</v>
       </c>
@@ -28557,7 +29011,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="198" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>389</v>
       </c>
@@ -28661,7 +29115,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="199" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>389</v>
       </c>
@@ -28765,7 +29219,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="200" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>389</v>
       </c>
@@ -28869,7 +29323,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="201" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>389</v>
       </c>
@@ -28973,7 +29427,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="202" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>389</v>
       </c>
@@ -29077,7 +29531,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="203" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>389</v>
       </c>
@@ -29181,7 +29635,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="204" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>389</v>
       </c>
@@ -29285,7 +29739,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="205" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>389</v>
       </c>
@@ -29389,7 +29843,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="206" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>389</v>
       </c>
@@ -29493,7 +29947,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="207" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>389</v>
       </c>
@@ -29597,7 +30051,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="208" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>389</v>
       </c>
@@ -29701,7 +30155,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="209" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>389</v>
       </c>
@@ -29805,7 +30259,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="210" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>389</v>
       </c>
@@ -29909,7 +30363,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="211" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>389</v>
       </c>
@@ -30013,7 +30467,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="212" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>389</v>
       </c>
@@ -30117,7 +30571,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="213" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>389</v>
       </c>
@@ -30221,7 +30675,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="214" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>389</v>
       </c>
@@ -30325,7 +30779,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="215" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>389</v>
       </c>
@@ -30429,7 +30883,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="216" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>389</v>
       </c>
@@ -30533,7 +30987,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="217" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>389</v>
       </c>
@@ -30637,7 +31091,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="218" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>389</v>
       </c>
@@ -30741,7 +31195,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="219" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>389</v>
       </c>
@@ -30845,7 +31299,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="220" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>389</v>
       </c>
@@ -30949,7 +31403,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="221" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>389</v>
       </c>
@@ -31053,7 +31507,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="222" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>389</v>
       </c>
@@ -31157,7 +31611,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="223" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>389</v>
       </c>
@@ -31261,7 +31715,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="224" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>389</v>
       </c>
@@ -31365,7 +31819,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="225" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>389</v>
       </c>
@@ -31475,7 +31929,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="226" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>389</v>
       </c>
@@ -31579,7 +32033,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="227" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>389</v>
       </c>
@@ -31683,7 +32137,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="228" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>389</v>
       </c>
@@ -31787,7 +32241,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="229" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>389</v>
       </c>
@@ -31897,7 +32351,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="230" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>389</v>
       </c>
@@ -32001,7 +32455,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="231" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>389</v>
       </c>
@@ -32105,7 +32559,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="232" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>389</v>
       </c>
@@ -32209,7 +32663,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="233" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>389</v>
       </c>
@@ -32319,7 +32773,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="234" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>389</v>
       </c>
@@ -32429,7 +32883,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="235" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>389</v>
       </c>
@@ -32539,7 +32993,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="236" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>389</v>
       </c>
@@ -32643,7 +33097,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="237" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>389</v>
       </c>
@@ -32753,7 +33207,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="238" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>389</v>
       </c>
@@ -32863,7 +33317,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="239" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>389</v>
       </c>
@@ -32973,7 +33427,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="240" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>389</v>
       </c>
@@ -33083,7 +33537,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="241" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>389</v>
       </c>
@@ -33187,7 +33641,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="242" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>389</v>
       </c>
@@ -33297,7 +33751,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="243" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>389</v>
       </c>
@@ -33401,7 +33855,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="244" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>389</v>
       </c>
@@ -33511,7 +33965,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="245" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>389</v>
       </c>
@@ -33621,7 +34075,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="246" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>389</v>
       </c>
@@ -33725,7 +34179,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="247" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>389</v>
       </c>
@@ -33829,7 +34283,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="248" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>389</v>
       </c>
@@ -33939,7 +34393,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="249" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>389</v>
       </c>
@@ -34049,7 +34503,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="250" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>389</v>
       </c>
@@ -34153,7 +34607,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="251" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>389</v>
       </c>
@@ -34263,7 +34717,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="252" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>389</v>
       </c>
@@ -34373,7 +34827,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="253" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>389</v>
       </c>
@@ -34477,7 +34931,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="254" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>389</v>
       </c>
@@ -34587,7 +35041,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="255" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>389</v>
       </c>
@@ -34691,7 +35145,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="256" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>389</v>
       </c>
@@ -34795,7 +35249,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="257" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>389</v>
       </c>
@@ -34899,7 +35353,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="258" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>389</v>
       </c>
@@ -35000,7 +35454,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="259" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>389</v>
       </c>
@@ -35101,7 +35555,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="260" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>389</v>
       </c>
@@ -35202,7 +35656,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="261" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>389</v>
       </c>
@@ -35309,7 +35763,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="262" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>389</v>
       </c>
@@ -35410,7 +35864,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="263" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>389</v>
       </c>
@@ -35511,7 +35965,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="264" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>389</v>
       </c>
@@ -35615,7 +36069,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="265" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>389</v>
       </c>
@@ -35719,7 +36173,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="266" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>389</v>
       </c>
@@ -35823,7 +36277,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="267" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>389</v>
       </c>
@@ -35927,7 +36381,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="268" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>389</v>
       </c>
@@ -36031,7 +36485,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="269" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>389</v>
       </c>
@@ -36135,7 +36589,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="270" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>389</v>
       </c>
@@ -36239,7 +36693,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="271" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>389</v>
       </c>
@@ -36343,7 +36797,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="272" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>389</v>
       </c>
@@ -36447,7 +36901,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="273" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>389</v>
       </c>
@@ -36551,7 +37005,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="274" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>389</v>
       </c>
@@ -36655,7 +37109,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="275" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>389</v>
       </c>
@@ -36759,7 +37213,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="276" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>389</v>
       </c>
@@ -36863,7 +37317,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="277" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>389</v>
       </c>
@@ -36967,7 +37421,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="278" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>389</v>
       </c>
@@ -37071,7 +37525,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="279" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>389</v>
       </c>
@@ -37175,7 +37629,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="280" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>389</v>
       </c>
@@ -37279,7 +37733,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="281" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>389</v>
       </c>
@@ -37383,7 +37837,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="282" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>389</v>
       </c>
@@ -37493,7 +37947,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="283" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>389</v>
       </c>
@@ -37597,7 +38051,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="284" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>389</v>
       </c>
@@ -37701,7 +38155,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="285" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>389</v>
       </c>
@@ -37805,7 +38259,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="286" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>389</v>
       </c>
@@ -37909,7 +38363,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="287" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>389</v>
       </c>
@@ -38013,7 +38467,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="288" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>389</v>
       </c>
@@ -38117,7 +38571,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="289" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>389</v>
       </c>
@@ -38221,7 +38675,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="290" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>389</v>
       </c>
@@ -38325,7 +38779,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="291" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>389</v>
       </c>
@@ -38429,7 +38883,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="292" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>389</v>
       </c>
@@ -38533,7 +38987,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="293" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>389</v>
       </c>
@@ -38637,7 +39091,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="294" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>389</v>
       </c>
@@ -38741,7 +39195,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="295" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>389</v>
       </c>
@@ -38845,7 +39299,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="296" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>389</v>
       </c>
@@ -38949,7 +39403,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="297" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>389</v>
       </c>
@@ -39053,7 +39507,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="298" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>389</v>
       </c>
@@ -39157,7 +39611,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="299" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>389</v>
       </c>
@@ -39261,7 +39715,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="300" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>389</v>
       </c>
@@ -39365,7 +39819,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="301" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>389</v>
       </c>
@@ -39469,7 +39923,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="302" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>389</v>
       </c>
@@ -39579,7 +40033,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="303" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>389</v>
       </c>
@@ -39683,7 +40137,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="304" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>389</v>
       </c>
@@ -39787,7 +40241,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="305" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>389</v>
       </c>
@@ -39897,7 +40351,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="306" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>389</v>
       </c>
@@ -40001,7 +40455,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="307" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>389</v>
       </c>
@@ -40105,7 +40559,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="308" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>389</v>
       </c>
@@ -40209,7 +40663,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="309" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>389</v>
       </c>
@@ -40313,7 +40767,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="310" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>389</v>
       </c>
@@ -40417,7 +40871,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="311" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>389</v>
       </c>
@@ -40521,7 +40975,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="312" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>389</v>
       </c>
@@ -40625,7 +41079,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="313" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>389</v>
       </c>
@@ -40729,7 +41183,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="314" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>389</v>
       </c>
@@ -40833,7 +41287,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="315" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>389</v>
       </c>
@@ -40937,7 +41391,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="316" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>389</v>
       </c>
@@ -41041,7 +41495,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="317" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>389</v>
       </c>
@@ -41145,7 +41599,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="318" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>389</v>
       </c>
@@ -41249,7 +41703,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="319" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>389</v>
       </c>
@@ -41350,6 +41804,7173 @@
         <v>61</v>
       </c>
       <c r="AX319" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="320" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>546</v>
+      </c>
+      <c r="B320" t="s">
+        <v>547</v>
+      </c>
+      <c r="C320" t="s">
+        <v>548</v>
+      </c>
+      <c r="E320" t="s">
+        <v>27</v>
+      </c>
+      <c r="F320" t="s">
+        <v>28</v>
+      </c>
+      <c r="G320" t="s">
+        <v>29</v>
+      </c>
+      <c r="H320" t="s">
+        <v>30</v>
+      </c>
+      <c r="I320" t="s">
+        <v>31</v>
+      </c>
+      <c r="J320" t="s">
+        <v>613</v>
+      </c>
+      <c r="K320" t="s">
+        <v>35</v>
+      </c>
+      <c r="L320" t="s">
+        <v>612</v>
+      </c>
+      <c r="M320" t="s">
+        <v>35</v>
+      </c>
+      <c r="N320" t="s">
+        <v>592</v>
+      </c>
+      <c r="O320" t="s">
+        <v>35</v>
+      </c>
+      <c r="P320" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q320" t="s">
+        <v>35</v>
+      </c>
+      <c r="R320" t="s">
+        <v>61</v>
+      </c>
+      <c r="T320" t="s">
+        <v>61</v>
+      </c>
+      <c r="X320" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA320" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB320" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE320" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI320" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL320" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT320" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="321" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>546</v>
+      </c>
+      <c r="B321" t="s">
+        <v>547</v>
+      </c>
+      <c r="C321" t="s">
+        <v>549</v>
+      </c>
+      <c r="E321" t="s">
+        <v>27</v>
+      </c>
+      <c r="F321" t="s">
+        <v>28</v>
+      </c>
+      <c r="G321" t="s">
+        <v>29</v>
+      </c>
+      <c r="H321" t="s">
+        <v>30</v>
+      </c>
+      <c r="I321" t="s">
+        <v>31</v>
+      </c>
+      <c r="J321" t="s">
+        <v>613</v>
+      </c>
+      <c r="K321" t="s">
+        <v>35</v>
+      </c>
+      <c r="M321" t="s">
+        <v>35</v>
+      </c>
+      <c r="N321" t="s">
+        <v>593</v>
+      </c>
+      <c r="O321" t="s">
+        <v>35</v>
+      </c>
+      <c r="P321" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q321" t="s">
+        <v>35</v>
+      </c>
+      <c r="R321" t="s">
+        <v>61</v>
+      </c>
+      <c r="T321" t="s">
+        <v>61</v>
+      </c>
+      <c r="X321" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA321" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB321" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE321" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI321" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL321" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT321" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="322" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>546</v>
+      </c>
+      <c r="B322" t="s">
+        <v>547</v>
+      </c>
+      <c r="C322" t="s">
+        <v>550</v>
+      </c>
+      <c r="E322" t="s">
+        <v>27</v>
+      </c>
+      <c r="F322" t="s">
+        <v>28</v>
+      </c>
+      <c r="G322" t="s">
+        <v>29</v>
+      </c>
+      <c r="H322" t="s">
+        <v>30</v>
+      </c>
+      <c r="I322" t="s">
+        <v>31</v>
+      </c>
+      <c r="J322" t="s">
+        <v>613</v>
+      </c>
+      <c r="K322" t="s">
+        <v>35</v>
+      </c>
+      <c r="M322" t="s">
+        <v>35</v>
+      </c>
+      <c r="N322" t="s">
+        <v>594</v>
+      </c>
+      <c r="O322" t="s">
+        <v>35</v>
+      </c>
+      <c r="P322" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q322" t="s">
+        <v>35</v>
+      </c>
+      <c r="R322" t="s">
+        <v>61</v>
+      </c>
+      <c r="T322" t="s">
+        <v>61</v>
+      </c>
+      <c r="X322" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA322" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB322" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE322" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI322" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL322" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT322" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="323" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>546</v>
+      </c>
+      <c r="B323" t="s">
+        <v>547</v>
+      </c>
+      <c r="C323" t="s">
+        <v>551</v>
+      </c>
+      <c r="E323" t="s">
+        <v>27</v>
+      </c>
+      <c r="F323" t="s">
+        <v>28</v>
+      </c>
+      <c r="G323" t="s">
+        <v>29</v>
+      </c>
+      <c r="H323" t="s">
+        <v>30</v>
+      </c>
+      <c r="I323" t="s">
+        <v>31</v>
+      </c>
+      <c r="J323" t="s">
+        <v>613</v>
+      </c>
+      <c r="K323" t="s">
+        <v>35</v>
+      </c>
+      <c r="M323" t="s">
+        <v>35</v>
+      </c>
+      <c r="N323" t="s">
+        <v>595</v>
+      </c>
+      <c r="O323" t="s">
+        <v>35</v>
+      </c>
+      <c r="P323" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q323" t="s">
+        <v>35</v>
+      </c>
+      <c r="R323" t="s">
+        <v>61</v>
+      </c>
+      <c r="T323" t="s">
+        <v>61</v>
+      </c>
+      <c r="X323" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA323" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB323" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE323" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI323" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL323" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT323" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="324" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>546</v>
+      </c>
+      <c r="B324" t="s">
+        <v>547</v>
+      </c>
+      <c r="C324" t="s">
+        <v>552</v>
+      </c>
+      <c r="E324" t="s">
+        <v>27</v>
+      </c>
+      <c r="F324" t="s">
+        <v>28</v>
+      </c>
+      <c r="G324" t="s">
+        <v>29</v>
+      </c>
+      <c r="H324" t="s">
+        <v>30</v>
+      </c>
+      <c r="I324" t="s">
+        <v>31</v>
+      </c>
+      <c r="J324" t="s">
+        <v>613</v>
+      </c>
+      <c r="K324" t="s">
+        <v>35</v>
+      </c>
+      <c r="M324" t="s">
+        <v>35</v>
+      </c>
+      <c r="N324" t="s">
+        <v>596</v>
+      </c>
+      <c r="O324" t="s">
+        <v>35</v>
+      </c>
+      <c r="P324" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q324" t="s">
+        <v>35</v>
+      </c>
+      <c r="R324" t="s">
+        <v>61</v>
+      </c>
+      <c r="T324" t="s">
+        <v>61</v>
+      </c>
+      <c r="X324" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA324" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB324" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE324" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI324" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL324" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT324" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="325" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>546</v>
+      </c>
+      <c r="B325" t="s">
+        <v>547</v>
+      </c>
+      <c r="C325" t="s">
+        <v>553</v>
+      </c>
+      <c r="E325" t="s">
+        <v>27</v>
+      </c>
+      <c r="F325" t="s">
+        <v>28</v>
+      </c>
+      <c r="G325" t="s">
+        <v>29</v>
+      </c>
+      <c r="H325" t="s">
+        <v>30</v>
+      </c>
+      <c r="I325" t="s">
+        <v>31</v>
+      </c>
+      <c r="J325" t="s">
+        <v>613</v>
+      </c>
+      <c r="K325" t="s">
+        <v>35</v>
+      </c>
+      <c r="M325" t="s">
+        <v>35</v>
+      </c>
+      <c r="N325" t="s">
+        <v>597</v>
+      </c>
+      <c r="O325" t="s">
+        <v>35</v>
+      </c>
+      <c r="P325" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q325" t="s">
+        <v>35</v>
+      </c>
+      <c r="R325" t="s">
+        <v>61</v>
+      </c>
+      <c r="T325" t="s">
+        <v>61</v>
+      </c>
+      <c r="X325" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA325" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB325" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE325" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI325" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL325" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT325" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="326" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>546</v>
+      </c>
+      <c r="B326" t="s">
+        <v>547</v>
+      </c>
+      <c r="C326" t="s">
+        <v>554</v>
+      </c>
+      <c r="E326" t="s">
+        <v>27</v>
+      </c>
+      <c r="F326" t="s">
+        <v>28</v>
+      </c>
+      <c r="G326" t="s">
+        <v>29</v>
+      </c>
+      <c r="H326" t="s">
+        <v>30</v>
+      </c>
+      <c r="I326" t="s">
+        <v>31</v>
+      </c>
+      <c r="J326" t="s">
+        <v>613</v>
+      </c>
+      <c r="K326" t="s">
+        <v>35</v>
+      </c>
+      <c r="M326" t="s">
+        <v>35</v>
+      </c>
+      <c r="N326" t="s">
+        <v>56</v>
+      </c>
+      <c r="O326" t="s">
+        <v>35</v>
+      </c>
+      <c r="P326" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q326" t="s">
+        <v>35</v>
+      </c>
+      <c r="R326" t="s">
+        <v>61</v>
+      </c>
+      <c r="T326" t="s">
+        <v>61</v>
+      </c>
+      <c r="X326" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA326" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB326" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE326" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI326" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL326" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT326" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="327" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>546</v>
+      </c>
+      <c r="B327" t="s">
+        <v>547</v>
+      </c>
+      <c r="C327" t="s">
+        <v>555</v>
+      </c>
+      <c r="E327" t="s">
+        <v>27</v>
+      </c>
+      <c r="F327" t="s">
+        <v>28</v>
+      </c>
+      <c r="G327" t="s">
+        <v>29</v>
+      </c>
+      <c r="H327" t="s">
+        <v>30</v>
+      </c>
+      <c r="I327" t="s">
+        <v>31</v>
+      </c>
+      <c r="J327" t="s">
+        <v>613</v>
+      </c>
+      <c r="K327" t="s">
+        <v>35</v>
+      </c>
+      <c r="M327" t="s">
+        <v>35</v>
+      </c>
+      <c r="N327" t="s">
+        <v>527</v>
+      </c>
+      <c r="O327" t="s">
+        <v>35</v>
+      </c>
+      <c r="P327" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q327" t="s">
+        <v>35</v>
+      </c>
+      <c r="R327" t="s">
+        <v>61</v>
+      </c>
+      <c r="T327" t="s">
+        <v>61</v>
+      </c>
+      <c r="X327" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA327" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB327" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE327" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI327" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL327" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT327" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="328" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>546</v>
+      </c>
+      <c r="B328" t="s">
+        <v>547</v>
+      </c>
+      <c r="C328" t="s">
+        <v>556</v>
+      </c>
+      <c r="E328" t="s">
+        <v>27</v>
+      </c>
+      <c r="F328" t="s">
+        <v>28</v>
+      </c>
+      <c r="G328" t="s">
+        <v>29</v>
+      </c>
+      <c r="H328" t="s">
+        <v>30</v>
+      </c>
+      <c r="I328" t="s">
+        <v>31</v>
+      </c>
+      <c r="J328" t="s">
+        <v>613</v>
+      </c>
+      <c r="K328" t="s">
+        <v>35</v>
+      </c>
+      <c r="M328" t="s">
+        <v>35</v>
+      </c>
+      <c r="N328" t="s">
+        <v>598</v>
+      </c>
+      <c r="O328" t="s">
+        <v>35</v>
+      </c>
+      <c r="P328" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q328" t="s">
+        <v>35</v>
+      </c>
+      <c r="R328" t="s">
+        <v>61</v>
+      </c>
+      <c r="T328" t="s">
+        <v>61</v>
+      </c>
+      <c r="X328" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA328" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB328" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE328" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI328" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL328" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT328" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="329" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>546</v>
+      </c>
+      <c r="B329" t="s">
+        <v>547</v>
+      </c>
+      <c r="C329" t="s">
+        <v>557</v>
+      </c>
+      <c r="E329" t="s">
+        <v>27</v>
+      </c>
+      <c r="F329" t="s">
+        <v>28</v>
+      </c>
+      <c r="G329" t="s">
+        <v>29</v>
+      </c>
+      <c r="H329" t="s">
+        <v>30</v>
+      </c>
+      <c r="I329" t="s">
+        <v>31</v>
+      </c>
+      <c r="J329" t="s">
+        <v>613</v>
+      </c>
+      <c r="K329" t="s">
+        <v>35</v>
+      </c>
+      <c r="M329" t="s">
+        <v>35</v>
+      </c>
+      <c r="N329" t="s">
+        <v>599</v>
+      </c>
+      <c r="O329" t="s">
+        <v>35</v>
+      </c>
+      <c r="P329" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q329" t="s">
+        <v>35</v>
+      </c>
+      <c r="R329" t="s">
+        <v>61</v>
+      </c>
+      <c r="T329" t="s">
+        <v>61</v>
+      </c>
+      <c r="X329" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA329" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB329" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE329" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI329" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL329" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT329" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="330" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>546</v>
+      </c>
+      <c r="B330" t="s">
+        <v>547</v>
+      </c>
+      <c r="C330" t="s">
+        <v>558</v>
+      </c>
+      <c r="E330" t="s">
+        <v>27</v>
+      </c>
+      <c r="F330" t="s">
+        <v>28</v>
+      </c>
+      <c r="G330" t="s">
+        <v>29</v>
+      </c>
+      <c r="H330" t="s">
+        <v>30</v>
+      </c>
+      <c r="I330" t="s">
+        <v>31</v>
+      </c>
+      <c r="J330" t="s">
+        <v>613</v>
+      </c>
+      <c r="K330" t="s">
+        <v>35</v>
+      </c>
+      <c r="M330" t="s">
+        <v>35</v>
+      </c>
+      <c r="N330" t="s">
+        <v>600</v>
+      </c>
+      <c r="O330" t="s">
+        <v>35</v>
+      </c>
+      <c r="P330" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q330" t="s">
+        <v>35</v>
+      </c>
+      <c r="R330" t="s">
+        <v>61</v>
+      </c>
+      <c r="T330" t="s">
+        <v>61</v>
+      </c>
+      <c r="X330" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA330" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB330" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE330" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI330" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL330" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT330" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="331" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>546</v>
+      </c>
+      <c r="B331" t="s">
+        <v>547</v>
+      </c>
+      <c r="C331" t="s">
+        <v>559</v>
+      </c>
+      <c r="E331" t="s">
+        <v>27</v>
+      </c>
+      <c r="F331" t="s">
+        <v>28</v>
+      </c>
+      <c r="G331" t="s">
+        <v>29</v>
+      </c>
+      <c r="H331" t="s">
+        <v>30</v>
+      </c>
+      <c r="I331" t="s">
+        <v>31</v>
+      </c>
+      <c r="J331" t="s">
+        <v>613</v>
+      </c>
+      <c r="K331" t="s">
+        <v>35</v>
+      </c>
+      <c r="M331" t="s">
+        <v>35</v>
+      </c>
+      <c r="N331" t="s">
+        <v>601</v>
+      </c>
+      <c r="O331" t="s">
+        <v>35</v>
+      </c>
+      <c r="P331" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q331" t="s">
+        <v>35</v>
+      </c>
+      <c r="R331" t="s">
+        <v>61</v>
+      </c>
+      <c r="T331" t="s">
+        <v>61</v>
+      </c>
+      <c r="X331" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA331" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB331" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE331" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI331" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL331" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT331" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="332" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>546</v>
+      </c>
+      <c r="B332" t="s">
+        <v>547</v>
+      </c>
+      <c r="C332" t="s">
+        <v>560</v>
+      </c>
+      <c r="E332" t="s">
+        <v>27</v>
+      </c>
+      <c r="F332" t="s">
+        <v>28</v>
+      </c>
+      <c r="G332" t="s">
+        <v>29</v>
+      </c>
+      <c r="H332" t="s">
+        <v>30</v>
+      </c>
+      <c r="I332" t="s">
+        <v>31</v>
+      </c>
+      <c r="J332" t="s">
+        <v>613</v>
+      </c>
+      <c r="K332" t="s">
+        <v>35</v>
+      </c>
+      <c r="M332" t="s">
+        <v>35</v>
+      </c>
+      <c r="N332" t="s">
+        <v>602</v>
+      </c>
+      <c r="O332" t="s">
+        <v>35</v>
+      </c>
+      <c r="P332" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q332" t="s">
+        <v>35</v>
+      </c>
+      <c r="R332" t="s">
+        <v>61</v>
+      </c>
+      <c r="T332" t="s">
+        <v>61</v>
+      </c>
+      <c r="X332" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA332" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB332" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE332" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI332" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL332" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT332" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="333" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>546</v>
+      </c>
+      <c r="B333" t="s">
+        <v>547</v>
+      </c>
+      <c r="C333" t="s">
+        <v>561</v>
+      </c>
+      <c r="E333" t="s">
+        <v>27</v>
+      </c>
+      <c r="F333" t="s">
+        <v>28</v>
+      </c>
+      <c r="G333" t="s">
+        <v>29</v>
+      </c>
+      <c r="H333" t="s">
+        <v>30</v>
+      </c>
+      <c r="I333" t="s">
+        <v>31</v>
+      </c>
+      <c r="J333" t="s">
+        <v>613</v>
+      </c>
+      <c r="K333" t="s">
+        <v>35</v>
+      </c>
+      <c r="M333" t="s">
+        <v>35</v>
+      </c>
+      <c r="N333" t="s">
+        <v>533</v>
+      </c>
+      <c r="O333" t="s">
+        <v>35</v>
+      </c>
+      <c r="P333" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q333" t="s">
+        <v>35</v>
+      </c>
+      <c r="R333" t="s">
+        <v>61</v>
+      </c>
+      <c r="T333" t="s">
+        <v>61</v>
+      </c>
+      <c r="X333" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA333" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB333" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE333" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI333" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL333" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT333" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="334" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>546</v>
+      </c>
+      <c r="B334" t="s">
+        <v>547</v>
+      </c>
+      <c r="C334" t="s">
+        <v>562</v>
+      </c>
+      <c r="E334" t="s">
+        <v>27</v>
+      </c>
+      <c r="F334" t="s">
+        <v>28</v>
+      </c>
+      <c r="G334" t="s">
+        <v>29</v>
+      </c>
+      <c r="H334" t="s">
+        <v>30</v>
+      </c>
+      <c r="I334" t="s">
+        <v>31</v>
+      </c>
+      <c r="J334" t="s">
+        <v>613</v>
+      </c>
+      <c r="K334" t="s">
+        <v>35</v>
+      </c>
+      <c r="M334" t="s">
+        <v>35</v>
+      </c>
+      <c r="N334" t="s">
+        <v>273</v>
+      </c>
+      <c r="O334" t="s">
+        <v>35</v>
+      </c>
+      <c r="P334" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q334" t="s">
+        <v>35</v>
+      </c>
+      <c r="R334" t="s">
+        <v>61</v>
+      </c>
+      <c r="T334" t="s">
+        <v>61</v>
+      </c>
+      <c r="X334" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA334" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB334" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE334" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI334" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL334" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT334" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="335" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>546</v>
+      </c>
+      <c r="B335" t="s">
+        <v>547</v>
+      </c>
+      <c r="C335" t="s">
+        <v>563</v>
+      </c>
+      <c r="E335" t="s">
+        <v>27</v>
+      </c>
+      <c r="F335" t="s">
+        <v>28</v>
+      </c>
+      <c r="G335" t="s">
+        <v>29</v>
+      </c>
+      <c r="H335" t="s">
+        <v>30</v>
+      </c>
+      <c r="I335" t="s">
+        <v>31</v>
+      </c>
+      <c r="J335" t="s">
+        <v>613</v>
+      </c>
+      <c r="K335" t="s">
+        <v>35</v>
+      </c>
+      <c r="M335" t="s">
+        <v>35</v>
+      </c>
+      <c r="N335" t="s">
+        <v>533</v>
+      </c>
+      <c r="O335" t="s">
+        <v>35</v>
+      </c>
+      <c r="P335" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q335" t="s">
+        <v>35</v>
+      </c>
+      <c r="R335" t="s">
+        <v>61</v>
+      </c>
+      <c r="T335" t="s">
+        <v>61</v>
+      </c>
+      <c r="X335" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA335" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB335" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE335" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI335" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL335" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT335" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="336" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>546</v>
+      </c>
+      <c r="B336" t="s">
+        <v>547</v>
+      </c>
+      <c r="C336" t="s">
+        <v>564</v>
+      </c>
+      <c r="E336" t="s">
+        <v>27</v>
+      </c>
+      <c r="F336" t="s">
+        <v>28</v>
+      </c>
+      <c r="G336" t="s">
+        <v>29</v>
+      </c>
+      <c r="H336" t="s">
+        <v>30</v>
+      </c>
+      <c r="I336" t="s">
+        <v>31</v>
+      </c>
+      <c r="J336" t="s">
+        <v>613</v>
+      </c>
+      <c r="K336" t="s">
+        <v>35</v>
+      </c>
+      <c r="M336" t="s">
+        <v>35</v>
+      </c>
+      <c r="N336" t="s">
+        <v>598</v>
+      </c>
+      <c r="O336" t="s">
+        <v>35</v>
+      </c>
+      <c r="P336" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q336" t="s">
+        <v>35</v>
+      </c>
+      <c r="R336" t="s">
+        <v>61</v>
+      </c>
+      <c r="T336" t="s">
+        <v>61</v>
+      </c>
+      <c r="X336" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA336" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB336" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE336" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI336" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL336" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT336" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="337" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>546</v>
+      </c>
+      <c r="B337" t="s">
+        <v>547</v>
+      </c>
+      <c r="C337" t="s">
+        <v>565</v>
+      </c>
+      <c r="E337" t="s">
+        <v>27</v>
+      </c>
+      <c r="F337" t="s">
+        <v>28</v>
+      </c>
+      <c r="G337" t="s">
+        <v>29</v>
+      </c>
+      <c r="H337" t="s">
+        <v>30</v>
+      </c>
+      <c r="I337" t="s">
+        <v>31</v>
+      </c>
+      <c r="J337" t="s">
+        <v>613</v>
+      </c>
+      <c r="K337" t="s">
+        <v>35</v>
+      </c>
+      <c r="M337" t="s">
+        <v>35</v>
+      </c>
+      <c r="N337" t="s">
+        <v>60</v>
+      </c>
+      <c r="O337" t="s">
+        <v>35</v>
+      </c>
+      <c r="P337" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q337" t="s">
+        <v>35</v>
+      </c>
+      <c r="R337" t="s">
+        <v>61</v>
+      </c>
+      <c r="T337" t="s">
+        <v>61</v>
+      </c>
+      <c r="X337" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA337" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB337" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE337" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI337" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL337" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT337" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="338" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>546</v>
+      </c>
+      <c r="B338" t="s">
+        <v>547</v>
+      </c>
+      <c r="C338" t="s">
+        <v>566</v>
+      </c>
+      <c r="E338" t="s">
+        <v>27</v>
+      </c>
+      <c r="F338" t="s">
+        <v>28</v>
+      </c>
+      <c r="G338" t="s">
+        <v>29</v>
+      </c>
+      <c r="H338" t="s">
+        <v>30</v>
+      </c>
+      <c r="I338" t="s">
+        <v>31</v>
+      </c>
+      <c r="J338" t="s">
+        <v>613</v>
+      </c>
+      <c r="K338" t="s">
+        <v>35</v>
+      </c>
+      <c r="M338" t="s">
+        <v>35</v>
+      </c>
+      <c r="N338" t="s">
+        <v>273</v>
+      </c>
+      <c r="O338" t="s">
+        <v>35</v>
+      </c>
+      <c r="P338" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q338" t="s">
+        <v>35</v>
+      </c>
+      <c r="R338" t="s">
+        <v>61</v>
+      </c>
+      <c r="T338" t="s">
+        <v>61</v>
+      </c>
+      <c r="X338" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA338" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB338" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE338" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI338" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL338" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT338" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="339" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>546</v>
+      </c>
+      <c r="B339" t="s">
+        <v>547</v>
+      </c>
+      <c r="C339" t="s">
+        <v>567</v>
+      </c>
+      <c r="E339" t="s">
+        <v>27</v>
+      </c>
+      <c r="F339" t="s">
+        <v>28</v>
+      </c>
+      <c r="G339" t="s">
+        <v>29</v>
+      </c>
+      <c r="H339" t="s">
+        <v>30</v>
+      </c>
+      <c r="I339" t="s">
+        <v>31</v>
+      </c>
+      <c r="J339" t="s">
+        <v>613</v>
+      </c>
+      <c r="K339" t="s">
+        <v>35</v>
+      </c>
+      <c r="M339" t="s">
+        <v>35</v>
+      </c>
+      <c r="N339" t="s">
+        <v>603</v>
+      </c>
+      <c r="O339" t="s">
+        <v>35</v>
+      </c>
+      <c r="P339" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q339" t="s">
+        <v>35</v>
+      </c>
+      <c r="R339" t="s">
+        <v>61</v>
+      </c>
+      <c r="T339" t="s">
+        <v>61</v>
+      </c>
+      <c r="X339" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA339" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB339" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE339" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI339" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL339" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT339" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="340" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>546</v>
+      </c>
+      <c r="B340" t="s">
+        <v>547</v>
+      </c>
+      <c r="C340" t="s">
+        <v>568</v>
+      </c>
+      <c r="E340" t="s">
+        <v>27</v>
+      </c>
+      <c r="F340" t="s">
+        <v>28</v>
+      </c>
+      <c r="G340" t="s">
+        <v>29</v>
+      </c>
+      <c r="H340" t="s">
+        <v>30</v>
+      </c>
+      <c r="I340" t="s">
+        <v>31</v>
+      </c>
+      <c r="J340" t="s">
+        <v>613</v>
+      </c>
+      <c r="K340" t="s">
+        <v>35</v>
+      </c>
+      <c r="M340" t="s">
+        <v>35</v>
+      </c>
+      <c r="N340" t="s">
+        <v>531</v>
+      </c>
+      <c r="O340" t="s">
+        <v>35</v>
+      </c>
+      <c r="P340" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q340" t="s">
+        <v>35</v>
+      </c>
+      <c r="R340" t="s">
+        <v>61</v>
+      </c>
+      <c r="T340" t="s">
+        <v>61</v>
+      </c>
+      <c r="X340" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA340" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB340" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE340" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI340" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL340" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT340" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="341" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>546</v>
+      </c>
+      <c r="B341" t="s">
+        <v>547</v>
+      </c>
+      <c r="C341" t="s">
+        <v>569</v>
+      </c>
+      <c r="E341" t="s">
+        <v>27</v>
+      </c>
+      <c r="F341" t="s">
+        <v>28</v>
+      </c>
+      <c r="G341" t="s">
+        <v>29</v>
+      </c>
+      <c r="H341" t="s">
+        <v>30</v>
+      </c>
+      <c r="I341" t="s">
+        <v>31</v>
+      </c>
+      <c r="J341" t="s">
+        <v>613</v>
+      </c>
+      <c r="K341" t="s">
+        <v>35</v>
+      </c>
+      <c r="M341" t="s">
+        <v>35</v>
+      </c>
+      <c r="N341" t="s">
+        <v>531</v>
+      </c>
+      <c r="O341" t="s">
+        <v>35</v>
+      </c>
+      <c r="P341" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q341" t="s">
+        <v>35</v>
+      </c>
+      <c r="R341" t="s">
+        <v>61</v>
+      </c>
+      <c r="T341" t="s">
+        <v>61</v>
+      </c>
+      <c r="X341" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA341" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB341" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE341" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI341" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL341" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT341" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="342" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>546</v>
+      </c>
+      <c r="B342" t="s">
+        <v>547</v>
+      </c>
+      <c r="C342" t="s">
+        <v>570</v>
+      </c>
+      <c r="E342" t="s">
+        <v>27</v>
+      </c>
+      <c r="F342" t="s">
+        <v>28</v>
+      </c>
+      <c r="G342" t="s">
+        <v>29</v>
+      </c>
+      <c r="H342" t="s">
+        <v>30</v>
+      </c>
+      <c r="I342" t="s">
+        <v>31</v>
+      </c>
+      <c r="J342" t="s">
+        <v>613</v>
+      </c>
+      <c r="K342" t="s">
+        <v>35</v>
+      </c>
+      <c r="M342" t="s">
+        <v>35</v>
+      </c>
+      <c r="N342" t="s">
+        <v>602</v>
+      </c>
+      <c r="O342" t="s">
+        <v>35</v>
+      </c>
+      <c r="P342" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q342" t="s">
+        <v>35</v>
+      </c>
+      <c r="R342" t="s">
+        <v>61</v>
+      </c>
+      <c r="T342" t="s">
+        <v>61</v>
+      </c>
+      <c r="X342" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA342" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB342" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE342" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI342" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL342" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT342" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="343" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>546</v>
+      </c>
+      <c r="B343" t="s">
+        <v>547</v>
+      </c>
+      <c r="C343" t="s">
+        <v>571</v>
+      </c>
+      <c r="E343" t="s">
+        <v>27</v>
+      </c>
+      <c r="F343" t="s">
+        <v>28</v>
+      </c>
+      <c r="G343" t="s">
+        <v>29</v>
+      </c>
+      <c r="H343" t="s">
+        <v>30</v>
+      </c>
+      <c r="I343" t="s">
+        <v>31</v>
+      </c>
+      <c r="J343" t="s">
+        <v>613</v>
+      </c>
+      <c r="K343" t="s">
+        <v>35</v>
+      </c>
+      <c r="M343" t="s">
+        <v>35</v>
+      </c>
+      <c r="N343" t="s">
+        <v>596</v>
+      </c>
+      <c r="O343" t="s">
+        <v>35</v>
+      </c>
+      <c r="P343" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q343" t="s">
+        <v>35</v>
+      </c>
+      <c r="R343" t="s">
+        <v>61</v>
+      </c>
+      <c r="T343" t="s">
+        <v>61</v>
+      </c>
+      <c r="X343" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA343" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB343" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE343" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI343" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL343" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT343" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="344" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>546</v>
+      </c>
+      <c r="B344" t="s">
+        <v>547</v>
+      </c>
+      <c r="C344" t="s">
+        <v>572</v>
+      </c>
+      <c r="E344" t="s">
+        <v>27</v>
+      </c>
+      <c r="F344" t="s">
+        <v>28</v>
+      </c>
+      <c r="G344" t="s">
+        <v>29</v>
+      </c>
+      <c r="H344" t="s">
+        <v>30</v>
+      </c>
+      <c r="I344" t="s">
+        <v>31</v>
+      </c>
+      <c r="J344" t="s">
+        <v>613</v>
+      </c>
+      <c r="K344" t="s">
+        <v>35</v>
+      </c>
+      <c r="M344" t="s">
+        <v>35</v>
+      </c>
+      <c r="N344" t="s">
+        <v>598</v>
+      </c>
+      <c r="O344" t="s">
+        <v>35</v>
+      </c>
+      <c r="P344" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q344" t="s">
+        <v>35</v>
+      </c>
+      <c r="R344" t="s">
+        <v>61</v>
+      </c>
+      <c r="T344" t="s">
+        <v>61</v>
+      </c>
+      <c r="X344" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA344" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB344" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE344" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI344" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL344" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT344" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="345" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>546</v>
+      </c>
+      <c r="B345" t="s">
+        <v>547</v>
+      </c>
+      <c r="C345" t="s">
+        <v>573</v>
+      </c>
+      <c r="E345" t="s">
+        <v>27</v>
+      </c>
+      <c r="F345" t="s">
+        <v>28</v>
+      </c>
+      <c r="G345" t="s">
+        <v>29</v>
+      </c>
+      <c r="H345" t="s">
+        <v>30</v>
+      </c>
+      <c r="I345" t="s">
+        <v>31</v>
+      </c>
+      <c r="J345" t="s">
+        <v>613</v>
+      </c>
+      <c r="K345" t="s">
+        <v>35</v>
+      </c>
+      <c r="M345" t="s">
+        <v>35</v>
+      </c>
+      <c r="N345" t="s">
+        <v>60</v>
+      </c>
+      <c r="O345" t="s">
+        <v>35</v>
+      </c>
+      <c r="P345" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q345" t="s">
+        <v>35</v>
+      </c>
+      <c r="R345" t="s">
+        <v>61</v>
+      </c>
+      <c r="T345" t="s">
+        <v>61</v>
+      </c>
+      <c r="X345" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA345" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB345" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE345" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI345" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL345" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT345" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="346" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>546</v>
+      </c>
+      <c r="B346" t="s">
+        <v>547</v>
+      </c>
+      <c r="C346" t="s">
+        <v>574</v>
+      </c>
+      <c r="E346" t="s">
+        <v>27</v>
+      </c>
+      <c r="F346" t="s">
+        <v>28</v>
+      </c>
+      <c r="G346" t="s">
+        <v>29</v>
+      </c>
+      <c r="H346" t="s">
+        <v>30</v>
+      </c>
+      <c r="I346" t="s">
+        <v>31</v>
+      </c>
+      <c r="J346" t="s">
+        <v>613</v>
+      </c>
+      <c r="K346" t="s">
+        <v>35</v>
+      </c>
+      <c r="M346" t="s">
+        <v>35</v>
+      </c>
+      <c r="N346" t="s">
+        <v>604</v>
+      </c>
+      <c r="O346" t="s">
+        <v>35</v>
+      </c>
+      <c r="P346" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q346" t="s">
+        <v>35</v>
+      </c>
+      <c r="R346" t="s">
+        <v>61</v>
+      </c>
+      <c r="T346" t="s">
+        <v>61</v>
+      </c>
+      <c r="X346" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA346" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB346" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE346" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI346" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL346" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT346" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="347" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>546</v>
+      </c>
+      <c r="B347" t="s">
+        <v>547</v>
+      </c>
+      <c r="C347" t="s">
+        <v>575</v>
+      </c>
+      <c r="E347" t="s">
+        <v>27</v>
+      </c>
+      <c r="F347" t="s">
+        <v>28</v>
+      </c>
+      <c r="G347" t="s">
+        <v>29</v>
+      </c>
+      <c r="H347" t="s">
+        <v>30</v>
+      </c>
+      <c r="I347" t="s">
+        <v>31</v>
+      </c>
+      <c r="J347" t="s">
+        <v>613</v>
+      </c>
+      <c r="K347" t="s">
+        <v>35</v>
+      </c>
+      <c r="M347" t="s">
+        <v>35</v>
+      </c>
+      <c r="N347" t="s">
+        <v>605</v>
+      </c>
+      <c r="O347" t="s">
+        <v>35</v>
+      </c>
+      <c r="P347" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q347" t="s">
+        <v>35</v>
+      </c>
+      <c r="R347" t="s">
+        <v>61</v>
+      </c>
+      <c r="T347" t="s">
+        <v>61</v>
+      </c>
+      <c r="X347" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA347" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB347" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE347" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI347" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL347" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT347" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="348" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>546</v>
+      </c>
+      <c r="B348" t="s">
+        <v>547</v>
+      </c>
+      <c r="C348" t="s">
+        <v>576</v>
+      </c>
+      <c r="E348" t="s">
+        <v>27</v>
+      </c>
+      <c r="F348" t="s">
+        <v>28</v>
+      </c>
+      <c r="G348" t="s">
+        <v>29</v>
+      </c>
+      <c r="H348" t="s">
+        <v>30</v>
+      </c>
+      <c r="I348" t="s">
+        <v>31</v>
+      </c>
+      <c r="J348" t="s">
+        <v>613</v>
+      </c>
+      <c r="K348" t="s">
+        <v>35</v>
+      </c>
+      <c r="M348" t="s">
+        <v>35</v>
+      </c>
+      <c r="N348" t="s">
+        <v>606</v>
+      </c>
+      <c r="O348" t="s">
+        <v>35</v>
+      </c>
+      <c r="P348" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q348" t="s">
+        <v>35</v>
+      </c>
+      <c r="R348" t="s">
+        <v>61</v>
+      </c>
+      <c r="T348" t="s">
+        <v>61</v>
+      </c>
+      <c r="X348" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA348" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB348" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE348" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI348" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL348" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT348" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="349" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>546</v>
+      </c>
+      <c r="B349" t="s">
+        <v>547</v>
+      </c>
+      <c r="C349" t="s">
+        <v>577</v>
+      </c>
+      <c r="E349" t="s">
+        <v>27</v>
+      </c>
+      <c r="F349" t="s">
+        <v>28</v>
+      </c>
+      <c r="G349" t="s">
+        <v>29</v>
+      </c>
+      <c r="H349" t="s">
+        <v>30</v>
+      </c>
+      <c r="I349" t="s">
+        <v>31</v>
+      </c>
+      <c r="J349" t="s">
+        <v>613</v>
+      </c>
+      <c r="K349" t="s">
+        <v>35</v>
+      </c>
+      <c r="M349" t="s">
+        <v>35</v>
+      </c>
+      <c r="N349" t="s">
+        <v>607</v>
+      </c>
+      <c r="O349" t="s">
+        <v>35</v>
+      </c>
+      <c r="P349" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q349" t="s">
+        <v>35</v>
+      </c>
+      <c r="R349" t="s">
+        <v>61</v>
+      </c>
+      <c r="T349" t="s">
+        <v>61</v>
+      </c>
+      <c r="X349" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA349" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB349" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE349" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI349" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL349" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT349" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="350" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>546</v>
+      </c>
+      <c r="B350" t="s">
+        <v>547</v>
+      </c>
+      <c r="C350" t="s">
+        <v>578</v>
+      </c>
+      <c r="E350" t="s">
+        <v>27</v>
+      </c>
+      <c r="F350" t="s">
+        <v>28</v>
+      </c>
+      <c r="G350" t="s">
+        <v>29</v>
+      </c>
+      <c r="H350" t="s">
+        <v>30</v>
+      </c>
+      <c r="I350" t="s">
+        <v>31</v>
+      </c>
+      <c r="J350" t="s">
+        <v>613</v>
+      </c>
+      <c r="K350" t="s">
+        <v>35</v>
+      </c>
+      <c r="M350" t="s">
+        <v>35</v>
+      </c>
+      <c r="N350" t="s">
+        <v>608</v>
+      </c>
+      <c r="O350" t="s">
+        <v>35</v>
+      </c>
+      <c r="P350" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q350" t="s">
+        <v>35</v>
+      </c>
+      <c r="R350" t="s">
+        <v>61</v>
+      </c>
+      <c r="T350" t="s">
+        <v>61</v>
+      </c>
+      <c r="X350" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA350" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB350" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE350" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI350" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL350" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT350" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="351" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>546</v>
+      </c>
+      <c r="B351" t="s">
+        <v>547</v>
+      </c>
+      <c r="C351" t="s">
+        <v>579</v>
+      </c>
+      <c r="E351" t="s">
+        <v>27</v>
+      </c>
+      <c r="F351" t="s">
+        <v>28</v>
+      </c>
+      <c r="G351" t="s">
+        <v>29</v>
+      </c>
+      <c r="H351" t="s">
+        <v>30</v>
+      </c>
+      <c r="I351" t="s">
+        <v>31</v>
+      </c>
+      <c r="J351" t="s">
+        <v>613</v>
+      </c>
+      <c r="K351" t="s">
+        <v>35</v>
+      </c>
+      <c r="M351" t="s">
+        <v>35</v>
+      </c>
+      <c r="N351" t="s">
+        <v>609</v>
+      </c>
+      <c r="O351" t="s">
+        <v>35</v>
+      </c>
+      <c r="P351" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q351" t="s">
+        <v>35</v>
+      </c>
+      <c r="R351" t="s">
+        <v>61</v>
+      </c>
+      <c r="T351" t="s">
+        <v>61</v>
+      </c>
+      <c r="X351" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA351" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB351" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE351" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI351" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL351" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT351" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="352" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>546</v>
+      </c>
+      <c r="B352" t="s">
+        <v>547</v>
+      </c>
+      <c r="C352" t="s">
+        <v>580</v>
+      </c>
+      <c r="E352" t="s">
+        <v>27</v>
+      </c>
+      <c r="F352" t="s">
+        <v>28</v>
+      </c>
+      <c r="G352" t="s">
+        <v>29</v>
+      </c>
+      <c r="H352" t="s">
+        <v>30</v>
+      </c>
+      <c r="I352" t="s">
+        <v>31</v>
+      </c>
+      <c r="J352" t="s">
+        <v>613</v>
+      </c>
+      <c r="K352" t="s">
+        <v>35</v>
+      </c>
+      <c r="M352" t="s">
+        <v>35</v>
+      </c>
+      <c r="N352" t="s">
+        <v>275</v>
+      </c>
+      <c r="O352" t="s">
+        <v>35</v>
+      </c>
+      <c r="P352" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q352" t="s">
+        <v>35</v>
+      </c>
+      <c r="R352" t="s">
+        <v>61</v>
+      </c>
+      <c r="T352" t="s">
+        <v>61</v>
+      </c>
+      <c r="X352" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA352" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB352" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE352" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI352" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL352" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT352" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="353" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>546</v>
+      </c>
+      <c r="B353" t="s">
+        <v>547</v>
+      </c>
+      <c r="C353" t="s">
+        <v>581</v>
+      </c>
+      <c r="E353" t="s">
+        <v>27</v>
+      </c>
+      <c r="F353" t="s">
+        <v>28</v>
+      </c>
+      <c r="G353" t="s">
+        <v>29</v>
+      </c>
+      <c r="H353" t="s">
+        <v>30</v>
+      </c>
+      <c r="I353" t="s">
+        <v>31</v>
+      </c>
+      <c r="J353" t="s">
+        <v>613</v>
+      </c>
+      <c r="K353" t="s">
+        <v>35</v>
+      </c>
+      <c r="M353" t="s">
+        <v>35</v>
+      </c>
+      <c r="N353" t="s">
+        <v>273</v>
+      </c>
+      <c r="O353" t="s">
+        <v>35</v>
+      </c>
+      <c r="P353" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q353" t="s">
+        <v>35</v>
+      </c>
+      <c r="R353" t="s">
+        <v>61</v>
+      </c>
+      <c r="T353" t="s">
+        <v>61</v>
+      </c>
+      <c r="X353" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA353" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB353" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE353" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI353" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL353" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT353" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="354" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>546</v>
+      </c>
+      <c r="B354" t="s">
+        <v>547</v>
+      </c>
+      <c r="C354" t="s">
+        <v>582</v>
+      </c>
+      <c r="E354" t="s">
+        <v>27</v>
+      </c>
+      <c r="F354" t="s">
+        <v>28</v>
+      </c>
+      <c r="G354" t="s">
+        <v>29</v>
+      </c>
+      <c r="H354" t="s">
+        <v>30</v>
+      </c>
+      <c r="I354" t="s">
+        <v>31</v>
+      </c>
+      <c r="J354" t="s">
+        <v>613</v>
+      </c>
+      <c r="K354" t="s">
+        <v>35</v>
+      </c>
+      <c r="M354" t="s">
+        <v>35</v>
+      </c>
+      <c r="N354" t="s">
+        <v>76</v>
+      </c>
+      <c r="O354" t="s">
+        <v>35</v>
+      </c>
+      <c r="P354" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q354" t="s">
+        <v>35</v>
+      </c>
+      <c r="R354" t="s">
+        <v>61</v>
+      </c>
+      <c r="T354" t="s">
+        <v>61</v>
+      </c>
+      <c r="X354" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA354" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB354" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE354" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI354" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL354" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT354" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="355" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>546</v>
+      </c>
+      <c r="B355" t="s">
+        <v>547</v>
+      </c>
+      <c r="C355" t="s">
+        <v>583</v>
+      </c>
+      <c r="E355" t="s">
+        <v>27</v>
+      </c>
+      <c r="F355" t="s">
+        <v>28</v>
+      </c>
+      <c r="G355" t="s">
+        <v>29</v>
+      </c>
+      <c r="H355" t="s">
+        <v>30</v>
+      </c>
+      <c r="I355" t="s">
+        <v>31</v>
+      </c>
+      <c r="J355" t="s">
+        <v>613</v>
+      </c>
+      <c r="K355" t="s">
+        <v>35</v>
+      </c>
+      <c r="M355" t="s">
+        <v>35</v>
+      </c>
+      <c r="N355" t="s">
+        <v>531</v>
+      </c>
+      <c r="O355" t="s">
+        <v>35</v>
+      </c>
+      <c r="P355" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q355" t="s">
+        <v>35</v>
+      </c>
+      <c r="R355" t="s">
+        <v>61</v>
+      </c>
+      <c r="T355" t="s">
+        <v>61</v>
+      </c>
+      <c r="X355" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA355" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB355" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE355" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI355" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL355" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT355" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="356" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>546</v>
+      </c>
+      <c r="B356" t="s">
+        <v>547</v>
+      </c>
+      <c r="C356" t="s">
+        <v>584</v>
+      </c>
+      <c r="E356" t="s">
+        <v>27</v>
+      </c>
+      <c r="F356" t="s">
+        <v>28</v>
+      </c>
+      <c r="G356" t="s">
+        <v>29</v>
+      </c>
+      <c r="H356" t="s">
+        <v>30</v>
+      </c>
+      <c r="I356" t="s">
+        <v>31</v>
+      </c>
+      <c r="J356" t="s">
+        <v>613</v>
+      </c>
+      <c r="K356" t="s">
+        <v>35</v>
+      </c>
+      <c r="M356" t="s">
+        <v>35</v>
+      </c>
+      <c r="N356" t="s">
+        <v>76</v>
+      </c>
+      <c r="O356" t="s">
+        <v>35</v>
+      </c>
+      <c r="P356" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q356" t="s">
+        <v>35</v>
+      </c>
+      <c r="R356" t="s">
+        <v>61</v>
+      </c>
+      <c r="T356" t="s">
+        <v>61</v>
+      </c>
+      <c r="X356" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA356" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB356" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE356" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI356" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL356" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT356" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="357" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>546</v>
+      </c>
+      <c r="B357" t="s">
+        <v>547</v>
+      </c>
+      <c r="C357" t="s">
+        <v>585</v>
+      </c>
+      <c r="E357" t="s">
+        <v>27</v>
+      </c>
+      <c r="F357" t="s">
+        <v>28</v>
+      </c>
+      <c r="G357" t="s">
+        <v>29</v>
+      </c>
+      <c r="H357" t="s">
+        <v>30</v>
+      </c>
+      <c r="I357" t="s">
+        <v>31</v>
+      </c>
+      <c r="J357" t="s">
+        <v>613</v>
+      </c>
+      <c r="K357" t="s">
+        <v>35</v>
+      </c>
+      <c r="M357" t="s">
+        <v>35</v>
+      </c>
+      <c r="N357" t="s">
+        <v>602</v>
+      </c>
+      <c r="O357" t="s">
+        <v>35</v>
+      </c>
+      <c r="P357" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q357" t="s">
+        <v>35</v>
+      </c>
+      <c r="R357" t="s">
+        <v>61</v>
+      </c>
+      <c r="T357" t="s">
+        <v>61</v>
+      </c>
+      <c r="X357" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA357" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB357" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE357" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI357" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL357" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT357" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="358" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>546</v>
+      </c>
+      <c r="B358" t="s">
+        <v>547</v>
+      </c>
+      <c r="C358" t="s">
+        <v>586</v>
+      </c>
+      <c r="E358" t="s">
+        <v>27</v>
+      </c>
+      <c r="F358" t="s">
+        <v>28</v>
+      </c>
+      <c r="G358" t="s">
+        <v>29</v>
+      </c>
+      <c r="H358" t="s">
+        <v>30</v>
+      </c>
+      <c r="I358" t="s">
+        <v>31</v>
+      </c>
+      <c r="J358" t="s">
+        <v>613</v>
+      </c>
+      <c r="K358" t="s">
+        <v>35</v>
+      </c>
+      <c r="M358" t="s">
+        <v>35</v>
+      </c>
+      <c r="N358" t="s">
+        <v>608</v>
+      </c>
+      <c r="O358" t="s">
+        <v>35</v>
+      </c>
+      <c r="P358" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q358" t="s">
+        <v>35</v>
+      </c>
+      <c r="R358" t="s">
+        <v>61</v>
+      </c>
+      <c r="T358" t="s">
+        <v>61</v>
+      </c>
+      <c r="X358" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA358" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB358" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE358" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI358" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL358" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT358" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="359" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>546</v>
+      </c>
+      <c r="B359" t="s">
+        <v>547</v>
+      </c>
+      <c r="C359" t="s">
+        <v>587</v>
+      </c>
+      <c r="E359" t="s">
+        <v>27</v>
+      </c>
+      <c r="F359" t="s">
+        <v>28</v>
+      </c>
+      <c r="G359" t="s">
+        <v>29</v>
+      </c>
+      <c r="H359" t="s">
+        <v>30</v>
+      </c>
+      <c r="I359" t="s">
+        <v>31</v>
+      </c>
+      <c r="J359" t="s">
+        <v>613</v>
+      </c>
+      <c r="K359" t="s">
+        <v>35</v>
+      </c>
+      <c r="M359" t="s">
+        <v>35</v>
+      </c>
+      <c r="N359" t="s">
+        <v>60</v>
+      </c>
+      <c r="O359" t="s">
+        <v>35</v>
+      </c>
+      <c r="P359" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q359" t="s">
+        <v>35</v>
+      </c>
+      <c r="R359" t="s">
+        <v>61</v>
+      </c>
+      <c r="T359" t="s">
+        <v>61</v>
+      </c>
+      <c r="X359" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA359" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB359" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE359" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI359" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL359" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT359" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="360" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>546</v>
+      </c>
+      <c r="B360" t="s">
+        <v>547</v>
+      </c>
+      <c r="C360" t="s">
+        <v>588</v>
+      </c>
+      <c r="E360" t="s">
+        <v>27</v>
+      </c>
+      <c r="F360" t="s">
+        <v>28</v>
+      </c>
+      <c r="G360" t="s">
+        <v>29</v>
+      </c>
+      <c r="H360" t="s">
+        <v>30</v>
+      </c>
+      <c r="I360" t="s">
+        <v>31</v>
+      </c>
+      <c r="J360" t="s">
+        <v>613</v>
+      </c>
+      <c r="K360" t="s">
+        <v>35</v>
+      </c>
+      <c r="M360" t="s">
+        <v>35</v>
+      </c>
+      <c r="N360" t="s">
+        <v>596</v>
+      </c>
+      <c r="O360" t="s">
+        <v>35</v>
+      </c>
+      <c r="P360" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q360" t="s">
+        <v>35</v>
+      </c>
+      <c r="R360" t="s">
+        <v>61</v>
+      </c>
+      <c r="T360" t="s">
+        <v>61</v>
+      </c>
+      <c r="X360" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA360" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB360" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE360" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI360" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL360" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT360" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="361" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>546</v>
+      </c>
+      <c r="B361" t="s">
+        <v>547</v>
+      </c>
+      <c r="C361" t="s">
+        <v>589</v>
+      </c>
+      <c r="E361" t="s">
+        <v>27</v>
+      </c>
+      <c r="F361" t="s">
+        <v>28</v>
+      </c>
+      <c r="G361" t="s">
+        <v>29</v>
+      </c>
+      <c r="H361" t="s">
+        <v>30</v>
+      </c>
+      <c r="I361" t="s">
+        <v>31</v>
+      </c>
+      <c r="J361" t="s">
+        <v>613</v>
+      </c>
+      <c r="K361" t="s">
+        <v>35</v>
+      </c>
+      <c r="M361" t="s">
+        <v>35</v>
+      </c>
+      <c r="N361" t="s">
+        <v>604</v>
+      </c>
+      <c r="O361" t="s">
+        <v>35</v>
+      </c>
+      <c r="P361" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q361" t="s">
+        <v>35</v>
+      </c>
+      <c r="R361" t="s">
+        <v>61</v>
+      </c>
+      <c r="T361" t="s">
+        <v>61</v>
+      </c>
+      <c r="X361" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA361" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB361" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE361" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI361" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL361" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT361" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="362" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>546</v>
+      </c>
+      <c r="B362" t="s">
+        <v>547</v>
+      </c>
+      <c r="C362" t="s">
+        <v>590</v>
+      </c>
+      <c r="E362" t="s">
+        <v>27</v>
+      </c>
+      <c r="F362" t="s">
+        <v>28</v>
+      </c>
+      <c r="G362" t="s">
+        <v>29</v>
+      </c>
+      <c r="H362" t="s">
+        <v>30</v>
+      </c>
+      <c r="I362" t="s">
+        <v>31</v>
+      </c>
+      <c r="J362" t="s">
+        <v>613</v>
+      </c>
+      <c r="K362" t="s">
+        <v>35</v>
+      </c>
+      <c r="M362" t="s">
+        <v>35</v>
+      </c>
+      <c r="N362" t="s">
+        <v>610</v>
+      </c>
+      <c r="O362" t="s">
+        <v>35</v>
+      </c>
+      <c r="P362" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q362" t="s">
+        <v>35</v>
+      </c>
+      <c r="R362" t="s">
+        <v>61</v>
+      </c>
+      <c r="T362" t="s">
+        <v>61</v>
+      </c>
+      <c r="X362" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA362" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB362" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE362" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI362" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL362" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT362" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="363" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>546</v>
+      </c>
+      <c r="B363" t="s">
+        <v>547</v>
+      </c>
+      <c r="C363" t="s">
+        <v>591</v>
+      </c>
+      <c r="E363" t="s">
+        <v>27</v>
+      </c>
+      <c r="F363" t="s">
+        <v>28</v>
+      </c>
+      <c r="G363" t="s">
+        <v>29</v>
+      </c>
+      <c r="H363" t="s">
+        <v>30</v>
+      </c>
+      <c r="I363" t="s">
+        <v>31</v>
+      </c>
+      <c r="J363" t="s">
+        <v>613</v>
+      </c>
+      <c r="K363" t="s">
+        <v>35</v>
+      </c>
+      <c r="M363" t="s">
+        <v>35</v>
+      </c>
+      <c r="N363" t="s">
+        <v>611</v>
+      </c>
+      <c r="O363" t="s">
+        <v>35</v>
+      </c>
+      <c r="P363" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q363" t="s">
+        <v>35</v>
+      </c>
+      <c r="R363" t="s">
+        <v>61</v>
+      </c>
+      <c r="T363" t="s">
+        <v>61</v>
+      </c>
+      <c r="X363" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA363" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB363" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE363" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI363" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL363" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT363" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="364" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>614</v>
+      </c>
+      <c r="B364" t="s">
+        <v>615</v>
+      </c>
+      <c r="C364" t="s">
+        <v>616</v>
+      </c>
+      <c r="E364" t="s">
+        <v>27</v>
+      </c>
+      <c r="F364" t="s">
+        <v>28</v>
+      </c>
+      <c r="G364" t="s">
+        <v>29</v>
+      </c>
+      <c r="H364" t="s">
+        <v>30</v>
+      </c>
+      <c r="I364" t="s">
+        <v>31</v>
+      </c>
+      <c r="J364" t="s">
+        <v>691</v>
+      </c>
+      <c r="K364" t="s">
+        <v>35</v>
+      </c>
+      <c r="M364" t="s">
+        <v>35</v>
+      </c>
+      <c r="N364" t="s">
+        <v>674</v>
+      </c>
+      <c r="O364" t="s">
+        <v>35</v>
+      </c>
+      <c r="P364" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q364" t="s">
+        <v>35</v>
+      </c>
+      <c r="R364" t="s">
+        <v>61</v>
+      </c>
+      <c r="T364" t="s">
+        <v>61</v>
+      </c>
+      <c r="X364" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y364" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z364" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA364" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE364" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG364" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="365" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
+        <v>614</v>
+      </c>
+      <c r="B365" t="s">
+        <v>615</v>
+      </c>
+      <c r="C365" t="s">
+        <v>617</v>
+      </c>
+      <c r="E365" t="s">
+        <v>27</v>
+      </c>
+      <c r="F365" t="s">
+        <v>28</v>
+      </c>
+      <c r="G365" t="s">
+        <v>29</v>
+      </c>
+      <c r="H365" t="s">
+        <v>30</v>
+      </c>
+      <c r="I365" t="s">
+        <v>31</v>
+      </c>
+      <c r="J365" t="s">
+        <v>692</v>
+      </c>
+      <c r="K365" t="s">
+        <v>35</v>
+      </c>
+      <c r="M365" t="s">
+        <v>35</v>
+      </c>
+      <c r="N365" t="s">
+        <v>76</v>
+      </c>
+      <c r="O365" t="s">
+        <v>35</v>
+      </c>
+      <c r="P365" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q365" t="s">
+        <v>35</v>
+      </c>
+      <c r="R365" t="s">
+        <v>45</v>
+      </c>
+      <c r="T365" t="s">
+        <v>61</v>
+      </c>
+      <c r="X365" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y365" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z365" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA365" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE365" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG365" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="366" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
+        <v>614</v>
+      </c>
+      <c r="B366" t="s">
+        <v>615</v>
+      </c>
+      <c r="C366" t="s">
+        <v>618</v>
+      </c>
+      <c r="E366" t="s">
+        <v>27</v>
+      </c>
+      <c r="F366" t="s">
+        <v>28</v>
+      </c>
+      <c r="G366" t="s">
+        <v>29</v>
+      </c>
+      <c r="H366" t="s">
+        <v>30</v>
+      </c>
+      <c r="I366" t="s">
+        <v>31</v>
+      </c>
+      <c r="J366" t="s">
+        <v>693</v>
+      </c>
+      <c r="K366" t="s">
+        <v>35</v>
+      </c>
+      <c r="M366" t="s">
+        <v>35</v>
+      </c>
+      <c r="N366" t="s">
+        <v>675</v>
+      </c>
+      <c r="O366" t="s">
+        <v>35</v>
+      </c>
+      <c r="P366" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q366" t="s">
+        <v>35</v>
+      </c>
+      <c r="R366" t="s">
+        <v>45</v>
+      </c>
+      <c r="T366" t="s">
+        <v>45</v>
+      </c>
+      <c r="X366" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y366" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z366" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA366" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE366" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG366" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="367" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>614</v>
+      </c>
+      <c r="B367" t="s">
+        <v>615</v>
+      </c>
+      <c r="C367" t="s">
+        <v>619</v>
+      </c>
+      <c r="E367" t="s">
+        <v>27</v>
+      </c>
+      <c r="F367" t="s">
+        <v>28</v>
+      </c>
+      <c r="G367" t="s">
+        <v>29</v>
+      </c>
+      <c r="H367" t="s">
+        <v>30</v>
+      </c>
+      <c r="I367" t="s">
+        <v>31</v>
+      </c>
+      <c r="J367" t="s">
+        <v>692</v>
+      </c>
+      <c r="K367" t="s">
+        <v>35</v>
+      </c>
+      <c r="M367" t="s">
+        <v>35</v>
+      </c>
+      <c r="N367" t="s">
+        <v>676</v>
+      </c>
+      <c r="O367" t="s">
+        <v>35</v>
+      </c>
+      <c r="P367" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q367" t="s">
+        <v>35</v>
+      </c>
+      <c r="R367" t="s">
+        <v>45</v>
+      </c>
+      <c r="T367" t="s">
+        <v>45</v>
+      </c>
+      <c r="X367" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y367" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z367" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA367" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE367" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG367" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="368" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>614</v>
+      </c>
+      <c r="B368" t="s">
+        <v>615</v>
+      </c>
+      <c r="C368" t="s">
+        <v>620</v>
+      </c>
+      <c r="E368" t="s">
+        <v>27</v>
+      </c>
+      <c r="F368" t="s">
+        <v>28</v>
+      </c>
+      <c r="G368" t="s">
+        <v>29</v>
+      </c>
+      <c r="H368" t="s">
+        <v>30</v>
+      </c>
+      <c r="I368" t="s">
+        <v>31</v>
+      </c>
+      <c r="J368" t="s">
+        <v>692</v>
+      </c>
+      <c r="K368" t="s">
+        <v>35</v>
+      </c>
+      <c r="M368" t="s">
+        <v>35</v>
+      </c>
+      <c r="N368" t="s">
+        <v>677</v>
+      </c>
+      <c r="O368" t="s">
+        <v>35</v>
+      </c>
+      <c r="P368" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q368" t="s">
+        <v>35</v>
+      </c>
+      <c r="R368" t="s">
+        <v>45</v>
+      </c>
+      <c r="T368" t="s">
+        <v>45</v>
+      </c>
+      <c r="X368" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y368" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z368" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA368" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE368" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG368" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="369" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
+        <v>614</v>
+      </c>
+      <c r="B369" t="s">
+        <v>615</v>
+      </c>
+      <c r="C369" t="s">
+        <v>621</v>
+      </c>
+      <c r="E369" t="s">
+        <v>27</v>
+      </c>
+      <c r="F369" t="s">
+        <v>28</v>
+      </c>
+      <c r="G369" t="s">
+        <v>29</v>
+      </c>
+      <c r="H369" t="s">
+        <v>30</v>
+      </c>
+      <c r="I369" t="s">
+        <v>31</v>
+      </c>
+      <c r="J369" t="s">
+        <v>691</v>
+      </c>
+      <c r="K369" t="s">
+        <v>35</v>
+      </c>
+      <c r="M369" t="s">
+        <v>35</v>
+      </c>
+      <c r="N369" t="s">
+        <v>678</v>
+      </c>
+      <c r="O369" t="s">
+        <v>35</v>
+      </c>
+      <c r="P369" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q369" t="s">
+        <v>35</v>
+      </c>
+      <c r="R369" t="s">
+        <v>45</v>
+      </c>
+      <c r="T369" t="s">
+        <v>45</v>
+      </c>
+      <c r="X369" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y369" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z369" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA369" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE369" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG369" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="370" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
+        <v>614</v>
+      </c>
+      <c r="B370" t="s">
+        <v>615</v>
+      </c>
+      <c r="C370" t="s">
+        <v>622</v>
+      </c>
+      <c r="E370" t="s">
+        <v>27</v>
+      </c>
+      <c r="F370" t="s">
+        <v>28</v>
+      </c>
+      <c r="G370" t="s">
+        <v>29</v>
+      </c>
+      <c r="H370" t="s">
+        <v>30</v>
+      </c>
+      <c r="I370" t="s">
+        <v>31</v>
+      </c>
+      <c r="J370" t="s">
+        <v>691</v>
+      </c>
+      <c r="K370" t="s">
+        <v>35</v>
+      </c>
+      <c r="M370" t="s">
+        <v>35</v>
+      </c>
+      <c r="N370" t="s">
+        <v>604</v>
+      </c>
+      <c r="O370" t="s">
+        <v>35</v>
+      </c>
+      <c r="P370" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q370" t="s">
+        <v>35</v>
+      </c>
+      <c r="R370" t="s">
+        <v>61</v>
+      </c>
+      <c r="T370" t="s">
+        <v>61</v>
+      </c>
+      <c r="X370" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y370" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z370" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA370" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE370" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="371" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
+        <v>614</v>
+      </c>
+      <c r="B371" t="s">
+        <v>615</v>
+      </c>
+      <c r="C371" t="s">
+        <v>623</v>
+      </c>
+      <c r="E371" t="s">
+        <v>27</v>
+      </c>
+      <c r="F371" t="s">
+        <v>28</v>
+      </c>
+      <c r="G371" t="s">
+        <v>29</v>
+      </c>
+      <c r="H371" t="s">
+        <v>30</v>
+      </c>
+      <c r="I371" t="s">
+        <v>31</v>
+      </c>
+      <c r="J371" t="s">
+        <v>691</v>
+      </c>
+      <c r="K371" t="s">
+        <v>35</v>
+      </c>
+      <c r="M371" t="s">
+        <v>35</v>
+      </c>
+      <c r="N371" t="s">
+        <v>608</v>
+      </c>
+      <c r="O371" t="s">
+        <v>35</v>
+      </c>
+      <c r="P371" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q371" t="s">
+        <v>35</v>
+      </c>
+      <c r="R371" t="s">
+        <v>61</v>
+      </c>
+      <c r="T371" t="s">
+        <v>61</v>
+      </c>
+      <c r="X371" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y371" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z371" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA371" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE371" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG371" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="372" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
+        <v>614</v>
+      </c>
+      <c r="B372" t="s">
+        <v>615</v>
+      </c>
+      <c r="C372" t="s">
+        <v>624</v>
+      </c>
+      <c r="E372" t="s">
+        <v>27</v>
+      </c>
+      <c r="F372" t="s">
+        <v>28</v>
+      </c>
+      <c r="G372" t="s">
+        <v>29</v>
+      </c>
+      <c r="H372" t="s">
+        <v>30</v>
+      </c>
+      <c r="I372" t="s">
+        <v>31</v>
+      </c>
+      <c r="J372" t="s">
+        <v>692</v>
+      </c>
+      <c r="K372" t="s">
+        <v>35</v>
+      </c>
+      <c r="M372" t="s">
+        <v>35</v>
+      </c>
+      <c r="N372" t="s">
+        <v>679</v>
+      </c>
+      <c r="O372" t="s">
+        <v>35</v>
+      </c>
+      <c r="P372" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q372" t="s">
+        <v>35</v>
+      </c>
+      <c r="R372" t="s">
+        <v>61</v>
+      </c>
+      <c r="T372" t="s">
+        <v>45</v>
+      </c>
+      <c r="X372" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y372" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z372" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA372" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE372" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG372" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="373" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
+        <v>614</v>
+      </c>
+      <c r="B373" t="s">
+        <v>615</v>
+      </c>
+      <c r="C373" t="s">
+        <v>625</v>
+      </c>
+      <c r="E373" t="s">
+        <v>27</v>
+      </c>
+      <c r="F373" t="s">
+        <v>28</v>
+      </c>
+      <c r="G373" t="s">
+        <v>29</v>
+      </c>
+      <c r="H373" t="s">
+        <v>30</v>
+      </c>
+      <c r="I373" t="s">
+        <v>31</v>
+      </c>
+      <c r="J373" t="s">
+        <v>692</v>
+      </c>
+      <c r="K373" t="s">
+        <v>35</v>
+      </c>
+      <c r="M373" t="s">
+        <v>35</v>
+      </c>
+      <c r="N373" t="s">
+        <v>610</v>
+      </c>
+      <c r="O373" t="s">
+        <v>35</v>
+      </c>
+      <c r="P373" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q373" t="s">
+        <v>35</v>
+      </c>
+      <c r="R373" t="s">
+        <v>45</v>
+      </c>
+      <c r="T373" t="s">
+        <v>45</v>
+      </c>
+      <c r="X373" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y373" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z373" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA373" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE373" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG373" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="374" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>614</v>
+      </c>
+      <c r="B374" t="s">
+        <v>615</v>
+      </c>
+      <c r="C374" t="s">
+        <v>626</v>
+      </c>
+      <c r="E374" t="s">
+        <v>27</v>
+      </c>
+      <c r="F374" t="s">
+        <v>28</v>
+      </c>
+      <c r="G374" t="s">
+        <v>29</v>
+      </c>
+      <c r="H374" t="s">
+        <v>30</v>
+      </c>
+      <c r="I374" t="s">
+        <v>31</v>
+      </c>
+      <c r="J374" t="s">
+        <v>692</v>
+      </c>
+      <c r="K374" t="s">
+        <v>35</v>
+      </c>
+      <c r="M374" t="s">
+        <v>35</v>
+      </c>
+      <c r="N374" t="s">
+        <v>597</v>
+      </c>
+      <c r="O374" t="s">
+        <v>35</v>
+      </c>
+      <c r="P374" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q374" t="s">
+        <v>35</v>
+      </c>
+      <c r="R374" t="s">
+        <v>61</v>
+      </c>
+      <c r="T374" t="s">
+        <v>61</v>
+      </c>
+      <c r="X374" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y374" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z374" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA374" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE374" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG374" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="375" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
+        <v>614</v>
+      </c>
+      <c r="B375" t="s">
+        <v>615</v>
+      </c>
+      <c r="C375" t="s">
+        <v>627</v>
+      </c>
+      <c r="E375" t="s">
+        <v>27</v>
+      </c>
+      <c r="F375" t="s">
+        <v>28</v>
+      </c>
+      <c r="G375" t="s">
+        <v>29</v>
+      </c>
+      <c r="H375" t="s">
+        <v>30</v>
+      </c>
+      <c r="I375" t="s">
+        <v>31</v>
+      </c>
+      <c r="J375" t="s">
+        <v>692</v>
+      </c>
+      <c r="K375" t="s">
+        <v>35</v>
+      </c>
+      <c r="M375" t="s">
+        <v>35</v>
+      </c>
+      <c r="N375" t="s">
+        <v>680</v>
+      </c>
+      <c r="O375" t="s">
+        <v>35</v>
+      </c>
+      <c r="P375" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q375" t="s">
+        <v>35</v>
+      </c>
+      <c r="R375" t="s">
+        <v>61</v>
+      </c>
+      <c r="T375" t="s">
+        <v>45</v>
+      </c>
+      <c r="X375" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y375" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z375" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA375" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE375" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG375" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="376" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>614</v>
+      </c>
+      <c r="B376" t="s">
+        <v>615</v>
+      </c>
+      <c r="C376" t="s">
+        <v>628</v>
+      </c>
+      <c r="E376" t="s">
+        <v>27</v>
+      </c>
+      <c r="F376" t="s">
+        <v>28</v>
+      </c>
+      <c r="G376" t="s">
+        <v>29</v>
+      </c>
+      <c r="H376" t="s">
+        <v>30</v>
+      </c>
+      <c r="I376" t="s">
+        <v>31</v>
+      </c>
+      <c r="J376" t="s">
+        <v>692</v>
+      </c>
+      <c r="K376" t="s">
+        <v>35</v>
+      </c>
+      <c r="M376" t="s">
+        <v>35</v>
+      </c>
+      <c r="N376" t="s">
+        <v>679</v>
+      </c>
+      <c r="O376" t="s">
+        <v>35</v>
+      </c>
+      <c r="P376" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q376" t="s">
+        <v>35</v>
+      </c>
+      <c r="R376" t="s">
+        <v>61</v>
+      </c>
+      <c r="T376" t="s">
+        <v>45</v>
+      </c>
+      <c r="X376" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y376" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z376" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA376" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE376" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG376" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="377" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>614</v>
+      </c>
+      <c r="B377" t="s">
+        <v>615</v>
+      </c>
+      <c r="C377" t="s">
+        <v>629</v>
+      </c>
+      <c r="E377" t="s">
+        <v>27</v>
+      </c>
+      <c r="F377" t="s">
+        <v>28</v>
+      </c>
+      <c r="G377" t="s">
+        <v>29</v>
+      </c>
+      <c r="H377" t="s">
+        <v>30</v>
+      </c>
+      <c r="I377" t="s">
+        <v>31</v>
+      </c>
+      <c r="J377" t="s">
+        <v>693</v>
+      </c>
+      <c r="K377" t="s">
+        <v>35</v>
+      </c>
+      <c r="M377" t="s">
+        <v>35</v>
+      </c>
+      <c r="N377" t="s">
+        <v>681</v>
+      </c>
+      <c r="O377" t="s">
+        <v>35</v>
+      </c>
+      <c r="P377" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q377" t="s">
+        <v>35</v>
+      </c>
+      <c r="R377" t="s">
+        <v>61</v>
+      </c>
+      <c r="T377" t="s">
+        <v>45</v>
+      </c>
+      <c r="X377" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y377" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z377" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA377" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE377" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="378" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
+        <v>614</v>
+      </c>
+      <c r="B378" t="s">
+        <v>615</v>
+      </c>
+      <c r="C378" t="s">
+        <v>630</v>
+      </c>
+      <c r="E378" t="s">
+        <v>27</v>
+      </c>
+      <c r="F378" t="s">
+        <v>28</v>
+      </c>
+      <c r="G378" t="s">
+        <v>29</v>
+      </c>
+      <c r="H378" t="s">
+        <v>30</v>
+      </c>
+      <c r="I378" t="s">
+        <v>31</v>
+      </c>
+      <c r="J378" t="s">
+        <v>692</v>
+      </c>
+      <c r="K378" t="s">
+        <v>35</v>
+      </c>
+      <c r="M378" t="s">
+        <v>35</v>
+      </c>
+      <c r="N378" t="s">
+        <v>682</v>
+      </c>
+      <c r="O378" t="s">
+        <v>35</v>
+      </c>
+      <c r="P378" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q378" t="s">
+        <v>35</v>
+      </c>
+      <c r="R378" t="s">
+        <v>61</v>
+      </c>
+      <c r="T378" t="s">
+        <v>45</v>
+      </c>
+      <c r="X378" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y378" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z378" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA378" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE378" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG378" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="379" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
+        <v>614</v>
+      </c>
+      <c r="B379" t="s">
+        <v>615</v>
+      </c>
+      <c r="C379" t="s">
+        <v>631</v>
+      </c>
+      <c r="E379" t="s">
+        <v>27</v>
+      </c>
+      <c r="F379" t="s">
+        <v>28</v>
+      </c>
+      <c r="G379" t="s">
+        <v>29</v>
+      </c>
+      <c r="H379" t="s">
+        <v>30</v>
+      </c>
+      <c r="I379" t="s">
+        <v>31</v>
+      </c>
+      <c r="J379" t="s">
+        <v>692</v>
+      </c>
+      <c r="K379" t="s">
+        <v>35</v>
+      </c>
+      <c r="M379" t="s">
+        <v>35</v>
+      </c>
+      <c r="N379" t="s">
+        <v>683</v>
+      </c>
+      <c r="O379" t="s">
+        <v>35</v>
+      </c>
+      <c r="P379" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q379" t="s">
+        <v>35</v>
+      </c>
+      <c r="R379" t="s">
+        <v>45</v>
+      </c>
+      <c r="T379" t="s">
+        <v>45</v>
+      </c>
+      <c r="X379" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y379" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z379" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA379" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE379" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="380" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
+        <v>614</v>
+      </c>
+      <c r="B380" t="s">
+        <v>615</v>
+      </c>
+      <c r="C380" t="s">
+        <v>632</v>
+      </c>
+      <c r="E380" t="s">
+        <v>27</v>
+      </c>
+      <c r="F380" t="s">
+        <v>28</v>
+      </c>
+      <c r="G380" t="s">
+        <v>29</v>
+      </c>
+      <c r="H380" t="s">
+        <v>30</v>
+      </c>
+      <c r="I380" t="s">
+        <v>31</v>
+      </c>
+      <c r="J380" t="s">
+        <v>692</v>
+      </c>
+      <c r="K380" t="s">
+        <v>35</v>
+      </c>
+      <c r="M380" t="s">
+        <v>35</v>
+      </c>
+      <c r="N380" t="s">
+        <v>595</v>
+      </c>
+      <c r="O380" t="s">
+        <v>35</v>
+      </c>
+      <c r="P380" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q380" t="s">
+        <v>35</v>
+      </c>
+      <c r="R380" t="s">
+        <v>45</v>
+      </c>
+      <c r="T380" t="s">
+        <v>45</v>
+      </c>
+      <c r="X380" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y380" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z380" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA380" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE380" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG380" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="381" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
+        <v>614</v>
+      </c>
+      <c r="B381" t="s">
+        <v>615</v>
+      </c>
+      <c r="C381" t="s">
+        <v>633</v>
+      </c>
+      <c r="E381" t="s">
+        <v>27</v>
+      </c>
+      <c r="F381" t="s">
+        <v>28</v>
+      </c>
+      <c r="G381" t="s">
+        <v>29</v>
+      </c>
+      <c r="H381" t="s">
+        <v>30</v>
+      </c>
+      <c r="I381" t="s">
+        <v>31</v>
+      </c>
+      <c r="J381" t="s">
+        <v>694</v>
+      </c>
+      <c r="K381" t="s">
+        <v>35</v>
+      </c>
+      <c r="M381" t="s">
+        <v>35</v>
+      </c>
+      <c r="N381" t="s">
+        <v>535</v>
+      </c>
+      <c r="O381" t="s">
+        <v>35</v>
+      </c>
+      <c r="P381" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q381" t="s">
+        <v>35</v>
+      </c>
+      <c r="R381" t="s">
+        <v>45</v>
+      </c>
+      <c r="T381" t="s">
+        <v>45</v>
+      </c>
+      <c r="X381" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y381" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA381" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE381" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG381" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="382" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
+        <v>614</v>
+      </c>
+      <c r="B382" t="s">
+        <v>615</v>
+      </c>
+      <c r="C382" t="s">
+        <v>634</v>
+      </c>
+      <c r="E382" t="s">
+        <v>27</v>
+      </c>
+      <c r="F382" t="s">
+        <v>28</v>
+      </c>
+      <c r="G382" t="s">
+        <v>29</v>
+      </c>
+      <c r="H382" t="s">
+        <v>30</v>
+      </c>
+      <c r="I382" t="s">
+        <v>31</v>
+      </c>
+      <c r="J382" t="s">
+        <v>692</v>
+      </c>
+      <c r="K382" t="s">
+        <v>35</v>
+      </c>
+      <c r="M382" t="s">
+        <v>35</v>
+      </c>
+      <c r="N382" t="s">
+        <v>680</v>
+      </c>
+      <c r="O382" t="s">
+        <v>35</v>
+      </c>
+      <c r="P382" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q382" t="s">
+        <v>35</v>
+      </c>
+      <c r="R382" t="s">
+        <v>61</v>
+      </c>
+      <c r="T382" t="s">
+        <v>45</v>
+      </c>
+      <c r="X382" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y382" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA382" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE382" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG382" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="383" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
+        <v>614</v>
+      </c>
+      <c r="B383" t="s">
+        <v>615</v>
+      </c>
+      <c r="C383" t="s">
+        <v>635</v>
+      </c>
+      <c r="E383" t="s">
+        <v>27</v>
+      </c>
+      <c r="F383" t="s">
+        <v>28</v>
+      </c>
+      <c r="G383" t="s">
+        <v>29</v>
+      </c>
+      <c r="H383" t="s">
+        <v>30</v>
+      </c>
+      <c r="I383" t="s">
+        <v>31</v>
+      </c>
+      <c r="J383" t="s">
+        <v>692</v>
+      </c>
+      <c r="K383" t="s">
+        <v>35</v>
+      </c>
+      <c r="M383" t="s">
+        <v>35</v>
+      </c>
+      <c r="N383" t="s">
+        <v>531</v>
+      </c>
+      <c r="O383" t="s">
+        <v>35</v>
+      </c>
+      <c r="P383" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q383" t="s">
+        <v>35</v>
+      </c>
+      <c r="R383" t="s">
+        <v>61</v>
+      </c>
+      <c r="T383" t="s">
+        <v>45</v>
+      </c>
+      <c r="X383" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y383" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE383" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG383" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="384" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
+        <v>614</v>
+      </c>
+      <c r="B384" t="s">
+        <v>615</v>
+      </c>
+      <c r="C384" t="s">
+        <v>636</v>
+      </c>
+      <c r="E384" t="s">
+        <v>27</v>
+      </c>
+      <c r="F384" t="s">
+        <v>28</v>
+      </c>
+      <c r="G384" t="s">
+        <v>29</v>
+      </c>
+      <c r="H384" t="s">
+        <v>30</v>
+      </c>
+      <c r="I384" t="s">
+        <v>31</v>
+      </c>
+      <c r="J384" t="s">
+        <v>692</v>
+      </c>
+      <c r="K384" t="s">
+        <v>35</v>
+      </c>
+      <c r="M384" t="s">
+        <v>35</v>
+      </c>
+      <c r="N384" t="s">
+        <v>676</v>
+      </c>
+      <c r="O384" t="s">
+        <v>35</v>
+      </c>
+      <c r="P384" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q384" t="s">
+        <v>35</v>
+      </c>
+      <c r="R384" t="s">
+        <v>61</v>
+      </c>
+      <c r="T384" t="s">
+        <v>45</v>
+      </c>
+      <c r="X384" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y384" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z384" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE384" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG384" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="385" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>614</v>
+      </c>
+      <c r="B385" t="s">
+        <v>615</v>
+      </c>
+      <c r="C385" t="s">
+        <v>637</v>
+      </c>
+      <c r="E385" t="s">
+        <v>27</v>
+      </c>
+      <c r="F385" t="s">
+        <v>28</v>
+      </c>
+      <c r="G385" t="s">
+        <v>29</v>
+      </c>
+      <c r="H385" t="s">
+        <v>30</v>
+      </c>
+      <c r="I385" t="s">
+        <v>31</v>
+      </c>
+      <c r="J385" t="s">
+        <v>692</v>
+      </c>
+      <c r="K385" t="s">
+        <v>35</v>
+      </c>
+      <c r="M385" t="s">
+        <v>35</v>
+      </c>
+      <c r="N385" t="s">
+        <v>56</v>
+      </c>
+      <c r="O385" t="s">
+        <v>35</v>
+      </c>
+      <c r="P385" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q385" t="s">
+        <v>35</v>
+      </c>
+      <c r="R385" t="s">
+        <v>61</v>
+      </c>
+      <c r="T385" t="s">
+        <v>61</v>
+      </c>
+      <c r="X385" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y385" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z385" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA385" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE385" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG385" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="386" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
+        <v>614</v>
+      </c>
+      <c r="B386" t="s">
+        <v>615</v>
+      </c>
+      <c r="C386" t="s">
+        <v>638</v>
+      </c>
+      <c r="E386" t="s">
+        <v>27</v>
+      </c>
+      <c r="F386" t="s">
+        <v>28</v>
+      </c>
+      <c r="G386" t="s">
+        <v>29</v>
+      </c>
+      <c r="H386" t="s">
+        <v>30</v>
+      </c>
+      <c r="I386" t="s">
+        <v>31</v>
+      </c>
+      <c r="J386" t="s">
+        <v>692</v>
+      </c>
+      <c r="K386" t="s">
+        <v>35</v>
+      </c>
+      <c r="M386" t="s">
+        <v>35</v>
+      </c>
+      <c r="N386" t="s">
+        <v>532</v>
+      </c>
+      <c r="O386" t="s">
+        <v>35</v>
+      </c>
+      <c r="P386" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q386" t="s">
+        <v>35</v>
+      </c>
+      <c r="R386" t="s">
+        <v>45</v>
+      </c>
+      <c r="T386" t="s">
+        <v>61</v>
+      </c>
+      <c r="X386" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y386" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z386" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA386" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE386" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG386" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="387" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
+        <v>614</v>
+      </c>
+      <c r="B387" t="s">
+        <v>615</v>
+      </c>
+      <c r="C387" t="s">
+        <v>639</v>
+      </c>
+      <c r="E387" t="s">
+        <v>27</v>
+      </c>
+      <c r="F387" t="s">
+        <v>28</v>
+      </c>
+      <c r="G387" t="s">
+        <v>29</v>
+      </c>
+      <c r="H387" t="s">
+        <v>30</v>
+      </c>
+      <c r="I387" t="s">
+        <v>31</v>
+      </c>
+      <c r="J387" t="s">
+        <v>692</v>
+      </c>
+      <c r="K387" t="s">
+        <v>35</v>
+      </c>
+      <c r="M387" t="s">
+        <v>35</v>
+      </c>
+      <c r="N387" t="s">
+        <v>60</v>
+      </c>
+      <c r="O387" t="s">
+        <v>35</v>
+      </c>
+      <c r="P387" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q387" t="s">
+        <v>35</v>
+      </c>
+      <c r="R387" t="s">
+        <v>45</v>
+      </c>
+      <c r="T387" t="s">
+        <v>45</v>
+      </c>
+      <c r="X387" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y387" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA387" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE387" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG387" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="388" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
+        <v>614</v>
+      </c>
+      <c r="B388" t="s">
+        <v>615</v>
+      </c>
+      <c r="C388" t="s">
+        <v>640</v>
+      </c>
+      <c r="E388" t="s">
+        <v>27</v>
+      </c>
+      <c r="F388" t="s">
+        <v>28</v>
+      </c>
+      <c r="G388" t="s">
+        <v>29</v>
+      </c>
+      <c r="H388" t="s">
+        <v>30</v>
+      </c>
+      <c r="I388" t="s">
+        <v>31</v>
+      </c>
+      <c r="J388" t="s">
+        <v>693</v>
+      </c>
+      <c r="K388" t="s">
+        <v>35</v>
+      </c>
+      <c r="M388" t="s">
+        <v>35</v>
+      </c>
+      <c r="N388" t="s">
+        <v>675</v>
+      </c>
+      <c r="O388" t="s">
+        <v>35</v>
+      </c>
+      <c r="P388" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q388" t="s">
+        <v>35</v>
+      </c>
+      <c r="R388" t="s">
+        <v>61</v>
+      </c>
+      <c r="T388" t="s">
+        <v>45</v>
+      </c>
+      <c r="X388" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y388" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA388" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE388" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG388" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="389" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A389" t="s">
+        <v>614</v>
+      </c>
+      <c r="B389" t="s">
+        <v>615</v>
+      </c>
+      <c r="C389" t="s">
+        <v>641</v>
+      </c>
+      <c r="E389" t="s">
+        <v>27</v>
+      </c>
+      <c r="F389" t="s">
+        <v>28</v>
+      </c>
+      <c r="G389" t="s">
+        <v>29</v>
+      </c>
+      <c r="H389" t="s">
+        <v>30</v>
+      </c>
+      <c r="I389" t="s">
+        <v>31</v>
+      </c>
+      <c r="J389" t="s">
+        <v>692</v>
+      </c>
+      <c r="K389" t="s">
+        <v>35</v>
+      </c>
+      <c r="M389" t="s">
+        <v>35</v>
+      </c>
+      <c r="N389" t="s">
+        <v>684</v>
+      </c>
+      <c r="O389" t="s">
+        <v>35</v>
+      </c>
+      <c r="P389" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q389" t="s">
+        <v>35</v>
+      </c>
+      <c r="R389" t="s">
+        <v>61</v>
+      </c>
+      <c r="T389" t="s">
+        <v>61</v>
+      </c>
+      <c r="X389" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y389" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA389" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG389" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="390" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
+        <v>614</v>
+      </c>
+      <c r="B390" t="s">
+        <v>615</v>
+      </c>
+      <c r="C390" t="s">
+        <v>642</v>
+      </c>
+      <c r="E390" t="s">
+        <v>27</v>
+      </c>
+      <c r="F390" t="s">
+        <v>28</v>
+      </c>
+      <c r="G390" t="s">
+        <v>29</v>
+      </c>
+      <c r="H390" t="s">
+        <v>30</v>
+      </c>
+      <c r="I390" t="s">
+        <v>31</v>
+      </c>
+      <c r="J390" t="s">
+        <v>692</v>
+      </c>
+      <c r="K390" t="s">
+        <v>35</v>
+      </c>
+      <c r="M390" t="s">
+        <v>35</v>
+      </c>
+      <c r="N390" t="s">
+        <v>60</v>
+      </c>
+      <c r="O390" t="s">
+        <v>35</v>
+      </c>
+      <c r="P390" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q390" t="s">
+        <v>35</v>
+      </c>
+      <c r="R390" t="s">
+        <v>61</v>
+      </c>
+      <c r="T390" t="s">
+        <v>45</v>
+      </c>
+      <c r="X390" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y390" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA390" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE390" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG390" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="391" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
+        <v>614</v>
+      </c>
+      <c r="B391" t="s">
+        <v>615</v>
+      </c>
+      <c r="C391" t="s">
+        <v>643</v>
+      </c>
+      <c r="E391" t="s">
+        <v>27</v>
+      </c>
+      <c r="F391" t="s">
+        <v>28</v>
+      </c>
+      <c r="G391" t="s">
+        <v>29</v>
+      </c>
+      <c r="H391" t="s">
+        <v>30</v>
+      </c>
+      <c r="I391" t="s">
+        <v>31</v>
+      </c>
+      <c r="J391" t="s">
+        <v>693</v>
+      </c>
+      <c r="K391" t="s">
+        <v>35</v>
+      </c>
+      <c r="M391" t="s">
+        <v>35</v>
+      </c>
+      <c r="N391" t="s">
+        <v>274</v>
+      </c>
+      <c r="O391" t="s">
+        <v>35</v>
+      </c>
+      <c r="P391" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q391" t="s">
+        <v>35</v>
+      </c>
+      <c r="R391" t="s">
+        <v>45</v>
+      </c>
+      <c r="T391" t="s">
+        <v>45</v>
+      </c>
+      <c r="X391" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y391" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA391" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE391" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG391" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="392" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>614</v>
+      </c>
+      <c r="B392" t="s">
+        <v>615</v>
+      </c>
+      <c r="C392" t="s">
+        <v>644</v>
+      </c>
+      <c r="E392" t="s">
+        <v>27</v>
+      </c>
+      <c r="F392" t="s">
+        <v>28</v>
+      </c>
+      <c r="G392" t="s">
+        <v>29</v>
+      </c>
+      <c r="H392" t="s">
+        <v>30</v>
+      </c>
+      <c r="I392" t="s">
+        <v>31</v>
+      </c>
+      <c r="J392" t="s">
+        <v>692</v>
+      </c>
+      <c r="K392" t="s">
+        <v>35</v>
+      </c>
+      <c r="M392" t="s">
+        <v>35</v>
+      </c>
+      <c r="N392" t="s">
+        <v>597</v>
+      </c>
+      <c r="O392" t="s">
+        <v>35</v>
+      </c>
+      <c r="P392" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q392" t="s">
+        <v>35</v>
+      </c>
+      <c r="R392" t="s">
+        <v>61</v>
+      </c>
+      <c r="T392" t="s">
+        <v>61</v>
+      </c>
+      <c r="X392" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y392" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA392" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE392" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="393" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
+        <v>614</v>
+      </c>
+      <c r="B393" t="s">
+        <v>615</v>
+      </c>
+      <c r="C393" t="s">
+        <v>645</v>
+      </c>
+      <c r="E393" t="s">
+        <v>27</v>
+      </c>
+      <c r="F393" t="s">
+        <v>28</v>
+      </c>
+      <c r="G393" t="s">
+        <v>29</v>
+      </c>
+      <c r="H393" t="s">
+        <v>30</v>
+      </c>
+      <c r="I393" t="s">
+        <v>31</v>
+      </c>
+      <c r="J393" t="s">
+        <v>691</v>
+      </c>
+      <c r="K393" t="s">
+        <v>35</v>
+      </c>
+      <c r="M393" t="s">
+        <v>35</v>
+      </c>
+      <c r="N393" t="s">
+        <v>681</v>
+      </c>
+      <c r="O393" t="s">
+        <v>35</v>
+      </c>
+      <c r="P393" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q393" t="s">
+        <v>35</v>
+      </c>
+      <c r="R393" t="s">
+        <v>61</v>
+      </c>
+      <c r="T393" t="s">
+        <v>45</v>
+      </c>
+      <c r="X393" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y393" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z393" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="394" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
+        <v>614</v>
+      </c>
+      <c r="B394" t="s">
+        <v>615</v>
+      </c>
+      <c r="C394" t="s">
+        <v>646</v>
+      </c>
+      <c r="E394" t="s">
+        <v>27</v>
+      </c>
+      <c r="F394" t="s">
+        <v>28</v>
+      </c>
+      <c r="G394" t="s">
+        <v>29</v>
+      </c>
+      <c r="H394" t="s">
+        <v>30</v>
+      </c>
+      <c r="I394" t="s">
+        <v>31</v>
+      </c>
+      <c r="J394" t="s">
+        <v>694</v>
+      </c>
+      <c r="K394" t="s">
+        <v>35</v>
+      </c>
+      <c r="M394" t="s">
+        <v>35</v>
+      </c>
+      <c r="N394" t="s">
+        <v>677</v>
+      </c>
+      <c r="O394" t="s">
+        <v>35</v>
+      </c>
+      <c r="P394" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q394" t="s">
+        <v>35</v>
+      </c>
+      <c r="R394" t="s">
+        <v>45</v>
+      </c>
+      <c r="T394" t="s">
+        <v>45</v>
+      </c>
+      <c r="X394" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y394" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE394" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG394" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="395" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
+        <v>614</v>
+      </c>
+      <c r="B395" t="s">
+        <v>615</v>
+      </c>
+      <c r="C395" t="s">
+        <v>647</v>
+      </c>
+      <c r="E395" t="s">
+        <v>27</v>
+      </c>
+      <c r="F395" t="s">
+        <v>28</v>
+      </c>
+      <c r="G395" t="s">
+        <v>29</v>
+      </c>
+      <c r="H395" t="s">
+        <v>30</v>
+      </c>
+      <c r="I395" t="s">
+        <v>31</v>
+      </c>
+      <c r="J395" t="s">
+        <v>692</v>
+      </c>
+      <c r="K395" t="s">
+        <v>35</v>
+      </c>
+      <c r="M395" t="s">
+        <v>35</v>
+      </c>
+      <c r="N395" t="s">
+        <v>535</v>
+      </c>
+      <c r="O395" t="s">
+        <v>35</v>
+      </c>
+      <c r="P395" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q395" t="s">
+        <v>35</v>
+      </c>
+      <c r="R395" t="s">
+        <v>61</v>
+      </c>
+      <c r="T395" t="s">
+        <v>61</v>
+      </c>
+      <c r="X395" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y395" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA395" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG395" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="396" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
+        <v>614</v>
+      </c>
+      <c r="B396" t="s">
+        <v>615</v>
+      </c>
+      <c r="C396" t="s">
+        <v>648</v>
+      </c>
+      <c r="E396" t="s">
+        <v>27</v>
+      </c>
+      <c r="F396" t="s">
+        <v>28</v>
+      </c>
+      <c r="G396" t="s">
+        <v>29</v>
+      </c>
+      <c r="H396" t="s">
+        <v>30</v>
+      </c>
+      <c r="I396" t="s">
+        <v>31</v>
+      </c>
+      <c r="J396" t="s">
+        <v>692</v>
+      </c>
+      <c r="K396" t="s">
+        <v>35</v>
+      </c>
+      <c r="M396" t="s">
+        <v>35</v>
+      </c>
+      <c r="N396" t="s">
+        <v>674</v>
+      </c>
+      <c r="O396" t="s">
+        <v>35</v>
+      </c>
+      <c r="P396" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q396" t="s">
+        <v>35</v>
+      </c>
+      <c r="R396" t="s">
+        <v>45</v>
+      </c>
+      <c r="T396" t="s">
+        <v>61</v>
+      </c>
+      <c r="X396" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y396" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE396" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG396" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="397" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
+        <v>614</v>
+      </c>
+      <c r="B397" t="s">
+        <v>615</v>
+      </c>
+      <c r="C397" t="s">
+        <v>649</v>
+      </c>
+      <c r="E397" t="s">
+        <v>27</v>
+      </c>
+      <c r="F397" t="s">
+        <v>28</v>
+      </c>
+      <c r="G397" t="s">
+        <v>29</v>
+      </c>
+      <c r="H397" t="s">
+        <v>30</v>
+      </c>
+      <c r="I397" t="s">
+        <v>31</v>
+      </c>
+      <c r="J397" t="s">
+        <v>692</v>
+      </c>
+      <c r="K397" t="s">
+        <v>35</v>
+      </c>
+      <c r="M397" t="s">
+        <v>35</v>
+      </c>
+      <c r="N397" t="s">
+        <v>535</v>
+      </c>
+      <c r="O397" t="s">
+        <v>35</v>
+      </c>
+      <c r="P397" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q397" t="s">
+        <v>35</v>
+      </c>
+      <c r="R397" t="s">
+        <v>61</v>
+      </c>
+      <c r="T397" t="s">
+        <v>61</v>
+      </c>
+      <c r="X397" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y397" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA397" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE397" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG397" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="398" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A398" t="s">
+        <v>614</v>
+      </c>
+      <c r="B398" t="s">
+        <v>615</v>
+      </c>
+      <c r="C398" t="s">
+        <v>650</v>
+      </c>
+      <c r="E398" t="s">
+        <v>27</v>
+      </c>
+      <c r="F398" t="s">
+        <v>28</v>
+      </c>
+      <c r="G398" t="s">
+        <v>29</v>
+      </c>
+      <c r="H398" t="s">
+        <v>30</v>
+      </c>
+      <c r="I398" t="s">
+        <v>31</v>
+      </c>
+      <c r="J398" t="s">
+        <v>692</v>
+      </c>
+      <c r="K398" t="s">
+        <v>35</v>
+      </c>
+      <c r="M398" t="s">
+        <v>35</v>
+      </c>
+      <c r="N398" t="s">
+        <v>276</v>
+      </c>
+      <c r="O398" t="s">
+        <v>35</v>
+      </c>
+      <c r="P398" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q398" t="s">
+        <v>35</v>
+      </c>
+      <c r="R398" t="s">
+        <v>61</v>
+      </c>
+      <c r="T398" t="s">
+        <v>61</v>
+      </c>
+      <c r="X398" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y398" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE398" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG398" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="399" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
+        <v>614</v>
+      </c>
+      <c r="B399" t="s">
+        <v>615</v>
+      </c>
+      <c r="C399" t="s">
+        <v>651</v>
+      </c>
+      <c r="E399" t="s">
+        <v>27</v>
+      </c>
+      <c r="F399" t="s">
+        <v>28</v>
+      </c>
+      <c r="G399" t="s">
+        <v>29</v>
+      </c>
+      <c r="H399" t="s">
+        <v>30</v>
+      </c>
+      <c r="I399" t="s">
+        <v>31</v>
+      </c>
+      <c r="J399" t="s">
+        <v>692</v>
+      </c>
+      <c r="K399" t="s">
+        <v>35</v>
+      </c>
+      <c r="M399" t="s">
+        <v>35</v>
+      </c>
+      <c r="N399" t="s">
+        <v>56</v>
+      </c>
+      <c r="O399" t="s">
+        <v>35</v>
+      </c>
+      <c r="P399" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q399" t="s">
+        <v>35</v>
+      </c>
+      <c r="R399" t="s">
+        <v>61</v>
+      </c>
+      <c r="T399" t="s">
+        <v>61</v>
+      </c>
+      <c r="X399" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y399" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z399" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA399" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE399" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="400" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
+        <v>614</v>
+      </c>
+      <c r="B400" t="s">
+        <v>615</v>
+      </c>
+      <c r="C400" t="s">
+        <v>652</v>
+      </c>
+      <c r="E400" t="s">
+        <v>27</v>
+      </c>
+      <c r="F400" t="s">
+        <v>28</v>
+      </c>
+      <c r="G400" t="s">
+        <v>29</v>
+      </c>
+      <c r="H400" t="s">
+        <v>30</v>
+      </c>
+      <c r="I400" t="s">
+        <v>31</v>
+      </c>
+      <c r="J400" t="s">
+        <v>692</v>
+      </c>
+      <c r="K400" t="s">
+        <v>35</v>
+      </c>
+      <c r="M400" t="s">
+        <v>35</v>
+      </c>
+      <c r="N400" t="s">
+        <v>276</v>
+      </c>
+      <c r="O400" t="s">
+        <v>35</v>
+      </c>
+      <c r="P400" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q400" t="s">
+        <v>35</v>
+      </c>
+      <c r="T400" t="s">
+        <v>61</v>
+      </c>
+      <c r="X400" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y400" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA400" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE400" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG400" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="401" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
+        <v>614</v>
+      </c>
+      <c r="B401" t="s">
+        <v>615</v>
+      </c>
+      <c r="C401" t="s">
+        <v>653</v>
+      </c>
+      <c r="E401" t="s">
+        <v>27</v>
+      </c>
+      <c r="F401" t="s">
+        <v>28</v>
+      </c>
+      <c r="G401" t="s">
+        <v>29</v>
+      </c>
+      <c r="H401" t="s">
+        <v>30</v>
+      </c>
+      <c r="I401" t="s">
+        <v>31</v>
+      </c>
+      <c r="J401" t="s">
+        <v>694</v>
+      </c>
+      <c r="K401" t="s">
+        <v>35</v>
+      </c>
+      <c r="M401" t="s">
+        <v>35</v>
+      </c>
+      <c r="N401" t="s">
+        <v>276</v>
+      </c>
+      <c r="O401" t="s">
+        <v>35</v>
+      </c>
+      <c r="P401" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q401" t="s">
+        <v>35</v>
+      </c>
+      <c r="T401" t="s">
+        <v>61</v>
+      </c>
+      <c r="X401" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y401" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA401" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE401" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG401" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="402" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
+        <v>614</v>
+      </c>
+      <c r="B402" t="s">
+        <v>615</v>
+      </c>
+      <c r="C402" t="s">
+        <v>654</v>
+      </c>
+      <c r="E402" t="s">
+        <v>27</v>
+      </c>
+      <c r="F402" t="s">
+        <v>28</v>
+      </c>
+      <c r="G402" t="s">
+        <v>29</v>
+      </c>
+      <c r="H402" t="s">
+        <v>30</v>
+      </c>
+      <c r="I402" t="s">
+        <v>31</v>
+      </c>
+      <c r="J402" t="s">
+        <v>692</v>
+      </c>
+      <c r="K402" t="s">
+        <v>35</v>
+      </c>
+      <c r="M402" t="s">
+        <v>35</v>
+      </c>
+      <c r="N402" t="s">
+        <v>76</v>
+      </c>
+      <c r="O402" t="s">
+        <v>35</v>
+      </c>
+      <c r="P402" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q402" t="s">
+        <v>35</v>
+      </c>
+      <c r="T402" t="s">
+        <v>61</v>
+      </c>
+      <c r="X402" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y402" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA402" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE402" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG402" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="403" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
+        <v>614</v>
+      </c>
+      <c r="B403" t="s">
+        <v>615</v>
+      </c>
+      <c r="C403" t="s">
+        <v>655</v>
+      </c>
+      <c r="E403" t="s">
+        <v>27</v>
+      </c>
+      <c r="F403" t="s">
+        <v>28</v>
+      </c>
+      <c r="G403" t="s">
+        <v>29</v>
+      </c>
+      <c r="H403" t="s">
+        <v>30</v>
+      </c>
+      <c r="I403" t="s">
+        <v>31</v>
+      </c>
+      <c r="J403" t="s">
+        <v>692</v>
+      </c>
+      <c r="K403" t="s">
+        <v>35</v>
+      </c>
+      <c r="M403" t="s">
+        <v>35</v>
+      </c>
+      <c r="N403" t="s">
+        <v>597</v>
+      </c>
+      <c r="O403" t="s">
+        <v>35</v>
+      </c>
+      <c r="P403" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q403" t="s">
+        <v>35</v>
+      </c>
+      <c r="R403" t="s">
+        <v>61</v>
+      </c>
+      <c r="T403" t="s">
+        <v>61</v>
+      </c>
+      <c r="X403" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y403" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z403" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA403" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE403" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG403" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="404" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
+        <v>614</v>
+      </c>
+      <c r="B404" t="s">
+        <v>615</v>
+      </c>
+      <c r="C404" t="s">
+        <v>656</v>
+      </c>
+      <c r="E404" t="s">
+        <v>27</v>
+      </c>
+      <c r="F404" t="s">
+        <v>28</v>
+      </c>
+      <c r="G404" t="s">
+        <v>29</v>
+      </c>
+      <c r="H404" t="s">
+        <v>30</v>
+      </c>
+      <c r="I404" t="s">
+        <v>31</v>
+      </c>
+      <c r="J404" t="s">
+        <v>692</v>
+      </c>
+      <c r="K404" t="s">
+        <v>35</v>
+      </c>
+      <c r="M404" t="s">
+        <v>35</v>
+      </c>
+      <c r="N404" t="s">
+        <v>56</v>
+      </c>
+      <c r="O404" t="s">
+        <v>35</v>
+      </c>
+      <c r="P404" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q404" t="s">
+        <v>35</v>
+      </c>
+      <c r="R404" t="s">
+        <v>61</v>
+      </c>
+      <c r="T404" t="s">
+        <v>61</v>
+      </c>
+      <c r="X404" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y404" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z404" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE404" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="405" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A405" t="s">
+        <v>614</v>
+      </c>
+      <c r="B405" t="s">
+        <v>615</v>
+      </c>
+      <c r="C405" t="s">
+        <v>657</v>
+      </c>
+      <c r="E405" t="s">
+        <v>27</v>
+      </c>
+      <c r="F405" t="s">
+        <v>28</v>
+      </c>
+      <c r="G405" t="s">
+        <v>29</v>
+      </c>
+      <c r="H405" t="s">
+        <v>30</v>
+      </c>
+      <c r="I405" t="s">
+        <v>31</v>
+      </c>
+      <c r="J405" t="s">
+        <v>692</v>
+      </c>
+      <c r="K405" t="s">
+        <v>35</v>
+      </c>
+      <c r="M405" t="s">
+        <v>35</v>
+      </c>
+      <c r="N405" t="s">
+        <v>598</v>
+      </c>
+      <c r="O405" t="s">
+        <v>35</v>
+      </c>
+      <c r="P405" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q405" t="s">
+        <v>35</v>
+      </c>
+      <c r="T405" t="s">
+        <v>45</v>
+      </c>
+      <c r="X405" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y405" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA405" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE405" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG405" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="406" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A406" t="s">
+        <v>614</v>
+      </c>
+      <c r="B406" t="s">
+        <v>615</v>
+      </c>
+      <c r="C406" t="s">
+        <v>658</v>
+      </c>
+      <c r="E406" t="s">
+        <v>27</v>
+      </c>
+      <c r="F406" t="s">
+        <v>28</v>
+      </c>
+      <c r="G406" t="s">
+        <v>29</v>
+      </c>
+      <c r="H406" t="s">
+        <v>30</v>
+      </c>
+      <c r="I406" t="s">
+        <v>31</v>
+      </c>
+      <c r="J406" t="s">
+        <v>692</v>
+      </c>
+      <c r="K406" t="s">
+        <v>35</v>
+      </c>
+      <c r="M406" t="s">
+        <v>35</v>
+      </c>
+      <c r="N406" t="s">
+        <v>610</v>
+      </c>
+      <c r="O406" t="s">
+        <v>35</v>
+      </c>
+      <c r="P406" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q406" t="s">
+        <v>35</v>
+      </c>
+      <c r="T406" t="s">
+        <v>45</v>
+      </c>
+      <c r="X406" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y406" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA406" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE406" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG406" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="407" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A407" t="s">
+        <v>614</v>
+      </c>
+      <c r="B407" t="s">
+        <v>615</v>
+      </c>
+      <c r="C407" t="s">
+        <v>659</v>
+      </c>
+      <c r="E407" t="s">
+        <v>27</v>
+      </c>
+      <c r="F407" t="s">
+        <v>28</v>
+      </c>
+      <c r="G407" t="s">
+        <v>29</v>
+      </c>
+      <c r="H407" t="s">
+        <v>30</v>
+      </c>
+      <c r="I407" t="s">
+        <v>31</v>
+      </c>
+      <c r="J407" t="s">
+        <v>692</v>
+      </c>
+      <c r="K407" t="s">
+        <v>35</v>
+      </c>
+      <c r="M407" t="s">
+        <v>35</v>
+      </c>
+      <c r="N407" t="s">
+        <v>532</v>
+      </c>
+      <c r="O407" t="s">
+        <v>35</v>
+      </c>
+      <c r="P407" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q407" t="s">
+        <v>35</v>
+      </c>
+      <c r="T407" t="s">
+        <v>61</v>
+      </c>
+      <c r="X407" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y407" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA407" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE407" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG407" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="408" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A408" t="s">
+        <v>614</v>
+      </c>
+      <c r="B408" t="s">
+        <v>615</v>
+      </c>
+      <c r="C408" t="s">
+        <v>660</v>
+      </c>
+      <c r="E408" t="s">
+        <v>27</v>
+      </c>
+      <c r="F408" t="s">
+        <v>28</v>
+      </c>
+      <c r="G408" t="s">
+        <v>29</v>
+      </c>
+      <c r="H408" t="s">
+        <v>30</v>
+      </c>
+      <c r="I408" t="s">
+        <v>31</v>
+      </c>
+      <c r="J408" t="s">
+        <v>692</v>
+      </c>
+      <c r="K408" t="s">
+        <v>35</v>
+      </c>
+      <c r="M408" t="s">
+        <v>35</v>
+      </c>
+      <c r="N408" t="s">
+        <v>602</v>
+      </c>
+      <c r="O408" t="s">
+        <v>35</v>
+      </c>
+      <c r="P408" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q408" t="s">
+        <v>35</v>
+      </c>
+      <c r="T408" t="s">
+        <v>45</v>
+      </c>
+      <c r="X408" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y408" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA408" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE408" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG408" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="409" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A409" t="s">
+        <v>614</v>
+      </c>
+      <c r="B409" t="s">
+        <v>615</v>
+      </c>
+      <c r="C409" t="s">
+        <v>661</v>
+      </c>
+      <c r="E409" t="s">
+        <v>27</v>
+      </c>
+      <c r="F409" t="s">
+        <v>28</v>
+      </c>
+      <c r="G409" t="s">
+        <v>29</v>
+      </c>
+      <c r="H409" t="s">
+        <v>30</v>
+      </c>
+      <c r="I409" t="s">
+        <v>31</v>
+      </c>
+      <c r="J409" t="s">
+        <v>692</v>
+      </c>
+      <c r="K409" t="s">
+        <v>35</v>
+      </c>
+      <c r="M409" t="s">
+        <v>35</v>
+      </c>
+      <c r="N409" t="s">
+        <v>685</v>
+      </c>
+      <c r="O409" t="s">
+        <v>35</v>
+      </c>
+      <c r="P409" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q409" t="s">
+        <v>35</v>
+      </c>
+      <c r="T409" t="s">
+        <v>45</v>
+      </c>
+      <c r="X409" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y409" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA409" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE409" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG409" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="410" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A410" t="s">
+        <v>614</v>
+      </c>
+      <c r="B410" t="s">
+        <v>615</v>
+      </c>
+      <c r="C410" t="s">
+        <v>662</v>
+      </c>
+      <c r="E410" t="s">
+        <v>27</v>
+      </c>
+      <c r="F410" t="s">
+        <v>28</v>
+      </c>
+      <c r="G410" t="s">
+        <v>29</v>
+      </c>
+      <c r="H410" t="s">
+        <v>30</v>
+      </c>
+      <c r="I410" t="s">
+        <v>31</v>
+      </c>
+      <c r="J410" t="s">
+        <v>692</v>
+      </c>
+      <c r="K410" t="s">
+        <v>35</v>
+      </c>
+      <c r="M410" t="s">
+        <v>35</v>
+      </c>
+      <c r="N410" t="s">
+        <v>35</v>
+      </c>
+      <c r="O410" t="s">
+        <v>35</v>
+      </c>
+      <c r="P410" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q410" t="s">
+        <v>35</v>
+      </c>
+      <c r="T410" t="s">
+        <v>45</v>
+      </c>
+      <c r="X410" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y410" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA410" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE410" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG410" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="411" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A411" t="s">
+        <v>614</v>
+      </c>
+      <c r="B411" t="s">
+        <v>615</v>
+      </c>
+      <c r="C411" t="s">
+        <v>663</v>
+      </c>
+      <c r="E411" t="s">
+        <v>27</v>
+      </c>
+      <c r="F411" t="s">
+        <v>28</v>
+      </c>
+      <c r="G411" t="s">
+        <v>29</v>
+      </c>
+      <c r="H411" t="s">
+        <v>30</v>
+      </c>
+      <c r="I411" t="s">
+        <v>31</v>
+      </c>
+      <c r="J411" t="s">
+        <v>692</v>
+      </c>
+      <c r="K411" t="s">
+        <v>35</v>
+      </c>
+      <c r="M411" t="s">
+        <v>35</v>
+      </c>
+      <c r="N411" t="s">
+        <v>608</v>
+      </c>
+      <c r="O411" t="s">
+        <v>35</v>
+      </c>
+      <c r="P411" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q411" t="s">
+        <v>35</v>
+      </c>
+      <c r="T411" t="s">
+        <v>45</v>
+      </c>
+      <c r="X411" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y411" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA411" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE411" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG411" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="412" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A412" t="s">
+        <v>614</v>
+      </c>
+      <c r="B412" t="s">
+        <v>615</v>
+      </c>
+      <c r="C412" t="s">
+        <v>664</v>
+      </c>
+      <c r="E412" t="s">
+        <v>27</v>
+      </c>
+      <c r="F412" t="s">
+        <v>28</v>
+      </c>
+      <c r="G412" t="s">
+        <v>29</v>
+      </c>
+      <c r="H412" t="s">
+        <v>30</v>
+      </c>
+      <c r="I412" t="s">
+        <v>31</v>
+      </c>
+      <c r="J412" t="s">
+        <v>692</v>
+      </c>
+      <c r="K412" t="s">
+        <v>35</v>
+      </c>
+      <c r="M412" t="s">
+        <v>35</v>
+      </c>
+      <c r="N412" t="s">
+        <v>686</v>
+      </c>
+      <c r="O412" t="s">
+        <v>35</v>
+      </c>
+      <c r="P412" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q412" t="s">
+        <v>35</v>
+      </c>
+      <c r="T412" t="s">
+        <v>45</v>
+      </c>
+      <c r="X412" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y412" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA412" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE412" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG412" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="413" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A413" t="s">
+        <v>614</v>
+      </c>
+      <c r="B413" t="s">
+        <v>615</v>
+      </c>
+      <c r="C413" t="s">
+        <v>665</v>
+      </c>
+      <c r="E413" t="s">
+        <v>27</v>
+      </c>
+      <c r="F413" t="s">
+        <v>28</v>
+      </c>
+      <c r="G413" t="s">
+        <v>29</v>
+      </c>
+      <c r="H413" t="s">
+        <v>30</v>
+      </c>
+      <c r="I413" t="s">
+        <v>31</v>
+      </c>
+      <c r="J413" t="s">
+        <v>692</v>
+      </c>
+      <c r="K413" t="s">
+        <v>35</v>
+      </c>
+      <c r="M413" t="s">
+        <v>35</v>
+      </c>
+      <c r="N413" t="s">
+        <v>687</v>
+      </c>
+      <c r="O413" t="s">
+        <v>35</v>
+      </c>
+      <c r="P413" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q413" t="s">
+        <v>35</v>
+      </c>
+      <c r="T413" t="s">
+        <v>45</v>
+      </c>
+      <c r="X413" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y413" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA413" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE413" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG413" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="414" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A414" t="s">
+        <v>614</v>
+      </c>
+      <c r="B414" t="s">
+        <v>615</v>
+      </c>
+      <c r="C414" t="s">
+        <v>666</v>
+      </c>
+      <c r="E414" t="s">
+        <v>27</v>
+      </c>
+      <c r="F414" t="s">
+        <v>28</v>
+      </c>
+      <c r="G414" t="s">
+        <v>29</v>
+      </c>
+      <c r="H414" t="s">
+        <v>30</v>
+      </c>
+      <c r="I414" t="s">
+        <v>31</v>
+      </c>
+      <c r="J414" t="s">
+        <v>692</v>
+      </c>
+      <c r="K414" t="s">
+        <v>35</v>
+      </c>
+      <c r="M414" t="s">
+        <v>35</v>
+      </c>
+      <c r="N414" t="s">
+        <v>528</v>
+      </c>
+      <c r="O414" t="s">
+        <v>35</v>
+      </c>
+      <c r="P414" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q414" t="s">
+        <v>35</v>
+      </c>
+      <c r="T414" t="s">
+        <v>45</v>
+      </c>
+      <c r="X414" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y414" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA414" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE414" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG414" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="415" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
+        <v>614</v>
+      </c>
+      <c r="B415" t="s">
+        <v>615</v>
+      </c>
+      <c r="C415" t="s">
+        <v>667</v>
+      </c>
+      <c r="E415" t="s">
+        <v>27</v>
+      </c>
+      <c r="F415" t="s">
+        <v>28</v>
+      </c>
+      <c r="G415" t="s">
+        <v>29</v>
+      </c>
+      <c r="H415" t="s">
+        <v>30</v>
+      </c>
+      <c r="I415" t="s">
+        <v>31</v>
+      </c>
+      <c r="J415" t="s">
+        <v>693</v>
+      </c>
+      <c r="K415" t="s">
+        <v>35</v>
+      </c>
+      <c r="M415" t="s">
+        <v>35</v>
+      </c>
+      <c r="N415" t="s">
+        <v>595</v>
+      </c>
+      <c r="O415" t="s">
+        <v>35</v>
+      </c>
+      <c r="P415" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q415" t="s">
+        <v>35</v>
+      </c>
+      <c r="T415" t="s">
+        <v>45</v>
+      </c>
+      <c r="X415" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y415" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA415" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE415" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG415" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="416" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A416" t="s">
+        <v>614</v>
+      </c>
+      <c r="B416" t="s">
+        <v>615</v>
+      </c>
+      <c r="C416" t="s">
+        <v>668</v>
+      </c>
+      <c r="E416" t="s">
+        <v>27</v>
+      </c>
+      <c r="F416" t="s">
+        <v>28</v>
+      </c>
+      <c r="G416" t="s">
+        <v>29</v>
+      </c>
+      <c r="H416" t="s">
+        <v>30</v>
+      </c>
+      <c r="I416" t="s">
+        <v>31</v>
+      </c>
+      <c r="J416" t="s">
+        <v>692</v>
+      </c>
+      <c r="K416" t="s">
+        <v>35</v>
+      </c>
+      <c r="M416" t="s">
+        <v>35</v>
+      </c>
+      <c r="N416" t="s">
+        <v>606</v>
+      </c>
+      <c r="O416" t="s">
+        <v>35</v>
+      </c>
+      <c r="P416" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q416" t="s">
+        <v>35</v>
+      </c>
+      <c r="R416" t="s">
+        <v>45</v>
+      </c>
+      <c r="T416" t="s">
+        <v>45</v>
+      </c>
+      <c r="X416" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y416" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA416" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE416" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG416" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="417" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A417" t="s">
+        <v>614</v>
+      </c>
+      <c r="B417" t="s">
+        <v>615</v>
+      </c>
+      <c r="C417" t="s">
+        <v>669</v>
+      </c>
+      <c r="E417" t="s">
+        <v>27</v>
+      </c>
+      <c r="F417" t="s">
+        <v>28</v>
+      </c>
+      <c r="G417" t="s">
+        <v>29</v>
+      </c>
+      <c r="H417" t="s">
+        <v>30</v>
+      </c>
+      <c r="I417" t="s">
+        <v>31</v>
+      </c>
+      <c r="J417" t="s">
+        <v>693</v>
+      </c>
+      <c r="K417" t="s">
+        <v>35</v>
+      </c>
+      <c r="M417" t="s">
+        <v>35</v>
+      </c>
+      <c r="N417" t="s">
+        <v>275</v>
+      </c>
+      <c r="O417" t="s">
+        <v>35</v>
+      </c>
+      <c r="P417" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q417" t="s">
+        <v>35</v>
+      </c>
+      <c r="R417" t="s">
+        <v>61</v>
+      </c>
+      <c r="X417" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y417" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z417" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="418" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A418" t="s">
+        <v>614</v>
+      </c>
+      <c r="B418" t="s">
+        <v>615</v>
+      </c>
+      <c r="C418" t="s">
+        <v>670</v>
+      </c>
+      <c r="E418" t="s">
+        <v>27</v>
+      </c>
+      <c r="F418" t="s">
+        <v>28</v>
+      </c>
+      <c r="G418" t="s">
+        <v>29</v>
+      </c>
+      <c r="H418" t="s">
+        <v>30</v>
+      </c>
+      <c r="I418" t="s">
+        <v>31</v>
+      </c>
+      <c r="J418" t="s">
+        <v>692</v>
+      </c>
+      <c r="K418" t="s">
+        <v>35</v>
+      </c>
+      <c r="M418" t="s">
+        <v>35</v>
+      </c>
+      <c r="N418" t="s">
+        <v>674</v>
+      </c>
+      <c r="O418" t="s">
+        <v>35</v>
+      </c>
+      <c r="P418" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q418" t="s">
+        <v>35</v>
+      </c>
+      <c r="R418" t="s">
+        <v>61</v>
+      </c>
+      <c r="T418" t="s">
+        <v>61</v>
+      </c>
+      <c r="X418" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y418" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA418" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE418" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG418" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="419" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
+        <v>614</v>
+      </c>
+      <c r="B419" t="s">
+        <v>615</v>
+      </c>
+      <c r="C419" t="s">
+        <v>671</v>
+      </c>
+      <c r="E419" t="s">
+        <v>27</v>
+      </c>
+      <c r="F419" t="s">
+        <v>28</v>
+      </c>
+      <c r="G419" t="s">
+        <v>29</v>
+      </c>
+      <c r="H419" t="s">
+        <v>30</v>
+      </c>
+      <c r="I419" t="s">
+        <v>31</v>
+      </c>
+      <c r="J419" t="s">
+        <v>692</v>
+      </c>
+      <c r="K419" t="s">
+        <v>35</v>
+      </c>
+      <c r="M419" t="s">
+        <v>35</v>
+      </c>
+      <c r="N419" t="s">
+        <v>688</v>
+      </c>
+      <c r="O419" t="s">
+        <v>35</v>
+      </c>
+      <c r="P419" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q419" t="s">
+        <v>35</v>
+      </c>
+      <c r="R419" t="s">
+        <v>61</v>
+      </c>
+      <c r="T419" t="s">
+        <v>45</v>
+      </c>
+      <c r="X419" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y419" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z419" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA419" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE419" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG419" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="420" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A420" t="s">
+        <v>614</v>
+      </c>
+      <c r="B420" t="s">
+        <v>615</v>
+      </c>
+      <c r="C420" t="s">
+        <v>672</v>
+      </c>
+      <c r="E420" t="s">
+        <v>27</v>
+      </c>
+      <c r="F420" t="s">
+        <v>28</v>
+      </c>
+      <c r="G420" t="s">
+        <v>29</v>
+      </c>
+      <c r="H420" t="s">
+        <v>30</v>
+      </c>
+      <c r="I420" t="s">
+        <v>31</v>
+      </c>
+      <c r="J420" t="s">
+        <v>692</v>
+      </c>
+      <c r="K420" t="s">
+        <v>35</v>
+      </c>
+      <c r="M420" t="s">
+        <v>35</v>
+      </c>
+      <c r="N420" t="s">
+        <v>689</v>
+      </c>
+      <c r="O420" t="s">
+        <v>35</v>
+      </c>
+      <c r="P420" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q420" t="s">
+        <v>35</v>
+      </c>
+      <c r="T420" t="s">
+        <v>45</v>
+      </c>
+      <c r="X420" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y420" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE420" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG420" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="421" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A421" t="s">
+        <v>614</v>
+      </c>
+      <c r="B421" t="s">
+        <v>615</v>
+      </c>
+      <c r="C421" t="s">
+        <v>673</v>
+      </c>
+      <c r="E421" t="s">
+        <v>27</v>
+      </c>
+      <c r="F421" t="s">
+        <v>28</v>
+      </c>
+      <c r="G421" t="s">
+        <v>29</v>
+      </c>
+      <c r="H421" t="s">
+        <v>30</v>
+      </c>
+      <c r="I421" t="s">
+        <v>31</v>
+      </c>
+      <c r="J421" t="s">
+        <v>692</v>
+      </c>
+      <c r="K421" t="s">
+        <v>35</v>
+      </c>
+      <c r="M421" t="s">
+        <v>35</v>
+      </c>
+      <c r="N421" t="s">
+        <v>598</v>
+      </c>
+      <c r="O421" t="s">
+        <v>35</v>
+      </c>
+      <c r="P421" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q421" t="s">
+        <v>35</v>
+      </c>
+      <c r="T421" t="s">
+        <v>61</v>
+      </c>
+      <c r="X421" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y421" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA421" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE421" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG421" t="s">
         <v>61</v>
       </c>
     </row>

--- a/notebooks/NF1/input/NF1_NF1_individuals.xlsx
+++ b/notebooks/NF1/input/NF1_NF1_individuals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/NF1/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E724AD-52E4-5940-BDE4-58A5C9B4CDE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75871E00-882D-6245-B159-635FC17ADF21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="500" windowWidth="38400" windowHeight="19700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2541,14 +2541,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BC421"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A386" zoomScale="99" workbookViewId="0">
-      <selection activeCell="A412" sqref="A412:XFD412"/>
+    <sheetView tabSelected="1" topLeftCell="A294" zoomScale="99" workbookViewId="0">
+      <selection activeCell="F300" sqref="F300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="33.5" customWidth="1"/>
-    <col min="5" max="8" width="8.83203125" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" customWidth="1"/>
+    <col min="6" max="6" width="22.83203125" customWidth="1"/>
+    <col min="7" max="8" width="8.83203125" customWidth="1"/>
     <col min="9" max="9" width="15.83203125" customWidth="1"/>
     <col min="10" max="10" width="29" customWidth="1"/>
     <col min="24" max="24" width="6.83203125" customWidth="1"/>
@@ -2889,7 +2891,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="3" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -3023,7 +3025,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>57</v>
       </c>
@@ -3160,7 +3162,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -3297,7 +3299,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -3431,7 +3433,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>72</v>
       </c>
@@ -3568,7 +3570,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>72</v>
       </c>
@@ -3702,7 +3704,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>72</v>
       </c>
@@ -3830,7 +3832,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:55" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:55" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>85</v>
       </c>
@@ -3970,7 +3972,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:55" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:55" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>85</v>
       </c>
@@ -4110,7 +4112,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:55" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:55" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>85</v>
       </c>
@@ -4250,7 +4252,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:55" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:55" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>85</v>
       </c>
@@ -4390,7 +4392,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:55" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:55" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>85</v>
       </c>
@@ -4530,7 +4532,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:55" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:55" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>85</v>
       </c>
@@ -4670,7 +4672,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:55" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:55" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>85</v>
       </c>
@@ -4810,7 +4812,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>85</v>
       </c>
@@ -4947,7 +4949,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>85</v>
       </c>
@@ -5087,7 +5089,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>85</v>
       </c>
@@ -5227,7 +5229,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>85</v>
       </c>
@@ -5367,7 +5369,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>85</v>
       </c>
@@ -5507,7 +5509,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>85</v>
       </c>
@@ -5647,7 +5649,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>85</v>
       </c>
@@ -5787,7 +5789,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>85</v>
       </c>
@@ -5927,7 +5929,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>85</v>
       </c>
@@ -6067,7 +6069,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>85</v>
       </c>
@@ -6207,7 +6209,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>85</v>
       </c>
@@ -6347,7 +6349,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>85</v>
       </c>
@@ -6487,7 +6489,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>85</v>
       </c>
@@ -6627,7 +6629,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>85</v>
       </c>
@@ -6767,7 +6769,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>85</v>
       </c>
@@ -6907,7 +6909,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>85</v>
       </c>
@@ -7047,7 +7049,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>85</v>
       </c>
@@ -7187,7 +7189,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>85</v>
       </c>
@@ -7327,7 +7329,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>85</v>
       </c>
@@ -7467,7 +7469,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>85</v>
       </c>
@@ -7607,7 +7609,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>85</v>
       </c>
@@ -7747,7 +7749,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>85</v>
       </c>
@@ -7887,7 +7889,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>85</v>
       </c>
@@ -8024,7 +8026,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>85</v>
       </c>
@@ -8164,7 +8166,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>85</v>
       </c>
@@ -8304,7 +8306,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>85</v>
       </c>
@@ -8444,7 +8446,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>85</v>
       </c>
@@ -8584,7 +8586,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>85</v>
       </c>
@@ -8724,7 +8726,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>85</v>
       </c>
@@ -8864,7 +8866,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>85</v>
       </c>
@@ -9004,7 +9006,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>85</v>
       </c>
@@ -9144,7 +9146,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>85</v>
       </c>
@@ -9281,7 +9283,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>85</v>
       </c>
@@ -9418,7 +9420,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>85</v>
       </c>
@@ -9554,7 +9556,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>85</v>
       </c>
@@ -9694,7 +9696,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>85</v>
       </c>
@@ -9834,7 +9836,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>85</v>
       </c>
@@ -9971,7 +9973,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>85</v>
       </c>
@@ -10111,7 +10113,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="55" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>85</v>
       </c>
@@ -10251,7 +10253,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="56" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>85</v>
       </c>
@@ -10388,7 +10390,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>85</v>
       </c>
@@ -10528,7 +10530,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>85</v>
       </c>
@@ -10668,7 +10670,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>85</v>
       </c>
@@ -10808,7 +10810,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>85</v>
       </c>
@@ -10948,7 +10950,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="61" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>85</v>
       </c>
@@ -11088,7 +11090,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>85</v>
       </c>
@@ -11228,7 +11230,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>85</v>
       </c>
@@ -11368,7 +11370,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>85</v>
       </c>
@@ -11508,7 +11510,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="65" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>85</v>
       </c>
@@ -11648,7 +11650,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="66" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>85</v>
       </c>
@@ -11788,7 +11790,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>85</v>
       </c>
@@ -11928,7 +11930,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>85</v>
       </c>
@@ -12068,7 +12070,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="69" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>85</v>
       </c>
@@ -12208,7 +12210,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="70" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>85</v>
       </c>
@@ -12348,7 +12350,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="71" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>85</v>
       </c>
@@ -12488,7 +12490,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="72" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>85</v>
       </c>
@@ -12628,7 +12630,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="73" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>85</v>
       </c>
@@ -12768,7 +12770,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="74" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>85</v>
       </c>
@@ -12908,7 +12910,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="75" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>85</v>
       </c>
@@ -13048,7 +13050,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="76" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>85</v>
       </c>
@@ -13188,7 +13190,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="77" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>85</v>
       </c>
@@ -13328,7 +13330,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="78" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>85</v>
       </c>
@@ -13465,7 +13467,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="79" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>85</v>
       </c>
@@ -13605,7 +13607,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="80" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>85</v>
       </c>
@@ -13745,7 +13747,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="81" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>85</v>
       </c>
@@ -13885,7 +13887,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="82" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>85</v>
       </c>
@@ -14025,7 +14027,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="83" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>85</v>
       </c>
@@ -14165,7 +14167,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="84" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>85</v>
       </c>
@@ -14305,7 +14307,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="85" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>85</v>
       </c>
@@ -14445,7 +14447,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="86" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -14585,7 +14587,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="87" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -14725,7 +14727,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="88" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>85</v>
       </c>
@@ -14865,7 +14867,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="89" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>85</v>
       </c>
@@ -14998,7 +15000,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="90" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>85</v>
       </c>
@@ -15138,7 +15140,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="91" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>85</v>
       </c>
@@ -15278,7 +15280,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="92" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>85</v>
       </c>
@@ -15418,7 +15420,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="93" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>85</v>
       </c>
@@ -15558,7 +15560,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="94" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>85</v>
       </c>
@@ -15698,7 +15700,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="95" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>85</v>
       </c>
@@ -15838,7 +15840,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="96" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>85</v>
       </c>
@@ -15978,7 +15980,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="97" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>85</v>
       </c>
@@ -16118,7 +16120,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="98" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>85</v>
       </c>
@@ -16258,7 +16260,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="99" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>85</v>
       </c>
@@ -16398,7 +16400,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="100" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>85</v>
       </c>
@@ -16538,7 +16540,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="101" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>85</v>
       </c>
@@ -16678,7 +16680,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="102" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>85</v>
       </c>
@@ -16818,7 +16820,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="103" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>85</v>
       </c>
@@ -16958,7 +16960,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="104" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>85</v>
       </c>
@@ -17098,7 +17100,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="105" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>85</v>
       </c>
@@ -17238,7 +17240,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="106" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>85</v>
       </c>
@@ -17375,7 +17377,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="107" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>85</v>
       </c>
@@ -17512,7 +17514,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="108" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>85</v>
       </c>
@@ -17652,7 +17654,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="109" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>85</v>
       </c>
@@ -17792,7 +17794,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="110" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>85</v>
       </c>
@@ -17929,7 +17931,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="111" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>85</v>
       </c>
@@ -18066,7 +18068,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="112" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>85</v>
       </c>
@@ -18206,7 +18208,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="113" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>85</v>
       </c>
@@ -18346,7 +18348,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="114" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>85</v>
       </c>
@@ -18486,7 +18488,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="115" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>85</v>
       </c>
@@ -18626,7 +18628,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="116" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>85</v>
       </c>
@@ -18766,7 +18768,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="117" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>85</v>
       </c>
@@ -18906,7 +18908,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="118" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>85</v>
       </c>
@@ -19046,7 +19048,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="119" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>85</v>
       </c>
@@ -19186,7 +19188,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="120" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>85</v>
       </c>
@@ -19326,7 +19328,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="121" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>85</v>
       </c>
@@ -19466,7 +19468,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="122" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>85</v>
       </c>
@@ -19606,7 +19608,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="123" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>85</v>
       </c>
@@ -19746,7 +19748,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="124" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>85</v>
       </c>
@@ -19886,7 +19888,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="125" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>85</v>
       </c>
@@ -20026,7 +20028,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="126" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>85</v>
       </c>
@@ -20166,7 +20168,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="127" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>85</v>
       </c>
@@ -20306,7 +20308,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="128" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>85</v>
       </c>
@@ -20446,7 +20448,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="129" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>85</v>
       </c>
@@ -20583,7 +20585,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="130" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>85</v>
       </c>
@@ -20720,7 +20722,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="131" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>85</v>
       </c>
@@ -20857,7 +20859,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="132" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>85</v>
       </c>
@@ -20994,7 +20996,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="133" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>85</v>
       </c>
@@ -21131,7 +21133,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="134" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>85</v>
       </c>
@@ -21268,7 +21270,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="135" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>85</v>
       </c>
@@ -21408,7 +21410,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="136" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>85</v>
       </c>
@@ -21548,7 +21550,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="137" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>85</v>
       </c>
@@ -21688,7 +21690,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="138" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>85</v>
       </c>
@@ -21828,7 +21830,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="139" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>85</v>
       </c>
@@ -21968,7 +21970,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="140" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>85</v>
       </c>
@@ -22108,7 +22110,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="141" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>85</v>
       </c>
@@ -22248,7 +22250,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="142" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>85</v>
       </c>
@@ -22388,7 +22390,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="143" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>85</v>
       </c>
@@ -22528,7 +22530,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="144" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>85</v>
       </c>
@@ -22665,7 +22667,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="145" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>85</v>
       </c>
@@ -22802,7 +22804,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="146" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>85</v>
       </c>
@@ -22939,7 +22941,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="147" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>85</v>
       </c>
@@ -23079,7 +23081,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="148" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>85</v>
       </c>
@@ -23216,7 +23218,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="149" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>85</v>
       </c>
@@ -23353,7 +23355,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="150" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>85</v>
       </c>
@@ -23490,7 +23492,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="151" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>85</v>
       </c>
@@ -23630,7 +23632,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="152" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>85</v>
       </c>
@@ -23770,7 +23772,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="153" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>85</v>
       </c>
@@ -23907,7 +23909,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="154" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>85</v>
       </c>
@@ -24047,7 +24049,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="155" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>85</v>
       </c>
@@ -24187,7 +24189,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="156" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>85</v>
       </c>
@@ -24324,7 +24326,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="157" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>85</v>
       </c>
@@ -24461,7 +24463,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="158" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>85</v>
       </c>
@@ -24601,7 +24603,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="159" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>85</v>
       </c>
@@ -24741,7 +24743,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="160" spans="1:51" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>85</v>
       </c>
@@ -24881,7 +24883,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="161" spans="1:55" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:55" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>85</v>
       </c>
@@ -25021,7 +25023,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="162" spans="1:55" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:55" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>85</v>
       </c>
@@ -25161,7 +25163,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="163" spans="1:55" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:55" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>85</v>
       </c>
@@ -25301,7 +25303,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="164" spans="1:55" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:55" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>85</v>
       </c>
@@ -25438,7 +25440,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="165" spans="1:55" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:55" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>85</v>
       </c>
@@ -25575,7 +25577,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="166" spans="1:55" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:55" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>85</v>
       </c>
@@ -25715,7 +25717,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="167" spans="1:55" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:55" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>85</v>
       </c>
@@ -25852,7 +25854,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="168" spans="1:55" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:55" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>85</v>
       </c>
@@ -25989,7 +25991,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="169" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>322</v>
       </c>
@@ -26093,7 +26095,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="170" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>322</v>
       </c>
@@ -26197,7 +26199,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="171" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>322</v>
       </c>
@@ -26301,7 +26303,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="172" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>322</v>
       </c>
@@ -26405,7 +26407,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="173" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>322</v>
       </c>
@@ -26509,7 +26511,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="174" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>322</v>
       </c>
@@ -26613,7 +26615,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="175" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>322</v>
       </c>
@@ -26717,7 +26719,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="176" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>322</v>
       </c>
@@ -26821,7 +26823,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="177" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>322</v>
       </c>
@@ -26925,7 +26927,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="178" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>322</v>
       </c>
@@ -27029,7 +27031,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="179" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>322</v>
       </c>
@@ -27133,7 +27135,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="180" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>322</v>
       </c>
@@ -27237,7 +27239,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="181" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>322</v>
       </c>
@@ -27341,7 +27343,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="182" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>322</v>
       </c>
@@ -27445,7 +27447,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="183" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>322</v>
       </c>
@@ -27549,7 +27551,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="184" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>389</v>
       </c>
@@ -27653,7 +27655,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="185" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>389</v>
       </c>
@@ -27763,7 +27765,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="186" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>389</v>
       </c>
@@ -27867,7 +27869,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="187" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>389</v>
       </c>
@@ -27971,7 +27973,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="188" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>389</v>
       </c>
@@ -28075,7 +28077,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="189" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>389</v>
       </c>
@@ -28179,7 +28181,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="190" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>389</v>
       </c>
@@ -28283,7 +28285,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="191" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>389</v>
       </c>
@@ -28387,7 +28389,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="192" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>389</v>
       </c>
@@ -28491,7 +28493,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="193" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>389</v>
       </c>
@@ -28595,7 +28597,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="194" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>389</v>
       </c>
@@ -28699,7 +28701,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="195" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>389</v>
       </c>
@@ -28803,7 +28805,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="196" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>389</v>
       </c>
@@ -28907,7 +28909,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="197" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>389</v>
       </c>
@@ -29011,7 +29013,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="198" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>389</v>
       </c>
@@ -29115,7 +29117,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="199" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>389</v>
       </c>
@@ -29219,7 +29221,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="200" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>389</v>
       </c>
@@ -29323,7 +29325,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="201" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>389</v>
       </c>
@@ -29427,7 +29429,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="202" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>389</v>
       </c>
@@ -29531,7 +29533,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="203" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>389</v>
       </c>
@@ -29635,7 +29637,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="204" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>389</v>
       </c>
@@ -29739,7 +29741,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="205" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>389</v>
       </c>
@@ -29843,7 +29845,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="206" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>389</v>
       </c>
@@ -29947,7 +29949,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="207" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>389</v>
       </c>
@@ -30051,7 +30053,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="208" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>389</v>
       </c>
@@ -30155,7 +30157,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="209" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>389</v>
       </c>
@@ -30259,7 +30261,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="210" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>389</v>
       </c>
@@ -30363,7 +30365,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="211" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>389</v>
       </c>
@@ -30467,7 +30469,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="212" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>389</v>
       </c>
@@ -30571,7 +30573,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="213" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>389</v>
       </c>
@@ -30675,7 +30677,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="214" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>389</v>
       </c>
@@ -30779,7 +30781,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="215" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>389</v>
       </c>
@@ -30883,7 +30885,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="216" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>389</v>
       </c>
@@ -30987,7 +30989,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="217" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>389</v>
       </c>
@@ -31091,7 +31093,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="218" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>389</v>
       </c>
@@ -31195,7 +31197,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="219" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>389</v>
       </c>
@@ -31299,7 +31301,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="220" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>389</v>
       </c>
@@ -31403,7 +31405,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="221" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>389</v>
       </c>
@@ -31507,7 +31509,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="222" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>389</v>
       </c>
@@ -31611,7 +31613,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="223" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>389</v>
       </c>
@@ -31715,7 +31717,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="224" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>389</v>
       </c>
@@ -31819,7 +31821,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="225" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>389</v>
       </c>
@@ -31929,7 +31931,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="226" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>389</v>
       </c>
@@ -32033,7 +32035,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="227" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>389</v>
       </c>
@@ -32137,7 +32139,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="228" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>389</v>
       </c>
@@ -32241,7 +32243,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="229" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>389</v>
       </c>
@@ -32351,7 +32353,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="230" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>389</v>
       </c>
@@ -32455,7 +32457,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="231" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>389</v>
       </c>
@@ -32559,7 +32561,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="232" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>389</v>
       </c>
@@ -32663,7 +32665,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="233" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>389</v>
       </c>
@@ -32773,7 +32775,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="234" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>389</v>
       </c>
@@ -32883,7 +32885,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="235" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>389</v>
       </c>
@@ -32993,7 +32995,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="236" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>389</v>
       </c>
@@ -33097,7 +33099,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="237" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>389</v>
       </c>
@@ -33207,7 +33209,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="238" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>389</v>
       </c>
@@ -33317,7 +33319,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="239" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>389</v>
       </c>
@@ -33427,7 +33429,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="240" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>389</v>
       </c>
@@ -33537,7 +33539,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="241" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>389</v>
       </c>
@@ -33641,7 +33643,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="242" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>389</v>
       </c>
@@ -33751,7 +33753,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="243" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>389</v>
       </c>
@@ -33855,7 +33857,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="244" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>389</v>
       </c>
@@ -33965,7 +33967,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="245" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>389</v>
       </c>
@@ -34075,7 +34077,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="246" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>389</v>
       </c>
@@ -34179,7 +34181,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="247" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>389</v>
       </c>
@@ -34283,7 +34285,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="248" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>389</v>
       </c>
@@ -34393,7 +34395,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="249" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>389</v>
       </c>
@@ -34503,7 +34505,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="250" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>389</v>
       </c>
@@ -34607,7 +34609,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="251" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>389</v>
       </c>
@@ -34717,7 +34719,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="252" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>389</v>
       </c>
@@ -34827,7 +34829,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="253" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>389</v>
       </c>
@@ -34931,7 +34933,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="254" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>389</v>
       </c>
@@ -35041,7 +35043,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="255" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>389</v>
       </c>
@@ -35145,7 +35147,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="256" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>389</v>
       </c>
@@ -35249,7 +35251,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="257" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>389</v>
       </c>
@@ -35353,7 +35355,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="258" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>389</v>
       </c>
@@ -35454,7 +35456,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="259" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>389</v>
       </c>
@@ -35555,7 +35557,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="260" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>389</v>
       </c>
@@ -35656,7 +35658,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="261" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>389</v>
       </c>
@@ -35763,7 +35765,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="262" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>389</v>
       </c>
@@ -35864,7 +35866,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="263" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>389</v>
       </c>
@@ -35965,7 +35967,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="264" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>389</v>
       </c>
@@ -36069,7 +36071,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="265" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>389</v>
       </c>
@@ -36173,7 +36175,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="266" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>389</v>
       </c>
@@ -36277,7 +36279,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="267" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>389</v>
       </c>
@@ -36381,7 +36383,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="268" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>389</v>
       </c>
@@ -36485,7 +36487,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="269" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>389</v>
       </c>
@@ -36589,7 +36591,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="270" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>389</v>
       </c>
@@ -36693,7 +36695,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="271" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>389</v>
       </c>
@@ -36797,7 +36799,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="272" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>389</v>
       </c>
@@ -36901,7 +36903,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="273" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>389</v>
       </c>
@@ -37005,7 +37007,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="274" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>389</v>
       </c>
@@ -37109,7 +37111,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="275" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>389</v>
       </c>
@@ -37213,7 +37215,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="276" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>389</v>
       </c>
@@ -37317,7 +37319,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="277" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>389</v>
       </c>
@@ -37421,7 +37423,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="278" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>389</v>
       </c>
@@ -37525,7 +37527,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="279" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>389</v>
       </c>
@@ -37629,7 +37631,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="280" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>389</v>
       </c>
@@ -37733,7 +37735,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="281" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>389</v>
       </c>
@@ -37837,7 +37839,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="282" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>389</v>
       </c>
@@ -37947,7 +37949,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="283" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>389</v>
       </c>
@@ -38051,7 +38053,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="284" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>389</v>
       </c>
@@ -38155,7 +38157,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="285" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>389</v>
       </c>
@@ -38259,7 +38261,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="286" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>389</v>
       </c>
@@ -38363,7 +38365,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="287" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>389</v>
       </c>
@@ -38467,7 +38469,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="288" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>389</v>
       </c>
@@ -38571,7 +38573,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="289" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>389</v>
       </c>
@@ -38675,7 +38677,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="290" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>389</v>
       </c>
@@ -38779,7 +38781,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="291" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>389</v>
       </c>
@@ -38883,7 +38885,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="292" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>389</v>
       </c>
@@ -38987,7 +38989,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="293" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>389</v>
       </c>
@@ -39091,7 +39093,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="294" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>389</v>
       </c>
@@ -39195,7 +39197,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="295" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>389</v>
       </c>
@@ -39299,7 +39301,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="296" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>389</v>
       </c>
@@ -39403,7 +39405,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="297" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>389</v>
       </c>
@@ -39507,7 +39509,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="298" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>389</v>
       </c>
@@ -39611,7 +39613,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="299" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>389</v>
       </c>
@@ -39715,7 +39717,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="300" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>389</v>
       </c>
@@ -39819,7 +39821,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="301" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>389</v>
       </c>
@@ -39923,7 +39925,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="302" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>389</v>
       </c>
@@ -40033,7 +40035,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="303" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>389</v>
       </c>
@@ -40137,7 +40139,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="304" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>389</v>
       </c>
@@ -40241,7 +40243,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="305" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>389</v>
       </c>
@@ -40351,7 +40353,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="306" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>389</v>
       </c>
@@ -40455,7 +40457,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="307" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>389</v>
       </c>
@@ -40559,7 +40561,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="308" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>389</v>
       </c>
@@ -40663,7 +40665,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="309" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>389</v>
       </c>
@@ -40767,7 +40769,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="310" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>389</v>
       </c>
@@ -40871,7 +40873,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="311" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>389</v>
       </c>
@@ -40975,7 +40977,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="312" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>389</v>
       </c>
@@ -41079,7 +41081,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="313" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>389</v>
       </c>
@@ -41183,7 +41185,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="314" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>389</v>
       </c>
@@ -41287,7 +41289,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="315" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>389</v>
       </c>
@@ -41391,7 +41393,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="316" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>389</v>
       </c>
@@ -41495,7 +41497,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="317" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>389</v>
       </c>
@@ -41599,7 +41601,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="318" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>389</v>
       </c>
@@ -41703,7 +41705,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="319" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>389</v>
       </c>

--- a/notebooks/NF1/input/NF1_NF1_individuals.xlsx
+++ b/notebooks/NF1/input/NF1_NF1_individuals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/NF1/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75871E00-882D-6245-B159-635FC17ADF21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F61DB0-4BDB-2C4C-ABA6-D02A579BEE8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="38400" windowHeight="19700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2087,9 +2087,6 @@
     <t>P29Y</t>
   </si>
   <si>
-    <t>P0.5Y</t>
-  </si>
-  <si>
     <t>P60Y</t>
   </si>
   <si>
@@ -2118,6 +2115,9 @@
   </si>
   <si>
     <t>Type-3 microdeletion</t>
+  </si>
+  <si>
+    <t>P6M</t>
   </si>
 </sst>
 </file>
@@ -2541,8 +2541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BC421"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A294" zoomScale="99" workbookViewId="0">
-      <selection activeCell="F300" sqref="F300"/>
+    <sheetView tabSelected="1" topLeftCell="A365" zoomScale="99" workbookViewId="0">
+      <selection activeCell="O389" sqref="O389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -45094,7 +45094,7 @@
         <v>31</v>
       </c>
       <c r="J364" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="K364" t="s">
         <v>35</v>
@@ -45109,7 +45109,7 @@
         <v>35</v>
       </c>
       <c r="P364" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Q364" t="s">
         <v>35</v>
@@ -45165,7 +45165,7 @@
         <v>31</v>
       </c>
       <c r="J365" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K365" t="s">
         <v>35</v>
@@ -45180,7 +45180,7 @@
         <v>35</v>
       </c>
       <c r="P365" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Q365" t="s">
         <v>35</v>
@@ -45236,7 +45236,7 @@
         <v>31</v>
       </c>
       <c r="J366" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="K366" t="s">
         <v>35</v>
@@ -45251,7 +45251,7 @@
         <v>35</v>
       </c>
       <c r="P366" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Q366" t="s">
         <v>35</v>
@@ -45307,7 +45307,7 @@
         <v>31</v>
       </c>
       <c r="J367" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K367" t="s">
         <v>35</v>
@@ -45322,7 +45322,7 @@
         <v>35</v>
       </c>
       <c r="P367" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Q367" t="s">
         <v>35</v>
@@ -45378,7 +45378,7 @@
         <v>31</v>
       </c>
       <c r="J368" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K368" t="s">
         <v>35</v>
@@ -45393,7 +45393,7 @@
         <v>35</v>
       </c>
       <c r="P368" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Q368" t="s">
         <v>35</v>
@@ -45449,7 +45449,7 @@
         <v>31</v>
       </c>
       <c r="J369" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="K369" t="s">
         <v>35</v>
@@ -45464,7 +45464,7 @@
         <v>35</v>
       </c>
       <c r="P369" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Q369" t="s">
         <v>35</v>
@@ -45520,7 +45520,7 @@
         <v>31</v>
       </c>
       <c r="J370" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="K370" t="s">
         <v>35</v>
@@ -45535,7 +45535,7 @@
         <v>35</v>
       </c>
       <c r="P370" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Q370" t="s">
         <v>35</v>
@@ -45588,7 +45588,7 @@
         <v>31</v>
       </c>
       <c r="J371" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="K371" t="s">
         <v>35</v>
@@ -45603,7 +45603,7 @@
         <v>35</v>
       </c>
       <c r="P371" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Q371" t="s">
         <v>35</v>
@@ -45659,7 +45659,7 @@
         <v>31</v>
       </c>
       <c r="J372" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K372" t="s">
         <v>35</v>
@@ -45674,7 +45674,7 @@
         <v>35</v>
       </c>
       <c r="P372" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Q372" t="s">
         <v>35</v>
@@ -45730,7 +45730,7 @@
         <v>31</v>
       </c>
       <c r="J373" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K373" t="s">
         <v>35</v>
@@ -45745,7 +45745,7 @@
         <v>35</v>
       </c>
       <c r="P373" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Q373" t="s">
         <v>35</v>
@@ -45801,7 +45801,7 @@
         <v>31</v>
       </c>
       <c r="J374" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K374" t="s">
         <v>35</v>
@@ -45816,7 +45816,7 @@
         <v>35</v>
       </c>
       <c r="P374" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Q374" t="s">
         <v>35</v>
@@ -45872,7 +45872,7 @@
         <v>31</v>
       </c>
       <c r="J375" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K375" t="s">
         <v>35</v>
@@ -45887,7 +45887,7 @@
         <v>35</v>
       </c>
       <c r="P375" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Q375" t="s">
         <v>35</v>
@@ -45943,7 +45943,7 @@
         <v>31</v>
       </c>
       <c r="J376" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K376" t="s">
         <v>35</v>
@@ -45958,7 +45958,7 @@
         <v>35</v>
       </c>
       <c r="P376" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Q376" t="s">
         <v>35</v>
@@ -46014,7 +46014,7 @@
         <v>31</v>
       </c>
       <c r="J377" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="K377" t="s">
         <v>35</v>
@@ -46029,7 +46029,7 @@
         <v>35</v>
       </c>
       <c r="P377" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Q377" t="s">
         <v>35</v>
@@ -46082,7 +46082,7 @@
         <v>31</v>
       </c>
       <c r="J378" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K378" t="s">
         <v>35</v>
@@ -46097,7 +46097,7 @@
         <v>35</v>
       </c>
       <c r="P378" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Q378" t="s">
         <v>35</v>
@@ -46153,7 +46153,7 @@
         <v>31</v>
       </c>
       <c r="J379" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K379" t="s">
         <v>35</v>
@@ -46168,7 +46168,7 @@
         <v>35</v>
       </c>
       <c r="P379" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Q379" t="s">
         <v>35</v>
@@ -46221,7 +46221,7 @@
         <v>31</v>
       </c>
       <c r="J380" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K380" t="s">
         <v>35</v>
@@ -46236,7 +46236,7 @@
         <v>35</v>
       </c>
       <c r="P380" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Q380" t="s">
         <v>35</v>
@@ -46292,7 +46292,7 @@
         <v>31</v>
       </c>
       <c r="J381" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="K381" t="s">
         <v>35</v>
@@ -46307,7 +46307,7 @@
         <v>35</v>
       </c>
       <c r="P381" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Q381" t="s">
         <v>35</v>
@@ -46360,7 +46360,7 @@
         <v>31</v>
       </c>
       <c r="J382" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K382" t="s">
         <v>35</v>
@@ -46375,7 +46375,7 @@
         <v>35</v>
       </c>
       <c r="P382" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Q382" t="s">
         <v>35</v>
@@ -46428,7 +46428,7 @@
         <v>31</v>
       </c>
       <c r="J383" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K383" t="s">
         <v>35</v>
@@ -46443,7 +46443,7 @@
         <v>35</v>
       </c>
       <c r="P383" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Q383" t="s">
         <v>35</v>
@@ -46493,7 +46493,7 @@
         <v>31</v>
       </c>
       <c r="J384" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K384" t="s">
         <v>35</v>
@@ -46508,7 +46508,7 @@
         <v>35</v>
       </c>
       <c r="P384" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Q384" t="s">
         <v>35</v>
@@ -46561,7 +46561,7 @@
         <v>31</v>
       </c>
       <c r="J385" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K385" t="s">
         <v>35</v>
@@ -46576,7 +46576,7 @@
         <v>35</v>
       </c>
       <c r="P385" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Q385" t="s">
         <v>35</v>
@@ -46632,7 +46632,7 @@
         <v>31</v>
       </c>
       <c r="J386" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K386" t="s">
         <v>35</v>
@@ -46647,7 +46647,7 @@
         <v>35</v>
       </c>
       <c r="P386" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Q386" t="s">
         <v>35</v>
@@ -46703,7 +46703,7 @@
         <v>31</v>
       </c>
       <c r="J387" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K387" t="s">
         <v>35</v>
@@ -46718,7 +46718,7 @@
         <v>35</v>
       </c>
       <c r="P387" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Q387" t="s">
         <v>35</v>
@@ -46771,7 +46771,7 @@
         <v>31</v>
       </c>
       <c r="J388" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="K388" t="s">
         <v>35</v>
@@ -46786,7 +46786,7 @@
         <v>35</v>
       </c>
       <c r="P388" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Q388" t="s">
         <v>35</v>
@@ -46839,7 +46839,7 @@
         <v>31</v>
       </c>
       <c r="J389" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K389" t="s">
         <v>35</v>
@@ -46848,13 +46848,13 @@
         <v>35</v>
       </c>
       <c r="N389" t="s">
-        <v>684</v>
+        <v>694</v>
       </c>
       <c r="O389" t="s">
         <v>35</v>
       </c>
       <c r="P389" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Q389" t="s">
         <v>35</v>
@@ -46904,7 +46904,7 @@
         <v>31</v>
       </c>
       <c r="J390" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K390" t="s">
         <v>35</v>
@@ -46919,7 +46919,7 @@
         <v>35</v>
       </c>
       <c r="P390" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Q390" t="s">
         <v>35</v>
@@ -46972,7 +46972,7 @@
         <v>31</v>
       </c>
       <c r="J391" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="K391" t="s">
         <v>35</v>
@@ -46987,7 +46987,7 @@
         <v>35</v>
       </c>
       <c r="P391" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Q391" t="s">
         <v>35</v>
@@ -47040,7 +47040,7 @@
         <v>31</v>
       </c>
       <c r="J392" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K392" t="s">
         <v>35</v>
@@ -47055,7 +47055,7 @@
         <v>35</v>
       </c>
       <c r="P392" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Q392" t="s">
         <v>35</v>
@@ -47105,7 +47105,7 @@
         <v>31</v>
       </c>
       <c r="J393" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="K393" t="s">
         <v>35</v>
@@ -47120,7 +47120,7 @@
         <v>35</v>
       </c>
       <c r="P393" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Q393" t="s">
         <v>35</v>
@@ -47167,7 +47167,7 @@
         <v>31</v>
       </c>
       <c r="J394" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="K394" t="s">
         <v>35</v>
@@ -47182,7 +47182,7 @@
         <v>35</v>
       </c>
       <c r="P394" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Q394" t="s">
         <v>35</v>
@@ -47232,7 +47232,7 @@
         <v>31</v>
       </c>
       <c r="J395" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K395" t="s">
         <v>35</v>
@@ -47247,7 +47247,7 @@
         <v>35</v>
       </c>
       <c r="P395" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Q395" t="s">
         <v>35</v>
@@ -47297,7 +47297,7 @@
         <v>31</v>
       </c>
       <c r="J396" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K396" t="s">
         <v>35</v>
@@ -47312,7 +47312,7 @@
         <v>35</v>
       </c>
       <c r="P396" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Q396" t="s">
         <v>35</v>
@@ -47362,7 +47362,7 @@
         <v>31</v>
       </c>
       <c r="J397" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K397" t="s">
         <v>35</v>
@@ -47377,7 +47377,7 @@
         <v>35</v>
       </c>
       <c r="P397" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Q397" t="s">
         <v>35</v>
@@ -47430,7 +47430,7 @@
         <v>31</v>
       </c>
       <c r="J398" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K398" t="s">
         <v>35</v>
@@ -47445,7 +47445,7 @@
         <v>35</v>
       </c>
       <c r="P398" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Q398" t="s">
         <v>35</v>
@@ -47495,7 +47495,7 @@
         <v>31</v>
       </c>
       <c r="J399" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K399" t="s">
         <v>35</v>
@@ -47510,7 +47510,7 @@
         <v>35</v>
       </c>
       <c r="P399" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Q399" t="s">
         <v>35</v>
@@ -47563,7 +47563,7 @@
         <v>31</v>
       </c>
       <c r="J400" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K400" t="s">
         <v>35</v>
@@ -47578,7 +47578,7 @@
         <v>35</v>
       </c>
       <c r="P400" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Q400" t="s">
         <v>35</v>
@@ -47628,7 +47628,7 @@
         <v>31</v>
       </c>
       <c r="J401" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="K401" t="s">
         <v>35</v>
@@ -47643,7 +47643,7 @@
         <v>35</v>
       </c>
       <c r="P401" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Q401" t="s">
         <v>35</v>
@@ -47693,7 +47693,7 @@
         <v>31</v>
       </c>
       <c r="J402" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K402" t="s">
         <v>35</v>
@@ -47708,7 +47708,7 @@
         <v>35</v>
       </c>
       <c r="P402" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Q402" t="s">
         <v>35</v>
@@ -47758,7 +47758,7 @@
         <v>31</v>
       </c>
       <c r="J403" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K403" t="s">
         <v>35</v>
@@ -47773,7 +47773,7 @@
         <v>35</v>
       </c>
       <c r="P403" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Q403" t="s">
         <v>35</v>
@@ -47829,7 +47829,7 @@
         <v>31</v>
       </c>
       <c r="J404" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K404" t="s">
         <v>35</v>
@@ -47844,7 +47844,7 @@
         <v>35</v>
       </c>
       <c r="P404" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Q404" t="s">
         <v>35</v>
@@ -47894,7 +47894,7 @@
         <v>31</v>
       </c>
       <c r="J405" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K405" t="s">
         <v>35</v>
@@ -47909,7 +47909,7 @@
         <v>35</v>
       </c>
       <c r="P405" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Q405" t="s">
         <v>35</v>
@@ -47959,7 +47959,7 @@
         <v>31</v>
       </c>
       <c r="J406" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K406" t="s">
         <v>35</v>
@@ -47974,7 +47974,7 @@
         <v>35</v>
       </c>
       <c r="P406" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Q406" t="s">
         <v>35</v>
@@ -48024,7 +48024,7 @@
         <v>31</v>
       </c>
       <c r="J407" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K407" t="s">
         <v>35</v>
@@ -48039,7 +48039,7 @@
         <v>35</v>
       </c>
       <c r="P407" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Q407" t="s">
         <v>35</v>
@@ -48089,7 +48089,7 @@
         <v>31</v>
       </c>
       <c r="J408" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K408" t="s">
         <v>35</v>
@@ -48104,7 +48104,7 @@
         <v>35</v>
       </c>
       <c r="P408" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Q408" t="s">
         <v>35</v>
@@ -48154,7 +48154,7 @@
         <v>31</v>
       </c>
       <c r="J409" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K409" t="s">
         <v>35</v>
@@ -48163,13 +48163,13 @@
         <v>35</v>
       </c>
       <c r="N409" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="O409" t="s">
         <v>35</v>
       </c>
       <c r="P409" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Q409" t="s">
         <v>35</v>
@@ -48219,7 +48219,7 @@
         <v>31</v>
       </c>
       <c r="J410" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K410" t="s">
         <v>35</v>
@@ -48234,7 +48234,7 @@
         <v>35</v>
       </c>
       <c r="P410" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Q410" t="s">
         <v>35</v>
@@ -48284,7 +48284,7 @@
         <v>31</v>
       </c>
       <c r="J411" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K411" t="s">
         <v>35</v>
@@ -48299,7 +48299,7 @@
         <v>35</v>
       </c>
       <c r="P411" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Q411" t="s">
         <v>35</v>
@@ -48349,7 +48349,7 @@
         <v>31</v>
       </c>
       <c r="J412" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K412" t="s">
         <v>35</v>
@@ -48358,13 +48358,13 @@
         <v>35</v>
       </c>
       <c r="N412" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="O412" t="s">
         <v>35</v>
       </c>
       <c r="P412" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Q412" t="s">
         <v>35</v>
@@ -48414,7 +48414,7 @@
         <v>31</v>
       </c>
       <c r="J413" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K413" t="s">
         <v>35</v>
@@ -48423,13 +48423,13 @@
         <v>35</v>
       </c>
       <c r="N413" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="O413" t="s">
         <v>35</v>
       </c>
       <c r="P413" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Q413" t="s">
         <v>35</v>
@@ -48479,7 +48479,7 @@
         <v>31</v>
       </c>
       <c r="J414" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K414" t="s">
         <v>35</v>
@@ -48494,7 +48494,7 @@
         <v>35</v>
       </c>
       <c r="P414" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Q414" t="s">
         <v>35</v>
@@ -48544,7 +48544,7 @@
         <v>31</v>
       </c>
       <c r="J415" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="K415" t="s">
         <v>35</v>
@@ -48559,7 +48559,7 @@
         <v>35</v>
       </c>
       <c r="P415" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Q415" t="s">
         <v>35</v>
@@ -48609,7 +48609,7 @@
         <v>31</v>
       </c>
       <c r="J416" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K416" t="s">
         <v>35</v>
@@ -48624,7 +48624,7 @@
         <v>35</v>
       </c>
       <c r="P416" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Q416" t="s">
         <v>35</v>
@@ -48677,7 +48677,7 @@
         <v>31</v>
       </c>
       <c r="J417" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="K417" t="s">
         <v>35</v>
@@ -48692,7 +48692,7 @@
         <v>35</v>
       </c>
       <c r="P417" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Q417" t="s">
         <v>35</v>
@@ -48736,7 +48736,7 @@
         <v>31</v>
       </c>
       <c r="J418" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K418" t="s">
         <v>35</v>
@@ -48751,7 +48751,7 @@
         <v>35</v>
       </c>
       <c r="P418" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Q418" t="s">
         <v>35</v>
@@ -48804,7 +48804,7 @@
         <v>31</v>
       </c>
       <c r="J419" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K419" t="s">
         <v>35</v>
@@ -48813,13 +48813,13 @@
         <v>35</v>
       </c>
       <c r="N419" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="O419" t="s">
         <v>35</v>
       </c>
       <c r="P419" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Q419" t="s">
         <v>35</v>
@@ -48875,7 +48875,7 @@
         <v>31</v>
       </c>
       <c r="J420" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K420" t="s">
         <v>35</v>
@@ -48884,13 +48884,13 @@
         <v>35</v>
       </c>
       <c r="N420" t="s">
+        <v>688</v>
+      </c>
+      <c r="O420" t="s">
+        <v>35</v>
+      </c>
+      <c r="P420" t="s">
         <v>689</v>
-      </c>
-      <c r="O420" t="s">
-        <v>35</v>
-      </c>
-      <c r="P420" t="s">
-        <v>690</v>
       </c>
       <c r="Q420" t="s">
         <v>35</v>
@@ -48937,7 +48937,7 @@
         <v>31</v>
       </c>
       <c r="J421" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K421" t="s">
         <v>35</v>
@@ -48952,7 +48952,7 @@
         <v>35</v>
       </c>
       <c r="P421" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Q421" t="s">
         <v>35</v>
